--- a/rider/total/total.xlsx
+++ b/rider/total/total.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="380">
   <si>
     <t>Weekday</t>
   </si>
@@ -1133,6 +1133,27 @@
   </si>
   <si>
     <t>12 Sep 2016</t>
+  </si>
+  <si>
+    <t>13 Sep 2016</t>
+  </si>
+  <si>
+    <t>14 Sep 2016</t>
+  </si>
+  <si>
+    <t>15 Sep 2016</t>
+  </si>
+  <si>
+    <t>16 Sep 2016</t>
+  </si>
+  <si>
+    <t>17 Sep 2016</t>
+  </si>
+  <si>
+    <t>18 Sep 2016</t>
+  </si>
+  <si>
+    <t>19 Sep 2016</t>
   </si>
 </sst>
 </file>
@@ -1223,9 +1244,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$362</c:f>
+              <c:f>Ridership!$B$2:$B$369</c:f>
               <c:strCache>
-                <c:ptCount val="361"/>
+                <c:ptCount val="368"/>
                 <c:pt idx="0">
                   <c:v>31 Aug 2015</c:v>
                 </c:pt>
@@ -2308,16 +2329,37 @@
                 </c:pt>
                 <c:pt idx="360">
                   <c:v>12 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>13 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>14 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>15 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>16 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>17 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>18 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>19 Sep 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$C$2:$C$362</c:f>
+              <c:f>Ridership!$C$2:$C$369</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="361"/>
+                <c:ptCount val="368"/>
                 <c:pt idx="0">
                   <c:v>14</c:v>
                 </c:pt>
@@ -3276,118 +3318,118 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>166</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>189</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>216</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>169</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>183</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="324">
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>40</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>145</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>213</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>212</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="329">
                   <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>239</c:v>
+                  <c:v>243</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>100</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>73</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>177</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>170</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>199</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>213</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>200</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>84</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="339">
                   <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>191</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>192</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>188</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>222</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>190</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>301</c:v>
+                  <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>114</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>202</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>252</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>187</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>208</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>141</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="352">
                   <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>78</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>221</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>248</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>230</c:v>
+                  <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="357">
                   <c:v>216</c:v>
@@ -3396,10 +3438,31 @@
                   <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="359">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="366">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="360">
-                  <c:v>170</c:v>
+                <c:pt idx="367">
+                  <c:v>103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3423,9 +3486,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$362</c:f>
+              <c:f>Ridership!$B$2:$B$369</c:f>
               <c:strCache>
-                <c:ptCount val="361"/>
+                <c:ptCount val="368"/>
                 <c:pt idx="0">
                   <c:v>31 Aug 2015</c:v>
                 </c:pt>
@@ -4508,16 +4571,37 @@
                 </c:pt>
                 <c:pt idx="360">
                   <c:v>12 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>13 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>14 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>15 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>16 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>17 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>18 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>19 Sep 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$D$2:$D$362</c:f>
+              <c:f>Ridership!$D$2:$D$369</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="361"/>
+                <c:ptCount val="368"/>
                 <c:pt idx="0">
                   <c:v>14</c:v>
                 </c:pt>
@@ -5476,130 +5560,151 @@
                   <c:v>32.98</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>92.16</c:v>
+                  <c:v>92.47</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>93.96</c:v>
+                  <c:v>93.86</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>100.5</c:v>
+                  <c:v>99.65</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>97.5</c:v>
+                  <c:v>97.69</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>94.36</c:v>
+                  <c:v>94.67</c:v>
                 </c:pt>
                 <c:pt idx="324">
                   <c:v>40.3</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>33.13</c:v>
+                  <c:v>33.19</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>93.36</c:v>
+                  <c:v>93.43</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>96.34</c:v>
+                  <c:v>96.16</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>102.78</c:v>
+                  <c:v>101.71</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>99.65</c:v>
+                  <c:v>99.84</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>97.5</c:v>
+                  <c:v>97.89</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>41.57</c:v>
+                  <c:v>41.6</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>33.96</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>95.22</c:v>
+                  <c:v>95.09</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>97.78</c:v>
+                  <c:v>97.88</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>104.7</c:v>
+                  <c:v>103.58</c:v>
                 </c:pt>
                 <c:pt idx="336">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>100.11</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>35.02</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>96.91</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>99.79</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>105.55</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>103.92</c:v>
+                </c:pt>
+                <c:pt idx="344">
                   <c:v>101.92</c:v>
                 </c:pt>
-                <c:pt idx="337">
-                  <c:v>99.68</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>42.46</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>34.98</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>97.3</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>99.6</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>106.33</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>104.27</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>101.56</c:v>
-                </c:pt>
                 <c:pt idx="345">
-                  <c:v>47.73</c:v>
+                  <c:v>47.88</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>36.56</c:v>
+                  <c:v>36.66</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>99.53</c:v>
+                  <c:v>100.11</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>102.47</c:v>
+                  <c:v>102.36</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>107.88</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>106.27</c:v>
+                  <c:v>105.69</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>102.37</c:v>
+                  <c:v>102.65</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>48.72</c:v>
+                  <c:v>48.86</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>37.37</c:v>
+                  <c:v>37.43</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>104.67</c:v>
+                  <c:v>104.41</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>110.53</c:v>
+                  <c:v>109.81</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>108.6</c:v>
+                  <c:v>108.21</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>104.64</c:v>
+                  <c:v>104.92</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>49.45</c:v>
+                  <c:v>49.59</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>38.1</c:v>
+                  <c:v>38.13</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>101</c:v>
+                  <c:v>102.15</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>107.2</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>111.57</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>112.67</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>107.12</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>49.77</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>38.83</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>102.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5623,9 +5728,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$362</c:f>
+              <c:f>Ridership!$B$2:$B$369</c:f>
               <c:strCache>
-                <c:ptCount val="361"/>
+                <c:ptCount val="368"/>
                 <c:pt idx="0">
                   <c:v>31 Aug 2015</c:v>
                 </c:pt>
@@ -6708,16 +6813,37 @@
                 </c:pt>
                 <c:pt idx="360">
                   <c:v>12 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>13 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>14 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>15 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>16 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>17 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>18 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>19 Sep 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$E$2:$E$362</c:f>
+              <c:f>Ridership!$E$2:$E$369</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="361"/>
+                <c:ptCount val="368"/>
                 <c:pt idx="0">
                   <c:v>19.4</c:v>
                 </c:pt>
@@ -7800,6 +7926,27 @@
                 </c:pt>
                 <c:pt idx="360">
                   <c:v>80.43</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>80.59</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>80.75</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>80.91</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>81.07</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>81.23</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>81.4</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>81.56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7892,13 +8039,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>364</xdr:row>
+      <xdr:row>371</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>378</xdr:row>
+      <xdr:row>385</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8206,7 +8353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E362"/>
+  <dimension ref="A1:E369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13667,10 +13814,10 @@
         <v>331</v>
       </c>
       <c r="C321">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="D321">
-        <v>92.16</v>
+        <v>92.47</v>
       </c>
       <c r="E321">
         <v>73.65</v>
@@ -13684,10 +13831,10 @@
         <v>332</v>
       </c>
       <c r="C322">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D322">
-        <v>93.96</v>
+        <v>93.86</v>
       </c>
       <c r="E322">
         <v>73.81</v>
@@ -13701,10 +13848,10 @@
         <v>333</v>
       </c>
       <c r="C323">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="D323">
-        <v>100.5</v>
+        <v>99.65</v>
       </c>
       <c r="E323">
         <v>73.97</v>
@@ -13718,10 +13865,10 @@
         <v>334</v>
       </c>
       <c r="C324">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D324">
-        <v>97.5</v>
+        <v>97.69</v>
       </c>
       <c r="E324">
         <v>74.13</v>
@@ -13735,10 +13882,10 @@
         <v>335</v>
       </c>
       <c r="C325">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="D325">
-        <v>94.36</v>
+        <v>94.67</v>
       </c>
       <c r="E325">
         <v>74.29</v>
@@ -13769,10 +13916,10 @@
         <v>337</v>
       </c>
       <c r="C327">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D327">
-        <v>33.13</v>
+        <v>33.19</v>
       </c>
       <c r="E327">
         <v>74.62</v>
@@ -13786,10 +13933,10 @@
         <v>338</v>
       </c>
       <c r="C328">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D328">
-        <v>93.36</v>
+        <v>93.43</v>
       </c>
       <c r="E328">
         <v>74.78</v>
@@ -13803,10 +13950,10 @@
         <v>339</v>
       </c>
       <c r="C329">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D329">
-        <v>96.34</v>
+        <v>96.16</v>
       </c>
       <c r="E329">
         <v>74.94</v>
@@ -13820,10 +13967,10 @@
         <v>340</v>
       </c>
       <c r="C330">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D330">
-        <v>102.78</v>
+        <v>101.71</v>
       </c>
       <c r="E330">
         <v>75.1</v>
@@ -13840,7 +13987,7 @@
         <v>203</v>
       </c>
       <c r="D331">
-        <v>99.65</v>
+        <v>99.84</v>
       </c>
       <c r="E331">
         <v>75.26</v>
@@ -13854,10 +14001,10 @@
         <v>342</v>
       </c>
       <c r="C332">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D332">
-        <v>97.5</v>
+        <v>97.89</v>
       </c>
       <c r="E332">
         <v>75.42</v>
@@ -13871,10 +14018,10 @@
         <v>343</v>
       </c>
       <c r="C333">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D333">
-        <v>41.57</v>
+        <v>41.6</v>
       </c>
       <c r="E333">
         <v>75.58</v>
@@ -13888,10 +14035,10 @@
         <v>344</v>
       </c>
       <c r="C334">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D334">
-        <v>33.96</v>
+        <v>34</v>
       </c>
       <c r="E334">
         <v>75.75</v>
@@ -13905,10 +14052,10 @@
         <v>345</v>
       </c>
       <c r="C335">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D335">
-        <v>95.22</v>
+        <v>95.09</v>
       </c>
       <c r="E335">
         <v>75.91</v>
@@ -13922,10 +14069,10 @@
         <v>346</v>
       </c>
       <c r="C336">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="D336">
-        <v>97.78</v>
+        <v>97.88</v>
       </c>
       <c r="E336">
         <v>76.07</v>
@@ -13939,10 +14086,10 @@
         <v>347</v>
       </c>
       <c r="C337">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D337">
-        <v>104.7</v>
+        <v>103.58</v>
       </c>
       <c r="E337">
         <v>76.23</v>
@@ -13956,10 +14103,10 @@
         <v>348</v>
       </c>
       <c r="C338">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D338">
-        <v>101.92</v>
+        <v>102</v>
       </c>
       <c r="E338">
         <v>76.39</v>
@@ -13973,10 +14120,10 @@
         <v>349</v>
       </c>
       <c r="C339">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D339">
-        <v>99.68</v>
+        <v>100.11</v>
       </c>
       <c r="E339">
         <v>76.55</v>
@@ -13990,10 +14137,10 @@
         <v>350</v>
       </c>
       <c r="C340">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D340">
-        <v>42.46</v>
+        <v>42.5</v>
       </c>
       <c r="E340">
         <v>76.71</v>
@@ -14010,7 +14157,7 @@
         <v>84</v>
       </c>
       <c r="D341">
-        <v>34.98</v>
+        <v>35.02</v>
       </c>
       <c r="E341">
         <v>76.88</v>
@@ -14024,10 +14171,10 @@
         <v>352</v>
       </c>
       <c r="C342">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D342">
-        <v>97.3</v>
+        <v>96.91</v>
       </c>
       <c r="E342">
         <v>77.04</v>
@@ -14041,10 +14188,10 @@
         <v>353</v>
       </c>
       <c r="C343">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D343">
-        <v>99.6</v>
+        <v>99.79</v>
       </c>
       <c r="E343">
         <v>77.2</v>
@@ -14058,10 +14205,10 @@
         <v>354</v>
       </c>
       <c r="C344">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="D344">
-        <v>106.33</v>
+        <v>105.55</v>
       </c>
       <c r="E344">
         <v>77.36</v>
@@ -14075,10 +14222,10 @@
         <v>355</v>
       </c>
       <c r="C345">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="D345">
-        <v>104.27</v>
+        <v>103.92</v>
       </c>
       <c r="E345">
         <v>77.52</v>
@@ -14092,10 +14239,10 @@
         <v>356</v>
       </c>
       <c r="C346">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D346">
-        <v>101.56</v>
+        <v>101.92</v>
       </c>
       <c r="E346">
         <v>77.68</v>
@@ -14109,10 +14256,10 @@
         <v>357</v>
       </c>
       <c r="C347">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D347">
-        <v>47.73</v>
+        <v>47.88</v>
       </c>
       <c r="E347">
         <v>77.84</v>
@@ -14126,10 +14273,10 @@
         <v>358</v>
       </c>
       <c r="C348">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D348">
-        <v>36.56</v>
+        <v>36.66</v>
       </c>
       <c r="E348">
         <v>78.01</v>
@@ -14143,10 +14290,10 @@
         <v>359</v>
       </c>
       <c r="C349">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="D349">
-        <v>99.53</v>
+        <v>100.11</v>
       </c>
       <c r="E349">
         <v>78.17</v>
@@ -14160,10 +14307,10 @@
         <v>360</v>
       </c>
       <c r="C350">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="D350">
-        <v>102.47</v>
+        <v>102.36</v>
       </c>
       <c r="E350">
         <v>78.33</v>
@@ -14177,10 +14324,10 @@
         <v>361</v>
       </c>
       <c r="C351">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D351">
-        <v>107.88</v>
+        <v>107</v>
       </c>
       <c r="E351">
         <v>78.49</v>
@@ -14194,10 +14341,10 @@
         <v>362</v>
       </c>
       <c r="C352">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="D352">
-        <v>106.27</v>
+        <v>105.69</v>
       </c>
       <c r="E352">
         <v>78.65</v>
@@ -14211,10 +14358,10 @@
         <v>363</v>
       </c>
       <c r="C353">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D353">
-        <v>102.37</v>
+        <v>102.65</v>
       </c>
       <c r="E353">
         <v>78.81</v>
@@ -14231,7 +14378,7 @@
         <v>97</v>
       </c>
       <c r="D354">
-        <v>48.72</v>
+        <v>48.86</v>
       </c>
       <c r="E354">
         <v>78.97</v>
@@ -14245,10 +14392,10 @@
         <v>365</v>
       </c>
       <c r="C355">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D355">
-        <v>37.37</v>
+        <v>37.43</v>
       </c>
       <c r="E355">
         <v>79.14</v>
@@ -14262,10 +14409,10 @@
         <v>366</v>
       </c>
       <c r="C356">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D356">
-        <v>104.67</v>
+        <v>104.41</v>
       </c>
       <c r="E356">
         <v>79.46</v>
@@ -14279,10 +14426,10 @@
         <v>367</v>
       </c>
       <c r="C357">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="D357">
-        <v>110.53</v>
+        <v>109.81</v>
       </c>
       <c r="E357">
         <v>79.62</v>
@@ -14296,10 +14443,10 @@
         <v>368</v>
       </c>
       <c r="C358">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="D358">
-        <v>108.6</v>
+        <v>108.21</v>
       </c>
       <c r="E358">
         <v>79.78</v>
@@ -14316,7 +14463,7 @@
         <v>216</v>
       </c>
       <c r="D359">
-        <v>104.64</v>
+        <v>104.92</v>
       </c>
       <c r="E359">
         <v>79.94</v>
@@ -14333,7 +14480,7 @@
         <v>86</v>
       </c>
       <c r="D360">
-        <v>49.45</v>
+        <v>49.59</v>
       </c>
       <c r="E360">
         <v>80.1</v>
@@ -14347,10 +14494,10 @@
         <v>371</v>
       </c>
       <c r="C361">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D361">
-        <v>38.1</v>
+        <v>38.13</v>
       </c>
       <c r="E361">
         <v>80.27</v>
@@ -14364,13 +14511,132 @@
         <v>372</v>
       </c>
       <c r="C362">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="D362">
-        <v>101</v>
+        <v>102.15</v>
       </c>
       <c r="E362">
         <v>80.43</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" t="s">
+        <v>7</v>
+      </c>
+      <c r="B363" t="s">
+        <v>373</v>
+      </c>
+      <c r="C363">
+        <v>258</v>
+      </c>
+      <c r="D363">
+        <v>107.2</v>
+      </c>
+      <c r="E363">
+        <v>80.59</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" t="s">
+        <v>9</v>
+      </c>
+      <c r="B364" t="s">
+        <v>374</v>
+      </c>
+      <c r="C364">
+        <v>205</v>
+      </c>
+      <c r="D364">
+        <v>111.57</v>
+      </c>
+      <c r="E364">
+        <v>80.75</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" t="s">
+        <v>11</v>
+      </c>
+      <c r="B365" t="s">
+        <v>375</v>
+      </c>
+      <c r="C365">
+        <v>349</v>
+      </c>
+      <c r="D365">
+        <v>112.67</v>
+      </c>
+      <c r="E365">
+        <v>80.91</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" t="s">
+        <v>16</v>
+      </c>
+      <c r="B366" t="s">
+        <v>376</v>
+      </c>
+      <c r="C366">
+        <v>217</v>
+      </c>
+      <c r="D366">
+        <v>107.12</v>
+      </c>
+      <c r="E366">
+        <v>81.07</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" t="s">
+        <v>18</v>
+      </c>
+      <c r="B367" t="s">
+        <v>377</v>
+      </c>
+      <c r="C367">
+        <v>59</v>
+      </c>
+      <c r="D367">
+        <v>49.77</v>
+      </c>
+      <c r="E367">
+        <v>81.23</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" t="s">
+        <v>20</v>
+      </c>
+      <c r="B368" t="s">
+        <v>378</v>
+      </c>
+      <c r="C368">
+        <v>75</v>
+      </c>
+      <c r="D368">
+        <v>38.83</v>
+      </c>
+      <c r="E368">
+        <v>81.4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" t="s">
+        <v>5</v>
+      </c>
+      <c r="B369" t="s">
+        <v>379</v>
+      </c>
+      <c r="C369">
+        <v>103</v>
+      </c>
+      <c r="D369">
+        <v>102.16</v>
+      </c>
+      <c r="E369">
+        <v>81.56</v>
       </c>
     </row>
   </sheetData>

--- a/rider/total/total.xlsx
+++ b/rider/total/total.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="384">
   <si>
     <t>Weekday</t>
   </si>
@@ -1154,6 +1154,18 @@
   </si>
   <si>
     <t>19 Sep 2016</t>
+  </si>
+  <si>
+    <t>20 Sep 2016</t>
+  </si>
+  <si>
+    <t>21 Sep 2016</t>
+  </si>
+  <si>
+    <t>22 Sep 2016</t>
+  </si>
+  <si>
+    <t>23 Sep 2016</t>
   </si>
 </sst>
 </file>
@@ -1244,9 +1256,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$369</c:f>
+              <c:f>Ridership!$B$2:$B$373</c:f>
               <c:strCache>
-                <c:ptCount val="368"/>
+                <c:ptCount val="372"/>
                 <c:pt idx="0">
                   <c:v>31 Aug 2015</c:v>
                 </c:pt>
@@ -2350,16 +2362,28 @@
                 </c:pt>
                 <c:pt idx="367">
                   <c:v>19 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>20 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>21 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>22 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>23 Sep 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$C$2:$C$369</c:f>
+              <c:f>Ridership!$C$2:$C$373</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="368"/>
+                <c:ptCount val="372"/>
                 <c:pt idx="0">
                   <c:v>14</c:v>
                 </c:pt>
@@ -3318,151 +3342,163 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="319">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="323">
                   <c:v>179</c:v>
                 </c:pt>
-                <c:pt idx="320">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>197</c:v>
-                </c:pt>
                 <c:pt idx="324">
-                  <c:v>66</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>43</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>135</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>209</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>201</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>203</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>243</c:v>
+                  <c:v>253</c:v>
                 </c:pt>
                 <c:pt idx="331">
                   <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>72</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>168</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>184</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>195</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>208</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>202</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>85</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="339">
                   <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>179</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>197</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>204</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>200</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>187</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>306</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>117</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>247</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>236</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>181</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>196</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>138</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="352">
                   <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>76</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>213</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>256</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>239</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>216</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>86</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="359">
                   <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>198</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>258</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>205</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>349</c:v>
+                  <c:v>252</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>217</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>59</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="366">
                   <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>103</c:v>
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3486,9 +3522,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$369</c:f>
+              <c:f>Ridership!$B$2:$B$373</c:f>
               <c:strCache>
-                <c:ptCount val="368"/>
+                <c:ptCount val="372"/>
                 <c:pt idx="0">
                   <c:v>31 Aug 2015</c:v>
                 </c:pt>
@@ -4592,16 +4628,28 @@
                 </c:pt>
                 <c:pt idx="367">
                   <c:v>19 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>20 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>21 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>22 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>23 Sep 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$D$2:$D$369</c:f>
+              <c:f>Ridership!$D$2:$D$373</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="368"/>
+                <c:ptCount val="372"/>
                 <c:pt idx="0">
                   <c:v>14</c:v>
                 </c:pt>
@@ -5560,151 +5608,163 @@
                   <c:v>32.98</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>92.47</c:v>
+                  <c:v>92.6</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>93.86</c:v>
+                  <c:v>93.8</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>99.65</c:v>
+                  <c:v>100.02</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>97.69</c:v>
+                  <c:v>97.58</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>94.67</c:v>
+                  <c:v>94.27</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>40.3</c:v>
+                  <c:v>40.37</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>33.19</c:v>
+                  <c:v>33.17</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>93.43</c:v>
+                  <c:v>93.7</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>96.16</c:v>
+                  <c:v>96.18</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>101.71</c:v>
+                  <c:v>101.9</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>99.84</c:v>
+                  <c:v>99.9</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>97.89</c:v>
+                  <c:v>97.72</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>41.6</c:v>
+                  <c:v>41.66</c:v>
                 </c:pt>
                 <c:pt idx="332">
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>95.09</c:v>
+                  <c:v>95.58</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>97.88</c:v>
+                  <c:v>97.82</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>103.58</c:v>
+                  <c:v>103.84</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>102</c:v>
+                  <c:v>102.32</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>100.11</c:v>
+                  <c:v>99.96</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>42.5</c:v>
+                  <c:v>42.54</c:v>
                 </c:pt>
                 <c:pt idx="339">
                   <c:v>35.02</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>96.91</c:v>
+                  <c:v>97.26</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>99.79</c:v>
+                  <c:v>99.46</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>105.55</c:v>
+                  <c:v>105.33</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>103.92</c:v>
+                  <c:v>104.45</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>101.92</c:v>
+                  <c:v>101.83</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>47.88</c:v>
+                  <c:v>47.67</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>36.66</c:v>
+                  <c:v>36.64</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>100.11</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>102.36</c:v>
+                  <c:v>101.98</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>107</c:v>
+                  <c:v>107.6</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>105.69</c:v>
+                  <c:v>106.27</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>102.65</c:v>
+                  <c:v>102.55</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>48.86</c:v>
+                  <c:v>48.66</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>37.43</c:v>
+                  <c:v>37.49</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>104.41</c:v>
+                  <c:v>103.98</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>109.81</c:v>
+                  <c:v>109.74</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>108.21</c:v>
+                  <c:v>108.45</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>104.92</c:v>
+                  <c:v>104.88</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>49.59</c:v>
+                  <c:v>49.37</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>38.13</c:v>
+                  <c:v>38.19</c:v>
                 </c:pt>
                 <c:pt idx="360">
                   <c:v>102.15</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>107.2</c:v>
+                  <c:v>106.4</c:v>
                 </c:pt>
                 <c:pt idx="362">
                   <c:v>111.57</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>112.67</c:v>
+                  <c:v>111.11</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>107.12</c:v>
+                  <c:v>107.14</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>49.77</c:v>
+                  <c:v>49.58</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>38.83</c:v>
+                  <c:v>38.89</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>102.16</c:v>
+                  <c:v>104.49</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>108.77</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>113.45</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>112.36</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>110.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5728,9 +5788,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$369</c:f>
+              <c:f>Ridership!$B$2:$B$373</c:f>
               <c:strCache>
-                <c:ptCount val="368"/>
+                <c:ptCount val="372"/>
                 <c:pt idx="0">
                   <c:v>31 Aug 2015</c:v>
                 </c:pt>
@@ -6834,16 +6894,28 @@
                 </c:pt>
                 <c:pt idx="367">
                   <c:v>19 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>20 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>21 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>22 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>23 Sep 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$E$2:$E$369</c:f>
+              <c:f>Ridership!$E$2:$E$373</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="368"/>
+                <c:ptCount val="372"/>
                 <c:pt idx="0">
                   <c:v>19.4</c:v>
                 </c:pt>
@@ -7947,6 +8019,18 @@
                 </c:pt>
                 <c:pt idx="367">
                   <c:v>81.56</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>81.72</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>81.88</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>82.04</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>82.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8039,13 +8123,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>371</xdr:row>
+      <xdr:row>375</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>385</xdr:row>
+      <xdr:row>389</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8353,7 +8437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E369"/>
+  <dimension ref="A1:E373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13814,10 +13898,10 @@
         <v>331</v>
       </c>
       <c r="C321">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D321">
-        <v>92.47</v>
+        <v>92.6</v>
       </c>
       <c r="E321">
         <v>73.65</v>
@@ -13831,10 +13915,10 @@
         <v>332</v>
       </c>
       <c r="C322">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D322">
-        <v>93.86</v>
+        <v>93.8</v>
       </c>
       <c r="E322">
         <v>73.81</v>
@@ -13848,10 +13932,10 @@
         <v>333</v>
       </c>
       <c r="C323">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="D323">
-        <v>99.65</v>
+        <v>100.02</v>
       </c>
       <c r="E323">
         <v>73.97</v>
@@ -13865,10 +13949,10 @@
         <v>334</v>
       </c>
       <c r="C324">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D324">
-        <v>97.69</v>
+        <v>97.58</v>
       </c>
       <c r="E324">
         <v>74.13</v>
@@ -13882,10 +13966,10 @@
         <v>335</v>
       </c>
       <c r="C325">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="D325">
-        <v>94.67</v>
+        <v>94.27</v>
       </c>
       <c r="E325">
         <v>74.29</v>
@@ -13899,10 +13983,10 @@
         <v>336</v>
       </c>
       <c r="C326">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D326">
-        <v>40.3</v>
+        <v>40.37</v>
       </c>
       <c r="E326">
         <v>74.45</v>
@@ -13916,10 +14000,10 @@
         <v>337</v>
       </c>
       <c r="C327">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D327">
-        <v>33.19</v>
+        <v>33.17</v>
       </c>
       <c r="E327">
         <v>74.62</v>
@@ -13933,10 +14017,10 @@
         <v>338</v>
       </c>
       <c r="C328">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D328">
-        <v>93.43</v>
+        <v>93.7</v>
       </c>
       <c r="E328">
         <v>74.78</v>
@@ -13950,10 +14034,10 @@
         <v>339</v>
       </c>
       <c r="C329">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D329">
-        <v>96.16</v>
+        <v>96.18</v>
       </c>
       <c r="E329">
         <v>74.94</v>
@@ -13967,10 +14051,10 @@
         <v>340</v>
       </c>
       <c r="C330">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D330">
-        <v>101.71</v>
+        <v>101.9</v>
       </c>
       <c r="E330">
         <v>75.1</v>
@@ -13984,10 +14068,10 @@
         <v>341</v>
       </c>
       <c r="C331">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D331">
-        <v>99.84</v>
+        <v>99.9</v>
       </c>
       <c r="E331">
         <v>75.26</v>
@@ -14001,10 +14085,10 @@
         <v>342</v>
       </c>
       <c r="C332">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="D332">
-        <v>97.89</v>
+        <v>97.72</v>
       </c>
       <c r="E332">
         <v>75.42</v>
@@ -14021,7 +14105,7 @@
         <v>101</v>
       </c>
       <c r="D333">
-        <v>41.6</v>
+        <v>41.66</v>
       </c>
       <c r="E333">
         <v>75.58</v>
@@ -14035,7 +14119,7 @@
         <v>344</v>
       </c>
       <c r="C334">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D334">
         <v>34</v>
@@ -14052,10 +14136,10 @@
         <v>345</v>
       </c>
       <c r="C335">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D335">
-        <v>95.09</v>
+        <v>95.58</v>
       </c>
       <c r="E335">
         <v>75.91</v>
@@ -14069,10 +14153,10 @@
         <v>346</v>
       </c>
       <c r="C336">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D336">
-        <v>97.88</v>
+        <v>97.82</v>
       </c>
       <c r="E336">
         <v>76.07</v>
@@ -14086,10 +14170,10 @@
         <v>347</v>
       </c>
       <c r="C337">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D337">
-        <v>103.58</v>
+        <v>103.84</v>
       </c>
       <c r="E337">
         <v>76.23</v>
@@ -14103,10 +14187,10 @@
         <v>348</v>
       </c>
       <c r="C338">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="D338">
-        <v>102</v>
+        <v>102.32</v>
       </c>
       <c r="E338">
         <v>76.39</v>
@@ -14120,10 +14204,10 @@
         <v>349</v>
       </c>
       <c r="C339">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D339">
-        <v>100.11</v>
+        <v>99.96</v>
       </c>
       <c r="E339">
         <v>76.55</v>
@@ -14137,10 +14221,10 @@
         <v>350</v>
       </c>
       <c r="C340">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D340">
-        <v>42.5</v>
+        <v>42.54</v>
       </c>
       <c r="E340">
         <v>76.71</v>
@@ -14171,10 +14255,10 @@
         <v>352</v>
       </c>
       <c r="C342">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D342">
-        <v>96.91</v>
+        <v>97.26</v>
       </c>
       <c r="E342">
         <v>77.04</v>
@@ -14188,10 +14272,10 @@
         <v>353</v>
       </c>
       <c r="C343">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="D343">
-        <v>99.79</v>
+        <v>99.46</v>
       </c>
       <c r="E343">
         <v>77.2</v>
@@ -14205,10 +14289,10 @@
         <v>354</v>
       </c>
       <c r="C344">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="D344">
-        <v>105.55</v>
+        <v>105.33</v>
       </c>
       <c r="E344">
         <v>77.36</v>
@@ -14222,10 +14306,10 @@
         <v>355</v>
       </c>
       <c r="C345">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D345">
-        <v>103.92</v>
+        <v>104.45</v>
       </c>
       <c r="E345">
         <v>77.52</v>
@@ -14239,10 +14323,10 @@
         <v>356</v>
       </c>
       <c r="C346">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D346">
-        <v>101.92</v>
+        <v>101.83</v>
       </c>
       <c r="E346">
         <v>77.68</v>
@@ -14256,10 +14340,10 @@
         <v>357</v>
       </c>
       <c r="C347">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="D347">
-        <v>47.88</v>
+        <v>47.67</v>
       </c>
       <c r="E347">
         <v>77.84</v>
@@ -14273,10 +14357,10 @@
         <v>358</v>
       </c>
       <c r="C348">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D348">
-        <v>36.66</v>
+        <v>36.64</v>
       </c>
       <c r="E348">
         <v>78.01</v>
@@ -14290,10 +14374,10 @@
         <v>359</v>
       </c>
       <c r="C349">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="D349">
-        <v>100.11</v>
+        <v>100</v>
       </c>
       <c r="E349">
         <v>78.17</v>
@@ -14307,10 +14391,10 @@
         <v>360</v>
       </c>
       <c r="C350">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D350">
-        <v>102.36</v>
+        <v>101.98</v>
       </c>
       <c r="E350">
         <v>78.33</v>
@@ -14324,10 +14408,10 @@
         <v>361</v>
       </c>
       <c r="C351">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="D351">
-        <v>107</v>
+        <v>107.6</v>
       </c>
       <c r="E351">
         <v>78.49</v>
@@ -14341,10 +14425,10 @@
         <v>362</v>
       </c>
       <c r="C352">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D352">
-        <v>105.69</v>
+        <v>106.27</v>
       </c>
       <c r="E352">
         <v>78.65</v>
@@ -14358,10 +14442,10 @@
         <v>363</v>
       </c>
       <c r="C353">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D353">
-        <v>102.65</v>
+        <v>102.55</v>
       </c>
       <c r="E353">
         <v>78.81</v>
@@ -14378,7 +14462,7 @@
         <v>97</v>
       </c>
       <c r="D354">
-        <v>48.86</v>
+        <v>48.66</v>
       </c>
       <c r="E354">
         <v>78.97</v>
@@ -14392,10 +14476,10 @@
         <v>365</v>
       </c>
       <c r="C355">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D355">
-        <v>37.43</v>
+        <v>37.49</v>
       </c>
       <c r="E355">
         <v>79.14</v>
@@ -14409,10 +14493,10 @@
         <v>366</v>
       </c>
       <c r="C356">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D356">
-        <v>104.41</v>
+        <v>103.98</v>
       </c>
       <c r="E356">
         <v>79.46</v>
@@ -14426,10 +14510,10 @@
         <v>367</v>
       </c>
       <c r="C357">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="D357">
-        <v>109.81</v>
+        <v>109.74</v>
       </c>
       <c r="E357">
         <v>79.62</v>
@@ -14443,10 +14527,10 @@
         <v>368</v>
       </c>
       <c r="C358">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="D358">
-        <v>108.21</v>
+        <v>108.45</v>
       </c>
       <c r="E358">
         <v>79.78</v>
@@ -14460,10 +14544,10 @@
         <v>369</v>
       </c>
       <c r="C359">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D359">
-        <v>104.92</v>
+        <v>104.88</v>
       </c>
       <c r="E359">
         <v>79.94</v>
@@ -14477,10 +14561,10 @@
         <v>370</v>
       </c>
       <c r="C360">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D360">
-        <v>49.59</v>
+        <v>49.37</v>
       </c>
       <c r="E360">
         <v>80.1</v>
@@ -14497,7 +14581,7 @@
         <v>74</v>
       </c>
       <c r="D361">
-        <v>38.13</v>
+        <v>38.19</v>
       </c>
       <c r="E361">
         <v>80.27</v>
@@ -14511,7 +14595,7 @@
         <v>372</v>
       </c>
       <c r="C362">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D362">
         <v>102.15</v>
@@ -14528,10 +14612,10 @@
         <v>373</v>
       </c>
       <c r="C363">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="D363">
-        <v>107.2</v>
+        <v>106.4</v>
       </c>
       <c r="E363">
         <v>80.59</v>
@@ -14545,7 +14629,7 @@
         <v>374</v>
       </c>
       <c r="C364">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D364">
         <v>111.57</v>
@@ -14562,10 +14646,10 @@
         <v>375</v>
       </c>
       <c r="C365">
-        <v>349</v>
+        <v>252</v>
       </c>
       <c r="D365">
-        <v>112.67</v>
+        <v>111.11</v>
       </c>
       <c r="E365">
         <v>80.91</v>
@@ -14579,10 +14663,10 @@
         <v>376</v>
       </c>
       <c r="C366">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D366">
-        <v>107.12</v>
+        <v>107.14</v>
       </c>
       <c r="E366">
         <v>81.07</v>
@@ -14596,10 +14680,10 @@
         <v>377</v>
       </c>
       <c r="C367">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D367">
-        <v>49.77</v>
+        <v>49.58</v>
       </c>
       <c r="E367">
         <v>81.23</v>
@@ -14616,7 +14700,7 @@
         <v>75</v>
       </c>
       <c r="D368">
-        <v>38.83</v>
+        <v>38.89</v>
       </c>
       <c r="E368">
         <v>81.4</v>
@@ -14630,13 +14714,81 @@
         <v>379</v>
       </c>
       <c r="C369">
-        <v>103</v>
+        <v>217</v>
       </c>
       <c r="D369">
-        <v>102.16</v>
+        <v>104.49</v>
       </c>
       <c r="E369">
         <v>81.56</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" t="s">
+        <v>7</v>
+      </c>
+      <c r="B370" t="s">
+        <v>380</v>
+      </c>
+      <c r="C370">
+        <v>239</v>
+      </c>
+      <c r="D370">
+        <v>108.77</v>
+      </c>
+      <c r="E370">
+        <v>81.72</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" t="s">
+        <v>9</v>
+      </c>
+      <c r="B371" t="s">
+        <v>381</v>
+      </c>
+      <c r="C371">
+        <v>215</v>
+      </c>
+      <c r="D371">
+        <v>113.45</v>
+      </c>
+      <c r="E371">
+        <v>81.88</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" t="s">
+        <v>11</v>
+      </c>
+      <c r="B372" t="s">
+        <v>382</v>
+      </c>
+      <c r="C372">
+        <v>180</v>
+      </c>
+      <c r="D372">
+        <v>112.36</v>
+      </c>
+      <c r="E372">
+        <v>82.04</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" t="s">
+        <v>16</v>
+      </c>
+      <c r="B373" t="s">
+        <v>383</v>
+      </c>
+      <c r="C373">
+        <v>277</v>
+      </c>
+      <c r="D373">
+        <v>110.4</v>
+      </c>
+      <c r="E373">
+        <v>82.2</v>
       </c>
     </row>
   </sheetData>

--- a/rider/total/total.xlsx
+++ b/rider/total/total.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="415">
   <si>
     <t>Weekday</t>
   </si>
@@ -1166,6 +1166,99 @@
   </si>
   <si>
     <t>23 Sep 2016</t>
+  </si>
+  <si>
+    <t>24 Sep 2016</t>
+  </si>
+  <si>
+    <t>25 Sep 2016</t>
+  </si>
+  <si>
+    <t>26 Sep 2016</t>
+  </si>
+  <si>
+    <t>27 Sep 2016</t>
+  </si>
+  <si>
+    <t>28 Sep 2016</t>
+  </si>
+  <si>
+    <t>29 Sep 2016</t>
+  </si>
+  <si>
+    <t>30 Sep 2016</t>
+  </si>
+  <si>
+    <t>01 Oct 2016</t>
+  </si>
+  <si>
+    <t>02 Oct 2016</t>
+  </si>
+  <si>
+    <t>03 Oct 2016</t>
+  </si>
+  <si>
+    <t>04 Oct 2016</t>
+  </si>
+  <si>
+    <t>05 Oct 2016</t>
+  </si>
+  <si>
+    <t>06 Oct 2016</t>
+  </si>
+  <si>
+    <t>07 Oct 2016</t>
+  </si>
+  <si>
+    <t>08 Oct 2016</t>
+  </si>
+  <si>
+    <t>09 Oct 2016</t>
+  </si>
+  <si>
+    <t>11 Oct 2016</t>
+  </si>
+  <si>
+    <t>12 Oct 2016</t>
+  </si>
+  <si>
+    <t>13 Oct 2016</t>
+  </si>
+  <si>
+    <t>14 Oct 2016</t>
+  </si>
+  <si>
+    <t>15 Oct 2016</t>
+  </si>
+  <si>
+    <t>16 Oct 2016</t>
+  </si>
+  <si>
+    <t>17 Oct 2016</t>
+  </si>
+  <si>
+    <t>18 Oct 2016</t>
+  </si>
+  <si>
+    <t>19 Oct 2016</t>
+  </si>
+  <si>
+    <t>20 Oct 2016</t>
+  </si>
+  <si>
+    <t>21 Oct 2016</t>
+  </si>
+  <si>
+    <t>22 Oct 2016</t>
+  </si>
+  <si>
+    <t>23 Oct 2016</t>
+  </si>
+  <si>
+    <t>24 Oct 2016</t>
+  </si>
+  <si>
+    <t>25 Oct 2016</t>
   </si>
 </sst>
 </file>
@@ -1256,9 +1349,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$373</c:f>
+              <c:f>Ridership!$B$2:$B$404</c:f>
               <c:strCache>
-                <c:ptCount val="372"/>
+                <c:ptCount val="403"/>
                 <c:pt idx="0">
                   <c:v>31 Aug 2015</c:v>
                 </c:pt>
@@ -2374,16 +2467,109 @@
                 </c:pt>
                 <c:pt idx="371">
                   <c:v>23 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>24 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>25 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>26 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>27 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>28 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>29 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>30 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>01 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>02 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>03 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>04 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>05 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>06 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>07 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>08 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>09 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>11 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>12 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>13 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>14 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>15 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>16 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>17 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>18 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>19 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>20 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>21 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>22 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>23 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>24 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>25 Oct 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$C$2:$C$373</c:f>
+              <c:f>Ridership!$C$2:$C$404</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="372"/>
+                <c:ptCount val="403"/>
                 <c:pt idx="0">
                   <c:v>14</c:v>
                 </c:pt>
@@ -3342,19 +3528,19 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>185</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>181</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>193</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>173</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>179</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="324">
                   <c:v>69</c:v>
@@ -3363,142 +3549,235 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>141</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="327">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="328">
                   <c:v>213</c:v>
                 </c:pt>
-                <c:pt idx="328">
-                  <c:v>192</c:v>
-                </c:pt>
                 <c:pt idx="329">
-                  <c:v>211</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>253</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>101</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>73</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>178</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>180</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>199</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>221</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>203</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>84</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="339">
                   <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="340">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="349">
                   <c:v>173</c:v>
                 </c:pt>
-                <c:pt idx="341">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>294</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>233</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>223</c:v>
-                </c:pt>
                 <c:pt idx="350">
-                  <c:v>199</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>137</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="352">
                   <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>80</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="354">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="357">
                   <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="358">
                   <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>74</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>203</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>237</c:v>
+                  <c:v>258</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>209</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>252</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>220</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="365">
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="366">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="379">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="367">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="368">
+                <c:pt idx="380">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="402">
                   <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3522,9 +3801,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$373</c:f>
+              <c:f>Ridership!$B$2:$B$404</c:f>
               <c:strCache>
-                <c:ptCount val="372"/>
+                <c:ptCount val="403"/>
                 <c:pt idx="0">
                   <c:v>31 Aug 2015</c:v>
                 </c:pt>
@@ -4640,16 +4919,109 @@
                 </c:pt>
                 <c:pt idx="371">
                   <c:v>23 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>24 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>25 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>26 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>27 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>28 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>29 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>30 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>01 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>02 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>03 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>04 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>05 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>06 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>07 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>08 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>09 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>11 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>12 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>13 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>14 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>15 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>16 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>17 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>18 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>19 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>20 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>21 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>22 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>23 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>24 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>25 Oct 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$D$2:$D$373</c:f>
+              <c:f>Ridership!$D$2:$D$404</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="372"/>
+                <c:ptCount val="403"/>
                 <c:pt idx="0">
                   <c:v>14</c:v>
                 </c:pt>
@@ -5608,19 +5980,19 @@
                   <c:v>32.98</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>92.6</c:v>
+                  <c:v>92.49</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>93.8</c:v>
+                  <c:v>93.59</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>100.02</c:v>
+                  <c:v>100.35</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>97.58</c:v>
+                  <c:v>97.48</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>94.27</c:v>
+                  <c:v>94.38</c:v>
                 </c:pt>
                 <c:pt idx="324">
                   <c:v>40.37</c:v>
@@ -5629,142 +6001,235 @@
                   <c:v>33.17</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>93.7</c:v>
+                  <c:v>93.55</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>96.18</c:v>
+                  <c:v>96.1</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>101.9</c:v>
+                  <c:v>102.65</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>99.9</c:v>
+                  <c:v>99.47</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>97.72</c:v>
+                  <c:v>97.74</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>41.66</c:v>
+                  <c:v>41.64</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>34</c:v>
+                  <c:v>33.98</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>95.58</c:v>
+                  <c:v>95.51</c:v>
                 </c:pt>
                 <c:pt idx="334">
                   <c:v>97.82</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>103.84</c:v>
+                  <c:v>104.14</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>102.32</c:v>
+                  <c:v>102.2</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>99.96</c:v>
+                  <c:v>99.94</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>42.54</c:v>
+                  <c:v>42.58</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>35.02</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>97.26</c:v>
+                  <c:v>97.46</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>99.46</c:v>
+                  <c:v>99.75</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>105.33</c:v>
+                  <c:v>105.84</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>104.45</c:v>
+                  <c:v>104.24</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>101.83</c:v>
+                  <c:v>101.79</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>47.67</c:v>
+                  <c:v>47.9</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>36.64</c:v>
+                  <c:v>36.66</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>100</c:v>
+                  <c:v>100.26</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>101.98</c:v>
+                  <c:v>102.6</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>107.6</c:v>
+                  <c:v>107.13</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>106.27</c:v>
+                  <c:v>105.94</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>102.55</c:v>
+                  <c:v>102.76</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>48.66</c:v>
+                  <c:v>48.88</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>37.49</c:v>
+                  <c:v>37.45</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>103.98</c:v>
+                  <c:v>104.09</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>109.74</c:v>
+                  <c:v>109.64</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>108.45</c:v>
+                  <c:v>108.23</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>104.88</c:v>
+                  <c:v>104.9</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>49.37</c:v>
+                  <c:v>49.59</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>38.19</c:v>
+                  <c:v>38.13</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>102.15</c:v>
+                  <c:v>101.75</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>106.4</c:v>
+                  <c:v>106.89</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>111.57</c:v>
+                  <c:v>112.06</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>111.11</c:v>
+                  <c:v>110.3</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>107.14</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>49.58</c:v>
+                  <c:v>49.79</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>38.89</c:v>
+                  <c:v>38.81</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>104.49</c:v>
+                  <c:v>104.35</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>108.77</c:v>
+                  <c:v>108.89</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>113.45</c:v>
+                  <c:v>114.05</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>112.36</c:v>
+                  <c:v>111.76</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>110.4</c:v>
+                  <c:v>109.94</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>50.87</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>39.33</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>106.72</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>110.3</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>115.2</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>113.32</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>112.89</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>51.31</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>39.65</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>109.25</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>113.29</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>117.61</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>115.12</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>116.3</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>52.36</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>40.12</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>115.41</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>119.6</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>117.5</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>118.47</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>52.79</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>40.53</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>111.15</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>117.98</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>122.56</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>119.8</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>120.91</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>54.02</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>41.6</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>113.81</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>119.97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5788,9 +6253,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$373</c:f>
+              <c:f>Ridership!$B$2:$B$404</c:f>
               <c:strCache>
-                <c:ptCount val="372"/>
+                <c:ptCount val="403"/>
                 <c:pt idx="0">
                   <c:v>31 Aug 2015</c:v>
                 </c:pt>
@@ -6906,16 +7371,109 @@
                 </c:pt>
                 <c:pt idx="371">
                   <c:v>23 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>24 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>25 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>26 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>27 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>28 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>29 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>30 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>01 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>02 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>03 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>04 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>05 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>06 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>07 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>08 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>09 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>11 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>12 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>13 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>14 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>15 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>16 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>17 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>18 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>19 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>20 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>21 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>22 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>23 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>24 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>25 Oct 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$E$2:$E$373</c:f>
+              <c:f>Ridership!$E$2:$E$404</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="372"/>
+                <c:ptCount val="403"/>
                 <c:pt idx="0">
                   <c:v>19.4</c:v>
                 </c:pt>
@@ -8031,6 +8589,99 @@
                 </c:pt>
                 <c:pt idx="371">
                   <c:v>82.2</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>82.36</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>82.53</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>82.69</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>82.85</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>83.01</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>83.17</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>83.33</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>83.49</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>83.66</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>83.82</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>83.98</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>84.14</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>84.3</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>84.46</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>84.62</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>84.79</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>85.11</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>85.27</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>85.43</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>85.59</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>85.76</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>85.92</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>86.08</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>86.24</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>86.4</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>86.56</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>86.72</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>86.89</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>87.05</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>87.21</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>87.37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8123,13 +8774,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>375</xdr:row>
+      <xdr:row>406</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>389</xdr:row>
+      <xdr:row>420</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8437,7 +9088,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E373"/>
+  <dimension ref="A1:E404"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13898,10 +14549,10 @@
         <v>331</v>
       </c>
       <c r="C321">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D321">
-        <v>92.6</v>
+        <v>92.49</v>
       </c>
       <c r="E321">
         <v>73.65</v>
@@ -13915,10 +14566,10 @@
         <v>332</v>
       </c>
       <c r="C322">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D322">
-        <v>93.8</v>
+        <v>93.59</v>
       </c>
       <c r="E322">
         <v>73.81</v>
@@ -13932,10 +14583,10 @@
         <v>333</v>
       </c>
       <c r="C323">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="D323">
-        <v>100.02</v>
+        <v>100.35</v>
       </c>
       <c r="E323">
         <v>73.97</v>
@@ -13949,10 +14600,10 @@
         <v>334</v>
       </c>
       <c r="C324">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D324">
-        <v>97.58</v>
+        <v>97.48</v>
       </c>
       <c r="E324">
         <v>74.13</v>
@@ -13966,10 +14617,10 @@
         <v>335</v>
       </c>
       <c r="C325">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D325">
-        <v>94.27</v>
+        <v>94.38</v>
       </c>
       <c r="E325">
         <v>74.29</v>
@@ -14017,10 +14668,10 @@
         <v>338</v>
       </c>
       <c r="C328">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D328">
-        <v>93.7</v>
+        <v>93.55</v>
       </c>
       <c r="E328">
         <v>74.78</v>
@@ -14034,10 +14685,10 @@
         <v>339</v>
       </c>
       <c r="C329">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D329">
-        <v>96.18</v>
+        <v>96.1</v>
       </c>
       <c r="E329">
         <v>74.94</v>
@@ -14051,10 +14702,10 @@
         <v>340</v>
       </c>
       <c r="C330">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="D330">
-        <v>101.9</v>
+        <v>102.65</v>
       </c>
       <c r="E330">
         <v>75.1</v>
@@ -14068,10 +14719,10 @@
         <v>341</v>
       </c>
       <c r="C331">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="D331">
-        <v>99.9</v>
+        <v>99.47</v>
       </c>
       <c r="E331">
         <v>75.26</v>
@@ -14085,10 +14736,10 @@
         <v>342</v>
       </c>
       <c r="C332">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D332">
-        <v>97.72</v>
+        <v>97.74</v>
       </c>
       <c r="E332">
         <v>75.42</v>
@@ -14102,10 +14753,10 @@
         <v>343</v>
       </c>
       <c r="C333">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D333">
-        <v>41.66</v>
+        <v>41.64</v>
       </c>
       <c r="E333">
         <v>75.58</v>
@@ -14119,10 +14770,10 @@
         <v>344</v>
       </c>
       <c r="C334">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D334">
-        <v>34</v>
+        <v>33.98</v>
       </c>
       <c r="E334">
         <v>75.75</v>
@@ -14136,10 +14787,10 @@
         <v>345</v>
       </c>
       <c r="C335">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D335">
-        <v>95.58</v>
+        <v>95.51</v>
       </c>
       <c r="E335">
         <v>75.91</v>
@@ -14153,7 +14804,7 @@
         <v>346</v>
       </c>
       <c r="C336">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D336">
         <v>97.82</v>
@@ -14170,10 +14821,10 @@
         <v>347</v>
       </c>
       <c r="C337">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="D337">
-        <v>103.84</v>
+        <v>104.14</v>
       </c>
       <c r="E337">
         <v>76.23</v>
@@ -14187,10 +14838,10 @@
         <v>348</v>
       </c>
       <c r="C338">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="D338">
-        <v>102.32</v>
+        <v>102.2</v>
       </c>
       <c r="E338">
         <v>76.39</v>
@@ -14204,10 +14855,10 @@
         <v>349</v>
       </c>
       <c r="C339">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D339">
-        <v>99.96</v>
+        <v>99.94</v>
       </c>
       <c r="E339">
         <v>76.55</v>
@@ -14221,10 +14872,10 @@
         <v>350</v>
       </c>
       <c r="C340">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D340">
-        <v>42.54</v>
+        <v>42.58</v>
       </c>
       <c r="E340">
         <v>76.71</v>
@@ -14241,7 +14892,7 @@
         <v>84</v>
       </c>
       <c r="D341">
-        <v>35.02</v>
+        <v>35</v>
       </c>
       <c r="E341">
         <v>76.88</v>
@@ -14255,10 +14906,10 @@
         <v>352</v>
       </c>
       <c r="C342">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="D342">
-        <v>97.26</v>
+        <v>97.46</v>
       </c>
       <c r="E342">
         <v>77.04</v>
@@ -14272,10 +14923,10 @@
         <v>353</v>
       </c>
       <c r="C343">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="D343">
-        <v>99.46</v>
+        <v>99.75</v>
       </c>
       <c r="E343">
         <v>77.2</v>
@@ -14289,10 +14940,10 @@
         <v>354</v>
       </c>
       <c r="C344">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="D344">
-        <v>105.33</v>
+        <v>105.84</v>
       </c>
       <c r="E344">
         <v>77.36</v>
@@ -14306,10 +14957,10 @@
         <v>355</v>
       </c>
       <c r="C345">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D345">
-        <v>104.45</v>
+        <v>104.24</v>
       </c>
       <c r="E345">
         <v>77.52</v>
@@ -14323,10 +14974,10 @@
         <v>356</v>
       </c>
       <c r="C346">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D346">
-        <v>101.83</v>
+        <v>101.79</v>
       </c>
       <c r="E346">
         <v>77.68</v>
@@ -14340,10 +14991,10 @@
         <v>357</v>
       </c>
       <c r="C347">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="D347">
-        <v>47.67</v>
+        <v>47.9</v>
       </c>
       <c r="E347">
         <v>77.84</v>
@@ -14357,10 +15008,10 @@
         <v>358</v>
       </c>
       <c r="C348">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D348">
-        <v>36.64</v>
+        <v>36.66</v>
       </c>
       <c r="E348">
         <v>78.01</v>
@@ -14374,10 +15025,10 @@
         <v>359</v>
       </c>
       <c r="C349">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D349">
-        <v>100</v>
+        <v>100.26</v>
       </c>
       <c r="E349">
         <v>78.17</v>
@@ -14391,10 +15042,10 @@
         <v>360</v>
       </c>
       <c r="C350">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="D350">
-        <v>101.98</v>
+        <v>102.6</v>
       </c>
       <c r="E350">
         <v>78.33</v>
@@ -14408,10 +15059,10 @@
         <v>361</v>
       </c>
       <c r="C351">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c r="D351">
-        <v>107.6</v>
+        <v>107.13</v>
       </c>
       <c r="E351">
         <v>78.49</v>
@@ -14425,10 +15076,10 @@
         <v>362</v>
       </c>
       <c r="C352">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D352">
-        <v>106.27</v>
+        <v>105.94</v>
       </c>
       <c r="E352">
         <v>78.65</v>
@@ -14442,10 +15093,10 @@
         <v>363</v>
       </c>
       <c r="C353">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D353">
-        <v>102.55</v>
+        <v>102.76</v>
       </c>
       <c r="E353">
         <v>78.81</v>
@@ -14462,7 +15113,7 @@
         <v>97</v>
       </c>
       <c r="D354">
-        <v>48.66</v>
+        <v>48.88</v>
       </c>
       <c r="E354">
         <v>78.97</v>
@@ -14476,10 +15127,10 @@
         <v>365</v>
       </c>
       <c r="C355">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D355">
-        <v>37.49</v>
+        <v>37.45</v>
       </c>
       <c r="E355">
         <v>79.14</v>
@@ -14493,10 +15144,10 @@
         <v>366</v>
       </c>
       <c r="C356">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="D356">
-        <v>103.98</v>
+        <v>104.09</v>
       </c>
       <c r="E356">
         <v>79.46</v>
@@ -14510,10 +15161,10 @@
         <v>367</v>
       </c>
       <c r="C357">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="D357">
-        <v>109.74</v>
+        <v>109.64</v>
       </c>
       <c r="E357">
         <v>79.62</v>
@@ -14527,10 +15178,10 @@
         <v>368</v>
       </c>
       <c r="C358">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D358">
-        <v>108.45</v>
+        <v>108.23</v>
       </c>
       <c r="E358">
         <v>79.78</v>
@@ -14544,10 +15195,10 @@
         <v>369</v>
       </c>
       <c r="C359">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D359">
-        <v>104.88</v>
+        <v>104.9</v>
       </c>
       <c r="E359">
         <v>79.94</v>
@@ -14564,7 +15215,7 @@
         <v>85</v>
       </c>
       <c r="D360">
-        <v>49.37</v>
+        <v>49.59</v>
       </c>
       <c r="E360">
         <v>80.1</v>
@@ -14578,10 +15229,10 @@
         <v>371</v>
       </c>
       <c r="C361">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D361">
-        <v>38.19</v>
+        <v>38.13</v>
       </c>
       <c r="E361">
         <v>80.27</v>
@@ -14595,10 +15246,10 @@
         <v>372</v>
       </c>
       <c r="C362">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="D362">
-        <v>102.15</v>
+        <v>101.75</v>
       </c>
       <c r="E362">
         <v>80.43</v>
@@ -14612,10 +15263,10 @@
         <v>373</v>
       </c>
       <c r="C363">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="D363">
-        <v>106.4</v>
+        <v>106.89</v>
       </c>
       <c r="E363">
         <v>80.59</v>
@@ -14629,10 +15280,10 @@
         <v>374</v>
       </c>
       <c r="C364">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="D364">
-        <v>111.57</v>
+        <v>112.06</v>
       </c>
       <c r="E364">
         <v>80.75</v>
@@ -14646,10 +15297,10 @@
         <v>375</v>
       </c>
       <c r="C365">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="D365">
-        <v>111.11</v>
+        <v>110.3</v>
       </c>
       <c r="E365">
         <v>80.91</v>
@@ -14663,10 +15314,10 @@
         <v>376</v>
       </c>
       <c r="C366">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D366">
-        <v>107.14</v>
+        <v>107</v>
       </c>
       <c r="E366">
         <v>81.07</v>
@@ -14683,7 +15334,7 @@
         <v>60</v>
       </c>
       <c r="D367">
-        <v>49.58</v>
+        <v>49.79</v>
       </c>
       <c r="E367">
         <v>81.23</v>
@@ -14697,10 +15348,10 @@
         <v>378</v>
       </c>
       <c r="C368">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D368">
-        <v>38.89</v>
+        <v>38.81</v>
       </c>
       <c r="E368">
         <v>81.4</v>
@@ -14714,10 +15365,10 @@
         <v>379</v>
       </c>
       <c r="C369">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="D369">
-        <v>104.49</v>
+        <v>104.35</v>
       </c>
       <c r="E369">
         <v>81.56</v>
@@ -14731,10 +15382,10 @@
         <v>380</v>
       </c>
       <c r="C370">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="D370">
-        <v>108.77</v>
+        <v>108.89</v>
       </c>
       <c r="E370">
         <v>81.72</v>
@@ -14748,10 +15399,10 @@
         <v>381</v>
       </c>
       <c r="C371">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D371">
-        <v>113.45</v>
+        <v>114.05</v>
       </c>
       <c r="E371">
         <v>81.88</v>
@@ -14765,10 +15416,10 @@
         <v>382</v>
       </c>
       <c r="C372">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="D372">
-        <v>112.36</v>
+        <v>111.76</v>
       </c>
       <c r="E372">
         <v>82.04</v>
@@ -14782,13 +15433,540 @@
         <v>383</v>
       </c>
       <c r="C373">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="D373">
-        <v>110.4</v>
+        <v>109.94</v>
       </c>
       <c r="E373">
         <v>82.2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" t="s">
+        <v>18</v>
+      </c>
+      <c r="B374" t="s">
+        <v>384</v>
+      </c>
+      <c r="C374">
+        <v>107</v>
+      </c>
+      <c r="D374">
+        <v>50.87</v>
+      </c>
+      <c r="E374">
+        <v>82.36</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" t="s">
+        <v>20</v>
+      </c>
+      <c r="B375" t="s">
+        <v>385</v>
+      </c>
+      <c r="C375">
+        <v>67</v>
+      </c>
+      <c r="D375">
+        <v>39.33</v>
+      </c>
+      <c r="E375">
+        <v>82.53</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" t="s">
+        <v>5</v>
+      </c>
+      <c r="B376" t="s">
+        <v>386</v>
+      </c>
+      <c r="C376">
+        <v>223</v>
+      </c>
+      <c r="D376">
+        <v>106.72</v>
+      </c>
+      <c r="E376">
+        <v>82.69</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" t="s">
+        <v>7</v>
+      </c>
+      <c r="B377" t="s">
+        <v>387</v>
+      </c>
+      <c r="C377">
+        <v>189</v>
+      </c>
+      <c r="D377">
+        <v>110.3</v>
+      </c>
+      <c r="E377">
+        <v>82.85</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" t="s">
+        <v>9</v>
+      </c>
+      <c r="B378" t="s">
+        <v>388</v>
+      </c>
+      <c r="C378">
+        <v>178</v>
+      </c>
+      <c r="D378">
+        <v>115.2</v>
+      </c>
+      <c r="E378">
+        <v>83.01</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" t="s">
+        <v>11</v>
+      </c>
+      <c r="B379" t="s">
+        <v>389</v>
+      </c>
+      <c r="C379">
+        <v>199</v>
+      </c>
+      <c r="D379">
+        <v>113.32</v>
+      </c>
+      <c r="E379">
+        <v>83.17</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" t="s">
+        <v>16</v>
+      </c>
+      <c r="B380" t="s">
+        <v>390</v>
+      </c>
+      <c r="C380">
+        <v>266</v>
+      </c>
+      <c r="D380">
+        <v>112.89</v>
+      </c>
+      <c r="E380">
+        <v>83.33</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" t="s">
+        <v>18</v>
+      </c>
+      <c r="B381" t="s">
+        <v>391</v>
+      </c>
+      <c r="C381">
+        <v>75</v>
+      </c>
+      <c r="D381">
+        <v>51.31</v>
+      </c>
+      <c r="E381">
+        <v>83.49</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" t="s">
+        <v>20</v>
+      </c>
+      <c r="B382" t="s">
+        <v>392</v>
+      </c>
+      <c r="C382">
+        <v>57</v>
+      </c>
+      <c r="D382">
+        <v>39.65</v>
+      </c>
+      <c r="E382">
+        <v>83.66</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" t="s">
+        <v>5</v>
+      </c>
+      <c r="B383" t="s">
+        <v>393</v>
+      </c>
+      <c r="C383">
+        <v>236</v>
+      </c>
+      <c r="D383">
+        <v>109.25</v>
+      </c>
+      <c r="E383">
+        <v>83.82</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" t="s">
+        <v>7</v>
+      </c>
+      <c r="B384" t="s">
+        <v>394</v>
+      </c>
+      <c r="C384">
+        <v>284</v>
+      </c>
+      <c r="D384">
+        <v>113.29</v>
+      </c>
+      <c r="E384">
+        <v>83.98</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" t="s">
+        <v>9</v>
+      </c>
+      <c r="B385" t="s">
+        <v>395</v>
+      </c>
+      <c r="C385">
+        <v>253</v>
+      </c>
+      <c r="D385">
+        <v>117.61</v>
+      </c>
+      <c r="E385">
+        <v>84.14</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" t="s">
+        <v>11</v>
+      </c>
+      <c r="B386" t="s">
+        <v>396</v>
+      </c>
+      <c r="C386">
+        <v>216</v>
+      </c>
+      <c r="D386">
+        <v>115.12</v>
+      </c>
+      <c r="E386">
+        <v>84.3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" t="s">
+        <v>16</v>
+      </c>
+      <c r="B387" t="s">
+        <v>397</v>
+      </c>
+      <c r="C387">
+        <v>297</v>
+      </c>
+      <c r="D387">
+        <v>116.3</v>
+      </c>
+      <c r="E387">
+        <v>84.46</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" t="s">
+        <v>18</v>
+      </c>
+      <c r="B388" t="s">
+        <v>398</v>
+      </c>
+      <c r="C388">
+        <v>109</v>
+      </c>
+      <c r="D388">
+        <v>52.36</v>
+      </c>
+      <c r="E388">
+        <v>84.62</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" t="s">
+        <v>20</v>
+      </c>
+      <c r="B389" t="s">
+        <v>399</v>
+      </c>
+      <c r="C389">
+        <v>66</v>
+      </c>
+      <c r="D389">
+        <v>40.12</v>
+      </c>
+      <c r="E389">
+        <v>84.79</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" t="s">
+        <v>7</v>
+      </c>
+      <c r="B390" t="s">
+        <v>400</v>
+      </c>
+      <c r="C390">
+        <v>238</v>
+      </c>
+      <c r="D390">
+        <v>115.41</v>
+      </c>
+      <c r="E390">
+        <v>85.11</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" t="s">
+        <v>9</v>
+      </c>
+      <c r="B391" t="s">
+        <v>401</v>
+      </c>
+      <c r="C391">
+        <v>233</v>
+      </c>
+      <c r="D391">
+        <v>119.6</v>
+      </c>
+      <c r="E391">
+        <v>85.27</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" t="s">
+        <v>11</v>
+      </c>
+      <c r="B392" t="s">
+        <v>402</v>
+      </c>
+      <c r="C392">
+        <v>253</v>
+      </c>
+      <c r="D392">
+        <v>117.5</v>
+      </c>
+      <c r="E392">
+        <v>85.43</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" t="s">
+        <v>16</v>
+      </c>
+      <c r="B393" t="s">
+        <v>403</v>
+      </c>
+      <c r="C393">
+        <v>236</v>
+      </c>
+      <c r="D393">
+        <v>118.47</v>
+      </c>
+      <c r="E393">
+        <v>85.59</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" t="s">
+        <v>18</v>
+      </c>
+      <c r="B394" t="s">
+        <v>404</v>
+      </c>
+      <c r="C394">
+        <v>76</v>
+      </c>
+      <c r="D394">
+        <v>52.79</v>
+      </c>
+      <c r="E394">
+        <v>85.76</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" t="s">
+        <v>20</v>
+      </c>
+      <c r="B395" t="s">
+        <v>405</v>
+      </c>
+      <c r="C395">
+        <v>63</v>
+      </c>
+      <c r="D395">
+        <v>40.53</v>
+      </c>
+      <c r="E395">
+        <v>85.92</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" t="s">
+        <v>5</v>
+      </c>
+      <c r="B396" t="s">
+        <v>406</v>
+      </c>
+      <c r="C396">
+        <v>208</v>
+      </c>
+      <c r="D396">
+        <v>111.15</v>
+      </c>
+      <c r="E396">
+        <v>86.08</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" t="s">
+        <v>7</v>
+      </c>
+      <c r="B397" t="s">
+        <v>407</v>
+      </c>
+      <c r="C397">
+        <v>270</v>
+      </c>
+      <c r="D397">
+        <v>117.98</v>
+      </c>
+      <c r="E397">
+        <v>86.24</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" t="s">
+        <v>9</v>
+      </c>
+      <c r="B398" t="s">
+        <v>408</v>
+      </c>
+      <c r="C398">
+        <v>294</v>
+      </c>
+      <c r="D398">
+        <v>122.56</v>
+      </c>
+      <c r="E398">
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" t="s">
+        <v>11</v>
+      </c>
+      <c r="B399" t="s">
+        <v>409</v>
+      </c>
+      <c r="C399">
+        <v>253</v>
+      </c>
+      <c r="D399">
+        <v>119.8</v>
+      </c>
+      <c r="E399">
+        <v>86.56</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" t="s">
+        <v>16</v>
+      </c>
+      <c r="B400" t="s">
+        <v>410</v>
+      </c>
+      <c r="C400">
+        <v>255</v>
+      </c>
+      <c r="D400">
+        <v>120.91</v>
+      </c>
+      <c r="E400">
+        <v>86.72</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" t="s">
+        <v>18</v>
+      </c>
+      <c r="B401" t="s">
+        <v>411</v>
+      </c>
+      <c r="C401">
+        <v>123</v>
+      </c>
+      <c r="D401">
+        <v>54.02</v>
+      </c>
+      <c r="E401">
+        <v>86.89</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" t="s">
+        <v>20</v>
+      </c>
+      <c r="B402" t="s">
+        <v>412</v>
+      </c>
+      <c r="C402">
+        <v>103</v>
+      </c>
+      <c r="D402">
+        <v>41.6</v>
+      </c>
+      <c r="E402">
+        <v>87.05</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" t="s">
+        <v>5</v>
+      </c>
+      <c r="B403" t="s">
+        <v>413</v>
+      </c>
+      <c r="C403">
+        <v>252</v>
+      </c>
+      <c r="D403">
+        <v>113.81</v>
+      </c>
+      <c r="E403">
+        <v>87.21</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" t="s">
+        <v>7</v>
+      </c>
+      <c r="B404" t="s">
+        <v>414</v>
+      </c>
+      <c r="C404">
+        <v>239</v>
+      </c>
+      <c r="D404">
+        <v>119.97</v>
+      </c>
+      <c r="E404">
+        <v>87.37</v>
       </c>
     </row>
   </sheetData>

--- a/rider/total/total.xlsx
+++ b/rider/total/total.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\CTR-External (6040)\CMAQ12-13 (6085)\go\reports\rider\total\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Ridership" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="415">
   <si>
     <t>Weekday</t>
   </si>
@@ -1166,13 +1171,106 @@
   </si>
   <si>
     <t>23 Sep 2016</t>
+  </si>
+  <si>
+    <t>24 Sep 2016</t>
+  </si>
+  <si>
+    <t>25 Sep 2016</t>
+  </si>
+  <si>
+    <t>26 Sep 2016</t>
+  </si>
+  <si>
+    <t>27 Sep 2016</t>
+  </si>
+  <si>
+    <t>28 Sep 2016</t>
+  </si>
+  <si>
+    <t>29 Sep 2016</t>
+  </si>
+  <si>
+    <t>30 Sep 2016</t>
+  </si>
+  <si>
+    <t>01 Oct 2016</t>
+  </si>
+  <si>
+    <t>02 Oct 2016</t>
+  </si>
+  <si>
+    <t>03 Oct 2016</t>
+  </si>
+  <si>
+    <t>04 Oct 2016</t>
+  </si>
+  <si>
+    <t>05 Oct 2016</t>
+  </si>
+  <si>
+    <t>06 Oct 2016</t>
+  </si>
+  <si>
+    <t>07 Oct 2016</t>
+  </si>
+  <si>
+    <t>08 Oct 2016</t>
+  </si>
+  <si>
+    <t>09 Oct 2016</t>
+  </si>
+  <si>
+    <t>11 Oct 2016</t>
+  </si>
+  <si>
+    <t>12 Oct 2016</t>
+  </si>
+  <si>
+    <t>13 Oct 2016</t>
+  </si>
+  <si>
+    <t>14 Oct 2016</t>
+  </si>
+  <si>
+    <t>15 Oct 2016</t>
+  </si>
+  <si>
+    <t>16 Oct 2016</t>
+  </si>
+  <si>
+    <t>17 Oct 2016</t>
+  </si>
+  <si>
+    <t>18 Oct 2016</t>
+  </si>
+  <si>
+    <t>19 Oct 2016</t>
+  </si>
+  <si>
+    <t>20 Oct 2016</t>
+  </si>
+  <si>
+    <t>21 Oct 2016</t>
+  </si>
+  <si>
+    <t>22 Oct 2016</t>
+  </si>
+  <si>
+    <t>23 Oct 2016</t>
+  </si>
+  <si>
+    <t>24 Oct 2016</t>
+  </si>
+  <si>
+    <t>25 Oct 2016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1209,12 +1307,30 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1233,11 +1349,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1256,9 +1375,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$373</c:f>
+              <c:f>Ridership!$B$2:$B$404</c:f>
               <c:strCache>
-                <c:ptCount val="372"/>
+                <c:ptCount val="403"/>
                 <c:pt idx="0">
                   <c:v>31 Aug 2015</c:v>
                 </c:pt>
@@ -2374,16 +2493,109 @@
                 </c:pt>
                 <c:pt idx="371">
                   <c:v>23 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>24 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>25 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>26 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>27 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>28 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>29 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>30 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>01 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>02 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>03 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>04 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>05 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>06 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>07 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>08 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>09 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>11 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>12 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>13 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>14 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>15 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>16 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>17 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>18 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>19 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>20 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>21 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>22 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>23 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>24 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>25 Oct 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$C$2:$C$373</c:f>
+              <c:f>Ridership!$C$2:$C$404</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="372"/>
+                <c:ptCount val="403"/>
                 <c:pt idx="0">
                   <c:v>14</c:v>
                 </c:pt>
@@ -3342,19 +3554,19 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>185</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>181</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>193</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>173</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>179</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="324">
                   <c:v>69</c:v>
@@ -3363,146 +3575,240 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>141</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="327">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="328">
                   <c:v>213</c:v>
                 </c:pt>
-                <c:pt idx="328">
-                  <c:v>192</c:v>
-                </c:pt>
                 <c:pt idx="329">
-                  <c:v>211</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>253</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>101</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>73</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>178</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>180</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>199</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>221</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>203</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>84</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="339">
                   <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="340">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="349">
                   <c:v>173</c:v>
                 </c:pt>
-                <c:pt idx="341">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>294</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>233</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>223</c:v>
-                </c:pt>
                 <c:pt idx="350">
-                  <c:v>199</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>137</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="352">
                   <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>80</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="354">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="357">
                   <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="358">
                   <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>74</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>203</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>237</c:v>
+                  <c:v>258</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>209</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>252</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>220</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="365">
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="366">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="379">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="367">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="368">
+                <c:pt idx="380">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="402">
                   <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3522,9 +3828,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$373</c:f>
+              <c:f>Ridership!$B$2:$B$404</c:f>
               <c:strCache>
-                <c:ptCount val="372"/>
+                <c:ptCount val="403"/>
                 <c:pt idx="0">
                   <c:v>31 Aug 2015</c:v>
                 </c:pt>
@@ -4640,16 +4946,109 @@
                 </c:pt>
                 <c:pt idx="371">
                   <c:v>23 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>24 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>25 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>26 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>27 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>28 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>29 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>30 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>01 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>02 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>03 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>04 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>05 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>06 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>07 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>08 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>09 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>11 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>12 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>13 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>14 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>15 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>16 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>17 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>18 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>19 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>20 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>21 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>22 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>23 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>24 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>25 Oct 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$D$2:$D$373</c:f>
+              <c:f>Ridership!$D$2:$D$404</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="372"/>
+                <c:ptCount val="403"/>
                 <c:pt idx="0">
                   <c:v>14</c:v>
                 </c:pt>
@@ -4684,7 +5083,7 @@
                   <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.67</c:v>
+                  <c:v>16.670000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>23.67</c:v>
@@ -4789,7 +5188,7 @@
                   <c:v>25.67</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>17.17</c:v>
+                  <c:v>17.170000000000002</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>14</c:v>
@@ -4858,7 +5257,7 @@
                   <c:v>30.67</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>33.45</c:v>
+                  <c:v>33.450000000000003</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>31.25</c:v>
@@ -4867,7 +5266,7 @@
                   <c:v>30.7</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>19.56</c:v>
+                  <c:v>19.559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>15.9</c:v>
@@ -4876,7 +5275,7 @@
                   <c:v>29.55</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>33.23</c:v>
+                  <c:v>33.229999999999997</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>33.33</c:v>
@@ -4915,7 +5314,7 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>35.27</c:v>
+                  <c:v>35.270000000000003</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>37.21</c:v>
@@ -4924,10 +5323,10 @@
                   <c:v>35.71</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>32.62</c:v>
+                  <c:v>32.619999999999997</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>19.58</c:v>
+                  <c:v>19.579999999999998</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>16.46</c:v>
@@ -4936,19 +5335,19 @@
                   <c:v>33.14</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>36.12</c:v>
+                  <c:v>36.119999999999997</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>42.2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>39.2</c:v>
+                  <c:v>39.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>34.36</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>20.08</c:v>
+                  <c:v>20.079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>19.36</c:v>
@@ -4957,7 +5356,7 @@
                   <c:v>33.67</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>35.59</c:v>
+                  <c:v>35.590000000000003</c:v>
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>41.56</c:v>
@@ -4978,16 +5377,16 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>40.59</c:v>
+                  <c:v>40.590000000000003</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>37.41</c:v>
+                  <c:v>37.409999999999997</c:v>
                 </c:pt>
                 <c:pt idx="111">
                   <c:v>19.13</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>18.56</c:v>
+                  <c:v>18.559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>32.71</c:v>
@@ -5002,10 +5401,10 @@
                   <c:v>41.83</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>39.13</c:v>
+                  <c:v>39.130000000000003</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>19.31</c:v>
+                  <c:v>19.309999999999999</c:v>
                 </c:pt>
                 <c:pt idx="119">
                   <c:v>18.18</c:v>
@@ -5026,7 +5425,7 @@
                   <c:v>37.94</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>19.24</c:v>
+                  <c:v>19.239999999999998</c:v>
                 </c:pt>
                 <c:pt idx="126">
                   <c:v>18.11</c:v>
@@ -5044,7 +5443,7 @@
                   <c:v>42.59</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>19.17</c:v>
+                  <c:v>19.170000000000002</c:v>
                 </c:pt>
                 <c:pt idx="132">
                   <c:v>18.32</c:v>
@@ -5068,7 +5467,7 @@
                   <c:v>20.32</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>18.6</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="140">
                   <c:v>46.25</c:v>
@@ -5089,7 +5488,7 @@
                   <c:v>20.85</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>20.33</c:v>
+                  <c:v>20.329999999999998</c:v>
                 </c:pt>
                 <c:pt idx="147">
                   <c:v>49.48</c:v>
@@ -5200,7 +5599,7 @@
                   <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>66.18</c:v>
+                  <c:v>66.180000000000007</c:v>
                 </c:pt>
                 <c:pt idx="184">
                   <c:v>62.82</c:v>
@@ -5302,10 +5701,10 @@
                   <c:v>61.83</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>65.71</c:v>
+                  <c:v>65.709999999999994</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>70.15</c:v>
+                  <c:v>70.150000000000006</c:v>
                 </c:pt>
                 <c:pt idx="219">
                   <c:v>66.45</c:v>
@@ -5323,10 +5722,10 @@
                   <c:v>63.1</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>66.57</c:v>
+                  <c:v>66.569999999999993</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>71.35</c:v>
+                  <c:v>71.349999999999994</c:v>
                 </c:pt>
                 <c:pt idx="226">
                   <c:v>67.91</c:v>
@@ -5365,7 +5764,7 @@
                   <c:v>66.36</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>68.54</c:v>
+                  <c:v>68.540000000000006</c:v>
                 </c:pt>
                 <c:pt idx="239">
                   <c:v>73.33</c:v>
@@ -5374,7 +5773,7 @@
                   <c:v>70.53</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>66.85</c:v>
+                  <c:v>66.849999999999994</c:v>
                 </c:pt>
                 <c:pt idx="242">
                   <c:v>26.18</c:v>
@@ -5389,10 +5788,10 @@
                   <c:v>70.87</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>75.54</c:v>
+                  <c:v>75.540000000000006</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>71.54</c:v>
+                  <c:v>71.540000000000006</c:v>
                 </c:pt>
                 <c:pt idx="248">
                   <c:v>68.91</c:v>
@@ -5404,16 +5803,16 @@
                   <c:v>23.33</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>70.26</c:v>
+                  <c:v>70.260000000000005</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>72.74</c:v>
+                  <c:v>72.739999999999995</c:v>
                 </c:pt>
                 <c:pt idx="253">
                   <c:v>77.89</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>73.76</c:v>
+                  <c:v>73.760000000000005</c:v>
                 </c:pt>
                 <c:pt idx="255">
                   <c:v>69.63</c:v>
@@ -5431,7 +5830,7 @@
                   <c:v>79.56</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>75.21</c:v>
+                  <c:v>75.209999999999994</c:v>
                 </c:pt>
                 <c:pt idx="261">
                   <c:v>72.36</c:v>
@@ -5446,7 +5845,7 @@
                   <c:v>72.75</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>76.32</c:v>
+                  <c:v>76.319999999999993</c:v>
                 </c:pt>
                 <c:pt idx="266">
                   <c:v>81.42</c:v>
@@ -5485,10 +5884,10 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>80.71</c:v>
+                  <c:v>80.709999999999994</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>81.49</c:v>
+                  <c:v>81.489999999999995</c:v>
                 </c:pt>
                 <c:pt idx="280">
                   <c:v>87.21</c:v>
@@ -5497,7 +5896,7 @@
                   <c:v>83.4</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>79.49</c:v>
+                  <c:v>79.489999999999995</c:v>
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>33.08</c:v>
@@ -5521,7 +5920,7 @@
                   <c:v>82.28</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>33.95</c:v>
+                  <c:v>33.950000000000003</c:v>
                 </c:pt>
                 <c:pt idx="291">
                   <c:v>27.98</c:v>
@@ -5602,173 +6001,267 @@
                   <c:v>92.34</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>39.73</c:v>
+                  <c:v>39.729999999999997</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>32.98</c:v>
+                  <c:v>32.979999999999997</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>92.6</c:v>
+                  <c:v>92.49</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>93.8</c:v>
+                  <c:v>93.59</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>100.02</c:v>
+                  <c:v>100.35</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>97.58</c:v>
+                  <c:v>97.48</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>94.27</c:v>
+                  <c:v>94.38</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>40.37</c:v>
+                  <c:v>40.369999999999997</c:v>
                 </c:pt>
                 <c:pt idx="325">
                   <c:v>33.17</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>93.7</c:v>
+                  <c:v>93.55</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>96.18</c:v>
+                  <c:v>96.1</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>101.9</c:v>
+                  <c:v>102.65</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>99.9</c:v>
+                  <c:v>99.47</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>97.72</c:v>
+                  <c:v>97.74</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>41.66</c:v>
+                  <c:v>41.64</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>34</c:v>
+                  <c:v>33.979999999999997</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>95.58</c:v>
+                  <c:v>95.51</c:v>
                 </c:pt>
                 <c:pt idx="334">
                   <c:v>97.82</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>103.84</c:v>
+                  <c:v>104.14</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>102.32</c:v>
+                  <c:v>102.2</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>99.96</c:v>
+                  <c:v>99.94</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>42.54</c:v>
+                  <c:v>42.58</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>35.02</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>97.26</c:v>
+                  <c:v>97.46</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>99.46</c:v>
+                  <c:v>99.75</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>105.33</c:v>
+                  <c:v>105.84</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>104.45</c:v>
+                  <c:v>104.24</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>101.83</c:v>
+                  <c:v>101.79</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>47.67</c:v>
+                  <c:v>47.9</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>36.64</c:v>
+                  <c:v>36.659999999999997</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>100</c:v>
+                  <c:v>100.26</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>101.98</c:v>
+                  <c:v>102.6</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>107.6</c:v>
+                  <c:v>107.13</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>106.27</c:v>
+                  <c:v>105.94</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>102.55</c:v>
+                  <c:v>102.76</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>48.66</c:v>
+                  <c:v>48.88</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>37.49</c:v>
+                  <c:v>37.450000000000003</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>103.98</c:v>
+                  <c:v>104.09</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>109.74</c:v>
+                  <c:v>109.64</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>108.45</c:v>
+                  <c:v>108.23</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>104.88</c:v>
+                  <c:v>104.9</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>49.37</c:v>
+                  <c:v>49.59</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>38.19</c:v>
+                  <c:v>38.130000000000003</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>102.15</c:v>
+                  <c:v>101.75</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>106.4</c:v>
+                  <c:v>106.89</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>111.57</c:v>
+                  <c:v>112.06</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>111.11</c:v>
+                  <c:v>110.3</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>107.14</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>49.58</c:v>
+                  <c:v>49.79</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>38.89</c:v>
+                  <c:v>38.81</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>104.49</c:v>
+                  <c:v>104.35</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>108.77</c:v>
+                  <c:v>108.89</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>113.45</c:v>
+                  <c:v>114.05</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>112.36</c:v>
+                  <c:v>111.76</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>110.4</c:v>
+                  <c:v>109.94</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>50.87</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>39.33</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>106.72</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>110.3</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>115.2</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>113.32</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>112.89</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>51.31</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>39.65</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>109.25</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>113.29</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>117.61</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>115.12</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>116.3</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>52.36</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>40.119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>115.41</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>119.6</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>117.5</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>118.47</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>52.79</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>40.53</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>111.15</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>117.98</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>122.56</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>119.8</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>120.91</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>54.02</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>41.6</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>113.81</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>119.97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5788,9 +6281,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$373</c:f>
+              <c:f>Ridership!$B$2:$B$404</c:f>
               <c:strCache>
-                <c:ptCount val="372"/>
+                <c:ptCount val="403"/>
                 <c:pt idx="0">
                   <c:v>31 Aug 2015</c:v>
                 </c:pt>
@@ -6906,21 +7399,114 @@
                 </c:pt>
                 <c:pt idx="371">
                   <c:v>23 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>24 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>25 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>26 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>27 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>28 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>29 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>30 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>01 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>02 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>03 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>04 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>05 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>06 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>07 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>08 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>09 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>11 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>12 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>13 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>14 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>15 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>16 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>17 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>18 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>19 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>20 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>21 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>22 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>23 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>24 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>25 Oct 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$E$2:$E$373</c:f>
+              <c:f>Ridership!$E$2:$E$404</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="372"/>
+                <c:ptCount val="403"/>
                 <c:pt idx="0">
-                  <c:v>19.4</c:v>
+                  <c:v>19.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.56</c:v>
+                  <c:v>19.559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>19.72</c:v>
@@ -7130,19 +7716,19 @@
                   <c:v>32.32</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>32.48</c:v>
+                  <c:v>32.479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>32.64</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>32.8</c:v>
+                  <c:v>32.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>32.96</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>33.12</c:v>
+                  <c:v>33.119999999999997</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>33.28</c:v>
@@ -7151,19 +7737,19 @@
                   <c:v>33.61</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>33.77</c:v>
+                  <c:v>33.770000000000003</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>33.93</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>34.09</c:v>
+                  <c:v>34.090000000000003</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>34.25</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>34.41</c:v>
+                  <c:v>34.409999999999997</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>34.58</c:v>
@@ -7181,7 +7767,7 @@
                   <c:v>35.22</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>35.38</c:v>
+                  <c:v>35.380000000000003</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>35.54</c:v>
@@ -7190,7 +7776,7 @@
                   <c:v>35.71</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>35.87</c:v>
+                  <c:v>35.869999999999997</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>36.03</c:v>
@@ -7208,19 +7794,19 @@
                   <c:v>36.67</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>36.84</c:v>
+                  <c:v>36.840000000000003</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>37.16</c:v>
+                  <c:v>37.159999999999997</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>37.32</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>37.48</c:v>
+                  <c:v>37.479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>37.64</c:v>
@@ -7235,13 +7821,13 @@
                   <c:v>38.29</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>38.45</c:v>
+                  <c:v>38.450000000000003</c:v>
                 </c:pt>
                 <c:pt idx="107">
                   <c:v>38.61</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>38.77</c:v>
+                  <c:v>38.770000000000003</c:v>
                 </c:pt>
                 <c:pt idx="109">
                   <c:v>38.94</c:v>
@@ -7265,19 +7851,19 @@
                   <c:v>40.07</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>40.23</c:v>
+                  <c:v>40.229999999999997</c:v>
                 </c:pt>
                 <c:pt idx="117">
                   <c:v>40.39</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>40.55</c:v>
+                  <c:v>40.549999999999997</c:v>
                 </c:pt>
                 <c:pt idx="119">
                   <c:v>40.71</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>40.87</c:v>
+                  <c:v>40.869999999999997</c:v>
                 </c:pt>
                 <c:pt idx="121">
                   <c:v>41.03</c:v>
@@ -7715,7 +8301,7 @@
                   <c:v>64.77</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>64.93</c:v>
+                  <c:v>64.930000000000007</c:v>
                 </c:pt>
                 <c:pt idx="267">
                   <c:v>65.09</c:v>
@@ -7727,13 +8313,13 @@
                   <c:v>65.41</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>65.57</c:v>
+                  <c:v>65.569999999999993</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>65.74</c:v>
+                  <c:v>65.739999999999995</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>65.9</c:v>
+                  <c:v>65.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="273">
                   <c:v>66.06</c:v>
@@ -7745,7 +8331,7 @@
                   <c:v>66.38</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>66.54</c:v>
+                  <c:v>66.540000000000006</c:v>
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>66.7</c:v>
@@ -7760,10 +8346,10 @@
                   <c:v>67.19</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>67.35</c:v>
+                  <c:v>67.349999999999994</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>67.51</c:v>
+                  <c:v>67.510000000000005</c:v>
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>67.67</c:v>
@@ -7778,7 +8364,7 @@
                   <c:v>68.16</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>68.32</c:v>
+                  <c:v>68.319999999999993</c:v>
                 </c:pt>
                 <c:pt idx="288">
                   <c:v>68.48</c:v>
@@ -7790,10 +8376,10 @@
                   <c:v>68.8</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>68.96</c:v>
+                  <c:v>68.959999999999994</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>69.29</c:v>
+                  <c:v>69.290000000000006</c:v>
                 </c:pt>
                 <c:pt idx="293">
                   <c:v>69.45</c:v>
@@ -7805,13 +8391,13 @@
                   <c:v>69.77</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>69.93</c:v>
+                  <c:v>69.930000000000007</c:v>
                 </c:pt>
                 <c:pt idx="297">
                   <c:v>70.09</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>70.26</c:v>
+                  <c:v>70.260000000000005</c:v>
                 </c:pt>
                 <c:pt idx="299">
                   <c:v>70.42</c:v>
@@ -7820,10 +8406,10 @@
                   <c:v>70.58</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>70.74</c:v>
+                  <c:v>70.739999999999995</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>70.9</c:v>
+                  <c:v>70.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="303">
                   <c:v>71.06</c:v>
@@ -7838,7 +8424,7 @@
                   <c:v>71.55</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>71.71</c:v>
+                  <c:v>71.709999999999994</c:v>
                 </c:pt>
                 <c:pt idx="308">
                   <c:v>71.87</c:v>
@@ -7850,13 +8436,13 @@
                   <c:v>72.19</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>72.35</c:v>
+                  <c:v>72.349999999999994</c:v>
                 </c:pt>
                 <c:pt idx="312">
                   <c:v>72.52</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>72.68</c:v>
+                  <c:v>72.680000000000007</c:v>
                 </c:pt>
                 <c:pt idx="314">
                   <c:v>72.84</c:v>
@@ -7868,13 +8454,13 @@
                   <c:v>73.16</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>73.32</c:v>
+                  <c:v>73.319999999999993</c:v>
                 </c:pt>
                 <c:pt idx="318">
                   <c:v>73.48</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>73.65</c:v>
+                  <c:v>73.650000000000006</c:v>
                 </c:pt>
                 <c:pt idx="320">
                   <c:v>73.81</c:v>
@@ -7886,7 +8472,7 @@
                   <c:v>74.13</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>74.29</c:v>
+                  <c:v>74.290000000000006</c:v>
                 </c:pt>
                 <c:pt idx="324">
                   <c:v>74.45</c:v>
@@ -7901,10 +8487,10 @@
                   <c:v>74.94</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>75.1</c:v>
+                  <c:v>75.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>75.26</c:v>
+                  <c:v>75.260000000000005</c:v>
                 </c:pt>
                 <c:pt idx="330">
                   <c:v>75.42</c:v>
@@ -7919,7 +8505,7 @@
                   <c:v>75.91</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>76.07</c:v>
+                  <c:v>76.069999999999993</c:v>
                 </c:pt>
                 <c:pt idx="335">
                   <c:v>76.23</c:v>
@@ -7931,13 +8517,13 @@
                   <c:v>76.55</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>76.71</c:v>
+                  <c:v>76.709999999999994</c:v>
                 </c:pt>
                 <c:pt idx="339">
                   <c:v>76.88</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>77.04</c:v>
+                  <c:v>77.040000000000006</c:v>
                 </c:pt>
                 <c:pt idx="341">
                   <c:v>77.2</c:v>
@@ -7949,13 +8535,13 @@
                   <c:v>77.52</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>77.68</c:v>
+                  <c:v>77.680000000000007</c:v>
                 </c:pt>
                 <c:pt idx="345">
                   <c:v>77.84</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>78.01</c:v>
+                  <c:v>78.010000000000005</c:v>
                 </c:pt>
                 <c:pt idx="347">
                   <c:v>78.17</c:v>
@@ -7964,10 +8550,10 @@
                   <c:v>78.33</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>78.49</c:v>
+                  <c:v>78.489999999999995</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>78.65</c:v>
+                  <c:v>78.650000000000006</c:v>
                 </c:pt>
                 <c:pt idx="351">
                   <c:v>78.81</c:v>
@@ -7979,7 +8565,7 @@
                   <c:v>79.14</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>79.46</c:v>
+                  <c:v>79.459999999999994</c:v>
                 </c:pt>
                 <c:pt idx="355">
                   <c:v>79.62</c:v>
@@ -7991,13 +8577,13 @@
                   <c:v>79.94</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>80.1</c:v>
+                  <c:v>80.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="359">
                   <c:v>80.27</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>80.43</c:v>
+                  <c:v>80.430000000000007</c:v>
                 </c:pt>
                 <c:pt idx="361">
                   <c:v>80.59</c:v>
@@ -8009,13 +8595,13 @@
                   <c:v>80.91</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>81.07</c:v>
+                  <c:v>81.069999999999993</c:v>
                 </c:pt>
                 <c:pt idx="365">
                   <c:v>81.23</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>81.4</c:v>
+                  <c:v>81.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="367">
                   <c:v>81.56</c:v>
@@ -8031,20 +8617,123 @@
                 </c:pt>
                 <c:pt idx="371">
                   <c:v>82.2</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>82.36</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>82.53</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>82.69</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>82.85</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>83.01</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>83.17</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>83.33</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>83.49</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>83.66</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>83.82</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>83.98</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>84.14</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>84.3</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>84.46</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>84.62</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>84.79</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>85.11</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>85.27</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>85.43</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>85.59</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>85.76</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>85.92</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>86.08</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>86.24</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>86.4</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>86.56</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>86.72</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>86.89</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>87.05</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>87.21</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>87.37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="50010001"/>
-        <c:axId val="50010002"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="315290712"/>
+        <c:axId val="315292672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50010001"/>
+        <c:axId val="315290712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -8063,19 +8752,25 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010002"/>
+        <c:crossAx val="315292672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50010002"/>
+        <c:axId val="315292672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -8095,10 +8790,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010001"/>
+        <c:crossAx val="315290712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8106,8 +8804,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -8123,13 +8824,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>375</xdr:row>
+      <xdr:row>406</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>389</xdr:row>
+      <xdr:row>420</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8195,7 +8896,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8227,9 +8928,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8261,6 +8963,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8436,21 +9139,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E373"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E404"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="1" max="5" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8467,7 +9166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -8481,10 +9180,10 @@
         <v>14</v>
       </c>
       <c r="E2">
-        <v>19.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -8498,10 +9197,10 @@
         <v>11</v>
       </c>
       <c r="E3">
-        <v>19.56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>19.559999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -8518,7 +9217,7 @@
         <v>19.72</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -8535,7 +9234,7 @@
         <v>19.88</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -8552,7 +9251,7 @@
         <v>20.69</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -8569,7 +9268,7 @@
         <v>20.85</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -8586,7 +9285,7 @@
         <v>21.01</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -8603,7 +9302,7 @@
         <v>21.18</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -8620,7 +9319,7 @@
         <v>21.34</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -8637,7 +9336,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -8654,7 +9353,7 @@
         <v>21.66</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -8665,13 +9364,13 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>16.67</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="E13">
         <v>21.82</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -8688,7 +9387,7 @@
         <v>21.98</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -8705,7 +9404,7 @@
         <v>22.14</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -8722,7 +9421,7 @@
         <v>22.31</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -8739,7 +9438,7 @@
         <v>22.47</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -8756,7 +9455,7 @@
         <v>22.63</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -8773,7 +9472,7 @@
         <v>22.79</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -8790,7 +9489,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -8807,7 +9506,7 @@
         <v>23.11</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -8824,7 +9523,7 @@
         <v>23.27</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -8841,7 +9540,7 @@
         <v>23.44</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -8858,7 +9557,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -8875,7 +9574,7 @@
         <v>23.76</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -8892,7 +9591,7 @@
         <v>23.92</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -8909,7 +9608,7 @@
         <v>24.08</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -8926,7 +9625,7 @@
         <v>24.24</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -8943,7 +9642,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -8960,7 +9659,7 @@
         <v>24.57</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -8977,7 +9676,7 @@
         <v>24.73</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -8994,7 +9693,7 @@
         <v>24.89</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -9011,7 +9710,7 @@
         <v>25.05</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -9028,7 +9727,7 @@
         <v>25.21</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -9045,7 +9744,7 @@
         <v>25.37</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -9062,7 +9761,7 @@
         <v>25.54</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -9079,7 +9778,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -9096,7 +9795,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -9113,7 +9812,7 @@
         <v>26.67</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -9130,7 +9829,7 @@
         <v>26.83</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -9147,7 +9846,7 @@
         <v>26.99</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -9164,7 +9863,7 @@
         <v>27.15</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -9181,7 +9880,7 @@
         <v>27.31</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -9198,7 +9897,7 @@
         <v>27.47</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -9215,7 +9914,7 @@
         <v>27.63</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -9232,7 +9931,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -9249,7 +9948,7 @@
         <v>27.96</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -9260,13 +9959,13 @@
         <v>32</v>
       </c>
       <c r="D48">
-        <v>17.17</v>
+        <v>17.170000000000002</v>
       </c>
       <c r="E48">
         <v>28.12</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -9283,7 +9982,7 @@
         <v>28.28</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -9300,7 +9999,7 @@
         <v>28.44</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -9317,7 +10016,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -9334,7 +10033,7 @@
         <v>28.76</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -9351,7 +10050,7 @@
         <v>28.93</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>16</v>
       </c>
@@ -9368,7 +10067,7 @@
         <v>29.09</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -9385,7 +10084,7 @@
         <v>29.41</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -9402,7 +10101,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -9419,7 +10118,7 @@
         <v>29.73</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -9436,7 +10135,7 @@
         <v>29.89</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -9453,7 +10152,7 @@
         <v>30.06</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>16</v>
       </c>
@@ -9470,7 +10169,7 @@
         <v>30.22</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>18</v>
       </c>
@@ -9487,7 +10186,7 @@
         <v>30.38</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>20</v>
       </c>
@@ -9504,7 +10203,7 @@
         <v>30.54</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -9521,7 +10220,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -9538,7 +10237,7 @@
         <v>30.86</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -9555,7 +10254,7 @@
         <v>31.19</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -9572,7 +10271,7 @@
         <v>31.35</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>18</v>
       </c>
@@ -9589,7 +10288,7 @@
         <v>31.51</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -9606,7 +10305,7 @@
         <v>31.67</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -9623,7 +10322,7 @@
         <v>31.83</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -9640,7 +10339,7 @@
         <v>31.99</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -9651,13 +10350,13 @@
         <v>59</v>
       </c>
       <c r="D71">
-        <v>33.45</v>
+        <v>33.450000000000003</v>
       </c>
       <c r="E71">
         <v>32.15</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -9674,7 +10373,7 @@
         <v>32.32</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -9688,10 +10387,10 @@
         <v>30.7</v>
       </c>
       <c r="E73">
-        <v>32.48</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>32.479999999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>18</v>
       </c>
@@ -9702,13 +10401,13 @@
         <v>14</v>
       </c>
       <c r="D74">
-        <v>19.56</v>
+        <v>19.559999999999999</v>
       </c>
       <c r="E74">
         <v>32.64</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>20</v>
       </c>
@@ -9722,10 +10421,10 @@
         <v>15.9</v>
       </c>
       <c r="E75">
-        <v>32.8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -9742,7 +10441,7 @@
         <v>32.96</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -9753,13 +10452,13 @@
         <v>64</v>
       </c>
       <c r="D77">
-        <v>33.23</v>
+        <v>33.229999999999997</v>
       </c>
       <c r="E77">
-        <v>33.12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>33.119999999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -9776,7 +10475,7 @@
         <v>33.28</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>16</v>
       </c>
@@ -9793,7 +10492,7 @@
         <v>33.61</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>18</v>
       </c>
@@ -9807,10 +10506,10 @@
         <v>19</v>
       </c>
       <c r="E80">
-        <v>33.77</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>33.770000000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -9827,7 +10526,7 @@
         <v>33.93</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -9841,10 +10540,10 @@
         <v>32.17</v>
       </c>
       <c r="E82">
-        <v>34.09</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>34.090000000000003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -9861,7 +10560,7 @@
         <v>34.25</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -9875,10 +10574,10 @@
         <v>36.46</v>
       </c>
       <c r="E84">
-        <v>34.41</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>34.409999999999997</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -9895,7 +10594,7 @@
         <v>34.58</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>16</v>
       </c>
@@ -9912,7 +10611,7 @@
         <v>34.74</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>18</v>
       </c>
@@ -9929,7 +10628,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>20</v>
       </c>
@@ -9946,7 +10645,7 @@
         <v>35.06</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -9963,7 +10662,7 @@
         <v>35.22</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -9974,13 +10673,13 @@
         <v>48</v>
       </c>
       <c r="D90">
-        <v>35.27</v>
+        <v>35.270000000000003</v>
       </c>
       <c r="E90">
-        <v>35.38</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>35.380000000000003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -9997,7 +10696,7 @@
         <v>35.54</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -10014,7 +10713,7 @@
         <v>35.71</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>16</v>
       </c>
@@ -10025,13 +10724,13 @@
         <v>57</v>
       </c>
       <c r="D93">
-        <v>32.62</v>
+        <v>32.619999999999997</v>
       </c>
       <c r="E93">
-        <v>35.87</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>35.869999999999997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>18</v>
       </c>
@@ -10042,13 +10741,13 @@
         <v>17</v>
       </c>
       <c r="D94">
-        <v>19.58</v>
+        <v>19.579999999999998</v>
       </c>
       <c r="E94">
         <v>36.03</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>20</v>
       </c>
@@ -10065,7 +10764,7 @@
         <v>36.19</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -10082,7 +10781,7 @@
         <v>36.35</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -10093,13 +10792,13 @@
         <v>49</v>
       </c>
       <c r="D97">
-        <v>36.12</v>
+        <v>36.119999999999997</v>
       </c>
       <c r="E97">
         <v>36.51</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -10116,7 +10815,7 @@
         <v>36.67</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>11</v>
       </c>
@@ -10127,13 +10826,13 @@
         <v>88</v>
       </c>
       <c r="D99">
-        <v>39.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="E99">
-        <v>36.84</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>36.840000000000003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>16</v>
       </c>
@@ -10150,7 +10849,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>18</v>
       </c>
@@ -10161,13 +10860,13 @@
         <v>26</v>
       </c>
       <c r="D101">
-        <v>20.08</v>
+        <v>20.079999999999998</v>
       </c>
       <c r="E101">
-        <v>37.16</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>37.159999999999997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>20</v>
       </c>
@@ -10184,7 +10883,7 @@
         <v>37.32</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -10198,10 +10897,10 @@
         <v>33.67</v>
       </c>
       <c r="E103">
-        <v>37.48</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>37.479999999999997</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -10212,13 +10911,13 @@
         <v>27</v>
       </c>
       <c r="D104">
-        <v>35.59</v>
+        <v>35.590000000000003</v>
       </c>
       <c r="E104">
         <v>37.64</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -10235,7 +10934,7 @@
         <v>37.81</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -10252,7 +10951,7 @@
         <v>37.97</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>18</v>
       </c>
@@ -10269,7 +10968,7 @@
         <v>38.29</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>20</v>
       </c>
@@ -10283,10 +10982,10 @@
         <v>18.73</v>
       </c>
       <c r="E108">
-        <v>38.45</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>38.450000000000003</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -10303,7 +11002,7 @@
         <v>38.61</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -10317,10 +11016,10 @@
         <v>35</v>
       </c>
       <c r="E110">
-        <v>38.77</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>38.770000000000003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>9</v>
       </c>
@@ -10331,13 +11030,13 @@
         <v>25</v>
       </c>
       <c r="D111">
-        <v>40.59</v>
+        <v>40.590000000000003</v>
       </c>
       <c r="E111">
         <v>38.94</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>11</v>
       </c>
@@ -10348,13 +11047,13 @@
         <v>29</v>
       </c>
       <c r="D112">
-        <v>37.41</v>
+        <v>37.409999999999997</v>
       </c>
       <c r="E112">
         <v>39.1</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>18</v>
       </c>
@@ -10371,7 +11070,7 @@
         <v>39.42</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>20</v>
       </c>
@@ -10382,13 +11081,13 @@
         <v>16</v>
       </c>
       <c r="D114">
-        <v>18.56</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="E114">
         <v>39.58</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -10405,7 +11104,7 @@
         <v>39.74</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -10422,7 +11121,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>9</v>
       </c>
@@ -10439,7 +11138,7 @@
         <v>40.07</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>11</v>
       </c>
@@ -10453,10 +11152,10 @@
         <v>41.83</v>
       </c>
       <c r="E118">
-        <v>40.23</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <v>40.229999999999997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>16</v>
       </c>
@@ -10467,13 +11166,13 @@
         <v>106</v>
       </c>
       <c r="D119">
-        <v>39.13</v>
+        <v>39.130000000000003</v>
       </c>
       <c r="E119">
         <v>40.39</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>18</v>
       </c>
@@ -10484,13 +11183,13 @@
         <v>22</v>
       </c>
       <c r="D120">
-        <v>19.31</v>
+        <v>19.309999999999999</v>
       </c>
       <c r="E120">
-        <v>40.55</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>40.549999999999997</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>20</v>
       </c>
@@ -10507,7 +11206,7 @@
         <v>40.71</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -10521,10 +11220,10 @@
         <v>37.06</v>
       </c>
       <c r="E122">
-        <v>40.87</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <v>40.869999999999997</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -10541,7 +11240,7 @@
         <v>41.03</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>9</v>
       </c>
@@ -10558,7 +11257,7 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>11</v>
       </c>
@@ -10575,7 +11274,7 @@
         <v>41.36</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>16</v>
       </c>
@@ -10592,7 +11291,7 @@
         <v>41.52</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>18</v>
       </c>
@@ -10603,13 +11302,13 @@
         <v>18</v>
       </c>
       <c r="D127">
-        <v>19.24</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="E127">
         <v>41.68</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>20</v>
       </c>
@@ -10626,7 +11325,7 @@
         <v>41.84</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -10643,7 +11342,7 @@
         <v>42.16</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>9</v>
       </c>
@@ -10660,7 +11359,7 @@
         <v>42.33</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -10677,7 +11376,7 @@
         <v>42.49</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>16</v>
       </c>
@@ -10694,7 +11393,7 @@
         <v>42.65</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>18</v>
       </c>
@@ -10705,13 +11404,13 @@
         <v>18</v>
       </c>
       <c r="D133">
-        <v>19.17</v>
+        <v>19.170000000000002</v>
       </c>
       <c r="E133">
         <v>42.81</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>20</v>
       </c>
@@ -10728,7 +11427,7 @@
         <v>42.97</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>5</v>
       </c>
@@ -10745,7 +11444,7 @@
         <v>43.13</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -10762,7 +11461,7 @@
         <v>43.29</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -10779,7 +11478,7 @@
         <v>43.46</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>11</v>
       </c>
@@ -10796,7 +11495,7 @@
         <v>43.62</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>16</v>
       </c>
@@ -10813,7 +11512,7 @@
         <v>43.78</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>18</v>
       </c>
@@ -10830,7 +11529,7 @@
         <v>43.94</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>20</v>
       </c>
@@ -10841,13 +11540,13 @@
         <v>24</v>
       </c>
       <c r="D141">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E141">
         <v>44.1</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -10864,7 +11563,7 @@
         <v>44.26</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -10881,7 +11580,7 @@
         <v>44.42</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>9</v>
       </c>
@@ -10898,7 +11597,7 @@
         <v>44.59</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>11</v>
       </c>
@@ -10915,7 +11614,7 @@
         <v>44.75</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>16</v>
       </c>
@@ -10932,7 +11631,7 @@
         <v>44.91</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>18</v>
       </c>
@@ -10949,7 +11648,7 @@
         <v>45.07</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>20</v>
       </c>
@@ -10960,13 +11659,13 @@
         <v>55</v>
       </c>
       <c r="D148">
-        <v>20.33</v>
+        <v>20.329999999999998</v>
       </c>
       <c r="E148">
         <v>45.23</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>5</v>
       </c>
@@ -10983,7 +11682,7 @@
         <v>45.39</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -11000,7 +11699,7 @@
         <v>45.55</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>9</v>
       </c>
@@ -11017,7 +11716,7 @@
         <v>45.72</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -11034,7 +11733,7 @@
         <v>45.88</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>16</v>
       </c>
@@ -11051,7 +11750,7 @@
         <v>46.04</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>18</v>
       </c>
@@ -11068,7 +11767,7 @@
         <v>46.2</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>20</v>
       </c>
@@ -11085,7 +11784,7 @@
         <v>46.36</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -11102,7 +11801,7 @@
         <v>46.68</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>9</v>
       </c>
@@ -11119,7 +11818,7 @@
         <v>46.85</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>11</v>
       </c>
@@ -11136,7 +11835,7 @@
         <v>47.01</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>16</v>
       </c>
@@ -11153,7 +11852,7 @@
         <v>47.17</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>18</v>
       </c>
@@ -11170,7 +11869,7 @@
         <v>47.33</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>20</v>
       </c>
@@ -11187,7 +11886,7 @@
         <v>47.49</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>5</v>
       </c>
@@ -11204,7 +11903,7 @@
         <v>47.65</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>7</v>
       </c>
@@ -11221,7 +11920,7 @@
         <v>47.81</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>9</v>
       </c>
@@ -11238,7 +11937,7 @@
         <v>47.98</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>11</v>
       </c>
@@ -11255,7 +11954,7 @@
         <v>48.14</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>16</v>
       </c>
@@ -11272,7 +11971,7 @@
         <v>48.3</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>18</v>
       </c>
@@ -11289,7 +11988,7 @@
         <v>48.46</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>20</v>
       </c>
@@ -11306,7 +12005,7 @@
         <v>48.62</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>5</v>
       </c>
@@ -11323,7 +12022,7 @@
         <v>48.78</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>7</v>
       </c>
@@ -11340,7 +12039,7 @@
         <v>48.94</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>9</v>
       </c>
@@ -11357,7 +12056,7 @@
         <v>49.11</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>11</v>
       </c>
@@ -11374,7 +12073,7 @@
         <v>49.27</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>16</v>
       </c>
@@ -11391,7 +12090,7 @@
         <v>49.43</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>18</v>
       </c>
@@ -11408,7 +12107,7 @@
         <v>49.59</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>20</v>
       </c>
@@ -11425,7 +12124,7 @@
         <v>49.75</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>5</v>
       </c>
@@ -11442,7 +12141,7 @@
         <v>49.91</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>7</v>
       </c>
@@ -11459,7 +12158,7 @@
         <v>50.08</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>9</v>
       </c>
@@ -11476,7 +12175,7 @@
         <v>50.24</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>11</v>
       </c>
@@ -11493,7 +12192,7 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>16</v>
       </c>
@@ -11510,7 +12209,7 @@
         <v>50.56</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>18</v>
       </c>
@@ -11527,7 +12226,7 @@
         <v>50.72</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>20</v>
       </c>
@@ -11544,7 +12243,7 @@
         <v>50.88</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>5</v>
       </c>
@@ -11561,7 +12260,7 @@
         <v>51.04</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>7</v>
       </c>
@@ -11578,7 +12277,7 @@
         <v>51.21</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>9</v>
       </c>
@@ -11589,13 +12288,13 @@
         <v>53</v>
       </c>
       <c r="D185">
-        <v>66.18</v>
+        <v>66.180000000000007</v>
       </c>
       <c r="E185">
         <v>51.37</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>11</v>
       </c>
@@ -11612,7 +12311,7 @@
         <v>51.53</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>16</v>
       </c>
@@ -11629,7 +12328,7 @@
         <v>51.69</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>18</v>
       </c>
@@ -11646,7 +12345,7 @@
         <v>51.85</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>20</v>
       </c>
@@ -11663,7 +12362,7 @@
         <v>52.01</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>5</v>
       </c>
@@ -11680,7 +12379,7 @@
         <v>52.17</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>7</v>
       </c>
@@ -11697,7 +12396,7 @@
         <v>52.34</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>9</v>
       </c>
@@ -11714,7 +12413,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>11</v>
       </c>
@@ -11731,7 +12430,7 @@
         <v>52.66</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>16</v>
       </c>
@@ -11748,7 +12447,7 @@
         <v>52.82</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>18</v>
       </c>
@@ -11765,7 +12464,7 @@
         <v>52.98</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>20</v>
       </c>
@@ -11782,7 +12481,7 @@
         <v>53.14</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>5</v>
       </c>
@@ -11799,7 +12498,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>7</v>
       </c>
@@ -11816,7 +12515,7 @@
         <v>53.47</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>9</v>
       </c>
@@ -11833,7 +12532,7 @@
         <v>53.63</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>11</v>
       </c>
@@ -11850,7 +12549,7 @@
         <v>53.79</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>16</v>
       </c>
@@ -11867,7 +12566,7 @@
         <v>53.95</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>18</v>
       </c>
@@ -11884,7 +12583,7 @@
         <v>54.11</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>20</v>
       </c>
@@ -11901,7 +12600,7 @@
         <v>54.27</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>5</v>
       </c>
@@ -11918,7 +12617,7 @@
         <v>54.43</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>7</v>
       </c>
@@ -11935,7 +12634,7 @@
         <v>54.6</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>9</v>
       </c>
@@ -11952,7 +12651,7 @@
         <v>54.76</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>11</v>
       </c>
@@ -11969,7 +12668,7 @@
         <v>54.92</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>16</v>
       </c>
@@ -11986,7 +12685,7 @@
         <v>55.08</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>18</v>
       </c>
@@ -12003,7 +12702,7 @@
         <v>55.24</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>20</v>
       </c>
@@ -12020,7 +12719,7 @@
         <v>55.4</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>5</v>
       </c>
@@ -12037,7 +12736,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>7</v>
       </c>
@@ -12054,7 +12753,7 @@
         <v>55.73</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>9</v>
       </c>
@@ -12071,7 +12770,7 @@
         <v>55.89</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>11</v>
       </c>
@@ -12088,7 +12787,7 @@
         <v>56.05</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>16</v>
       </c>
@@ -12105,7 +12804,7 @@
         <v>56.21</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>18</v>
       </c>
@@ -12122,7 +12821,7 @@
         <v>56.37</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>20</v>
       </c>
@@ -12139,7 +12838,7 @@
         <v>56.53</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>5</v>
       </c>
@@ -12156,7 +12855,7 @@
         <v>56.69</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>7</v>
       </c>
@@ -12167,13 +12866,13 @@
         <v>73</v>
       </c>
       <c r="D219">
-        <v>65.71</v>
+        <v>65.709999999999994</v>
       </c>
       <c r="E219">
         <v>56.86</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>9</v>
       </c>
@@ -12184,13 +12883,13 @@
         <v>114</v>
       </c>
       <c r="D220">
-        <v>70.15</v>
+        <v>70.150000000000006</v>
       </c>
       <c r="E220">
         <v>57.02</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>11</v>
       </c>
@@ -12207,7 +12906,7 @@
         <v>57.18</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>16</v>
       </c>
@@ -12224,7 +12923,7 @@
         <v>57.34</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>18</v>
       </c>
@@ -12241,7 +12940,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>20</v>
       </c>
@@ -12258,7 +12957,7 @@
         <v>57.66</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>5</v>
       </c>
@@ -12275,7 +12974,7 @@
         <v>57.82</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>7</v>
       </c>
@@ -12286,13 +12985,13 @@
         <v>96</v>
       </c>
       <c r="D226">
-        <v>66.57</v>
+        <v>66.569999999999993</v>
       </c>
       <c r="E226">
         <v>57.99</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>9</v>
       </c>
@@ -12303,13 +13002,13 @@
         <v>111</v>
       </c>
       <c r="D227">
-        <v>71.35</v>
+        <v>71.349999999999994</v>
       </c>
       <c r="E227">
         <v>58.15</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>11</v>
       </c>
@@ -12326,7 +13025,7 @@
         <v>58.31</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>16</v>
       </c>
@@ -12343,7 +13042,7 @@
         <v>58.47</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>18</v>
       </c>
@@ -12360,7 +13059,7 @@
         <v>58.63</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>20</v>
       </c>
@@ -12377,7 +13076,7 @@
         <v>58.79</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>5</v>
       </c>
@@ -12394,7 +13093,7 @@
         <v>58.95</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>7</v>
       </c>
@@ -12411,7 +13110,7 @@
         <v>59.12</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>9</v>
       </c>
@@ -12428,7 +13127,7 @@
         <v>59.28</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>11</v>
       </c>
@@ -12445,7 +13144,7 @@
         <v>59.44</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>16</v>
       </c>
@@ -12462,7 +13161,7 @@
         <v>59.6</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>18</v>
       </c>
@@ -12479,7 +13178,7 @@
         <v>59.76</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>20</v>
       </c>
@@ -12496,7 +13195,7 @@
         <v>59.92</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>5</v>
       </c>
@@ -12513,7 +13212,7 @@
         <v>60.08</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>7</v>
       </c>
@@ -12524,13 +13223,13 @@
         <v>95</v>
       </c>
       <c r="D240">
-        <v>68.54</v>
+        <v>68.540000000000006</v>
       </c>
       <c r="E240">
         <v>60.25</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>9</v>
       </c>
@@ -12547,7 +13246,7 @@
         <v>60.41</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>11</v>
       </c>
@@ -12564,7 +13263,7 @@
         <v>60.57</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>16</v>
       </c>
@@ -12575,13 +13274,13 @@
         <v>143</v>
       </c>
       <c r="D243">
-        <v>66.85</v>
+        <v>66.849999999999994</v>
       </c>
       <c r="E243">
         <v>60.73</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>18</v>
       </c>
@@ -12598,7 +13297,7 @@
         <v>60.89</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>20</v>
       </c>
@@ -12615,7 +13314,7 @@
         <v>61.05</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>5</v>
       </c>
@@ -12632,7 +13331,7 @@
         <v>61.21</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>7</v>
       </c>
@@ -12649,7 +13348,7 @@
         <v>61.38</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>9</v>
       </c>
@@ -12660,13 +13359,13 @@
         <v>155</v>
       </c>
       <c r="D248">
-        <v>75.54</v>
+        <v>75.540000000000006</v>
       </c>
       <c r="E248">
         <v>61.54</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>11</v>
       </c>
@@ -12677,13 +13376,13 @@
         <v>108</v>
       </c>
       <c r="D249">
-        <v>71.54</v>
+        <v>71.540000000000006</v>
       </c>
       <c r="E249">
         <v>61.7</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>16</v>
       </c>
@@ -12700,7 +13399,7 @@
         <v>61.86</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>18</v>
       </c>
@@ -12717,7 +13416,7 @@
         <v>62.02</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>20</v>
       </c>
@@ -12734,7 +13433,7 @@
         <v>62.18</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>5</v>
       </c>
@@ -12745,13 +13444,13 @@
         <v>149</v>
       </c>
       <c r="D253">
-        <v>70.26</v>
+        <v>70.260000000000005</v>
       </c>
       <c r="E253">
         <v>62.35</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>7</v>
       </c>
@@ -12762,13 +13461,13 @@
         <v>144</v>
       </c>
       <c r="D254">
-        <v>72.74</v>
+        <v>72.739999999999995</v>
       </c>
       <c r="E254">
         <v>62.51</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>9</v>
       </c>
@@ -12785,7 +13484,7 @@
         <v>62.67</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>11</v>
       </c>
@@ -12796,13 +13495,13 @@
         <v>156</v>
       </c>
       <c r="D256">
-        <v>73.76</v>
+        <v>73.760000000000005</v>
       </c>
       <c r="E256">
         <v>62.83</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>16</v>
       </c>
@@ -12819,7 +13518,7 @@
         <v>62.99</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>18</v>
       </c>
@@ -12836,7 +13535,7 @@
         <v>63.15</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>20</v>
       </c>
@@ -12853,7 +13552,7 @@
         <v>63.31</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>7</v>
       </c>
@@ -12870,7 +13569,7 @@
         <v>63.64</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>9</v>
       </c>
@@ -12887,7 +13586,7 @@
         <v>63.8</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>11</v>
       </c>
@@ -12898,13 +13597,13 @@
         <v>130</v>
       </c>
       <c r="D262">
-        <v>75.21</v>
+        <v>75.209999999999994</v>
       </c>
       <c r="E262">
         <v>63.96</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>16</v>
       </c>
@@ -12921,7 +13620,7 @@
         <v>64.12</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>18</v>
       </c>
@@ -12938,7 +13637,7 @@
         <v>64.28</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>20</v>
       </c>
@@ -12955,7 +13654,7 @@
         <v>64.44</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>5</v>
       </c>
@@ -12972,7 +13671,7 @@
         <v>64.61</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>7</v>
       </c>
@@ -12983,13 +13682,13 @@
         <v>144</v>
       </c>
       <c r="D267">
-        <v>76.32</v>
+        <v>76.319999999999993</v>
       </c>
       <c r="E267">
         <v>64.77</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>9</v>
       </c>
@@ -13003,10 +13702,10 @@
         <v>81.42</v>
       </c>
       <c r="E268">
-        <v>64.93</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
+        <v>64.930000000000007</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>11</v>
       </c>
@@ -13023,7 +13722,7 @@
         <v>65.09</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>16</v>
       </c>
@@ -13040,7 +13739,7 @@
         <v>65.25</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>18</v>
       </c>
@@ -13057,7 +13756,7 @@
         <v>65.41</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>20</v>
       </c>
@@ -13071,10 +13770,10 @@
         <v>26.21</v>
       </c>
       <c r="E272">
-        <v>65.57</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
+        <v>65.569999999999993</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>5</v>
       </c>
@@ -13088,10 +13787,10 @@
         <v>77.05</v>
       </c>
       <c r="E273">
-        <v>65.74</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
+        <v>65.739999999999995</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>7</v>
       </c>
@@ -13105,10 +13804,10 @@
         <v>78.64</v>
       </c>
       <c r="E274">
-        <v>65.9</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>9</v>
       </c>
@@ -13125,7 +13824,7 @@
         <v>66.06</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>11</v>
       </c>
@@ -13142,7 +13841,7 @@
         <v>66.22</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>16</v>
       </c>
@@ -13159,7 +13858,7 @@
         <v>66.38</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>18</v>
       </c>
@@ -13173,10 +13872,10 @@
         <v>32.03</v>
       </c>
       <c r="E278">
-        <v>66.54</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5">
+        <v>66.540000000000006</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>20</v>
       </c>
@@ -13193,7 +13892,7 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>5</v>
       </c>
@@ -13204,13 +13903,13 @@
         <v>216</v>
       </c>
       <c r="D280">
-        <v>80.71</v>
+        <v>80.709999999999994</v>
       </c>
       <c r="E280">
         <v>66.87</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>7</v>
       </c>
@@ -13221,13 +13920,13 @@
         <v>201</v>
       </c>
       <c r="D281">
-        <v>81.49</v>
+        <v>81.489999999999995</v>
       </c>
       <c r="E281">
         <v>67.03</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>9</v>
       </c>
@@ -13244,7 +13943,7 @@
         <v>67.19</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>11</v>
       </c>
@@ -13258,10 +13957,10 @@
         <v>83.4</v>
       </c>
       <c r="E283">
-        <v>67.35</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5">
+        <v>67.349999999999994</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>16</v>
       </c>
@@ -13272,13 +13971,13 @@
         <v>136</v>
       </c>
       <c r="D284">
-        <v>79.49</v>
+        <v>79.489999999999995</v>
       </c>
       <c r="E284">
-        <v>67.51</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5">
+        <v>67.510000000000005</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>18</v>
       </c>
@@ -13295,7 +13994,7 @@
         <v>67.67</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>20</v>
       </c>
@@ -13312,7 +14011,7 @@
         <v>67.83</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>5</v>
       </c>
@@ -13329,7 +14028,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>7</v>
       </c>
@@ -13346,7 +14045,7 @@
         <v>68.16</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>9</v>
       </c>
@@ -13360,10 +14059,10 @@
         <v>89.98</v>
       </c>
       <c r="E289">
-        <v>68.32</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5">
+        <v>68.319999999999993</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>11</v>
       </c>
@@ -13380,7 +14079,7 @@
         <v>68.48</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>16</v>
       </c>
@@ -13397,7 +14096,7 @@
         <v>68.64</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>18</v>
       </c>
@@ -13408,13 +14107,13 @@
         <v>69</v>
       </c>
       <c r="D292">
-        <v>33.95</v>
+        <v>33.950000000000003</v>
       </c>
       <c r="E292">
         <v>68.8</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>20</v>
       </c>
@@ -13428,10 +14127,10 @@
         <v>27.98</v>
       </c>
       <c r="E293">
-        <v>68.96</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5">
+        <v>68.959999999999994</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>7</v>
       </c>
@@ -13445,10 +14144,10 @@
         <v>85.44</v>
       </c>
       <c r="E294">
-        <v>69.29</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5">
+        <v>69.290000000000006</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>9</v>
       </c>
@@ -13465,7 +14164,7 @@
         <v>69.45</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>11</v>
       </c>
@@ -13482,7 +14181,7 @@
         <v>69.61</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>16</v>
       </c>
@@ -13499,7 +14198,7 @@
         <v>69.77</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>18</v>
       </c>
@@ -13513,10 +14212,10 @@
         <v>35.4</v>
       </c>
       <c r="E298">
-        <v>69.93</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5">
+        <v>69.930000000000007</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>20</v>
       </c>
@@ -13533,7 +14232,7 @@
         <v>70.09</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>5</v>
       </c>
@@ -13547,10 +14246,10 @@
         <v>86.53</v>
       </c>
       <c r="E300">
-        <v>70.26</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5">
+        <v>70.260000000000005</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>7</v>
       </c>
@@ -13567,7 +14266,7 @@
         <v>70.42</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>9</v>
       </c>
@@ -13584,7 +14283,7 @@
         <v>70.58</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>11</v>
       </c>
@@ -13598,10 +14297,10 @@
         <v>91.8</v>
       </c>
       <c r="E303">
-        <v>70.74</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5">
+        <v>70.739999999999995</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>16</v>
       </c>
@@ -13615,10 +14314,10 @@
         <v>85.52</v>
       </c>
       <c r="E304">
-        <v>70.9</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5">
+        <v>70.900000000000006</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>18</v>
       </c>
@@ -13635,7 +14334,7 @@
         <v>71.06</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>20</v>
       </c>
@@ -13652,7 +14351,7 @@
         <v>71.22</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>5</v>
       </c>
@@ -13669,7 +14368,7 @@
         <v>71.39</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>7</v>
       </c>
@@ -13686,7 +14385,7 @@
         <v>71.55</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>9</v>
       </c>
@@ -13700,10 +14399,10 @@
         <v>95.63</v>
       </c>
       <c r="E309">
-        <v>71.71</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5">
+        <v>71.709999999999994</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>11</v>
       </c>
@@ -13720,7 +14419,7 @@
         <v>71.87</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>16</v>
       </c>
@@ -13737,7 +14436,7 @@
         <v>72.03</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>18</v>
       </c>
@@ -13754,7 +14453,7 @@
         <v>72.19</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>20</v>
       </c>
@@ -13768,10 +14467,10 @@
         <v>31.49</v>
       </c>
       <c r="E313">
-        <v>72.35</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5">
+        <v>72.349999999999994</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>5</v>
       </c>
@@ -13788,7 +14487,7 @@
         <v>72.52</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>7</v>
       </c>
@@ -13802,10 +14501,10 @@
         <v>91.98</v>
       </c>
       <c r="E315">
-        <v>72.68</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5">
+        <v>72.680000000000007</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>9</v>
       </c>
@@ -13822,7 +14521,7 @@
         <v>72.84</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>11</v>
       </c>
@@ -13839,7 +14538,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>16</v>
       </c>
@@ -13856,7 +14555,7 @@
         <v>73.16</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>18</v>
       </c>
@@ -13867,13 +14566,13 @@
         <v>122</v>
       </c>
       <c r="D319">
-        <v>39.73</v>
+        <v>39.729999999999997</v>
       </c>
       <c r="E319">
-        <v>73.32</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5">
+        <v>73.319999999999993</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>20</v>
       </c>
@@ -13884,13 +14583,13 @@
         <v>100</v>
       </c>
       <c r="D320">
-        <v>32.98</v>
+        <v>32.979999999999997</v>
       </c>
       <c r="E320">
         <v>73.48</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>5</v>
       </c>
@@ -13898,16 +14597,16 @@
         <v>331</v>
       </c>
       <c r="C321">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D321">
-        <v>92.6</v>
+        <v>92.49</v>
       </c>
       <c r="E321">
-        <v>73.65</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5">
+        <v>73.650000000000006</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>7</v>
       </c>
@@ -13915,16 +14614,16 @@
         <v>332</v>
       </c>
       <c r="C322">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D322">
-        <v>93.8</v>
+        <v>93.59</v>
       </c>
       <c r="E322">
         <v>73.81</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>9</v>
       </c>
@@ -13932,16 +14631,16 @@
         <v>333</v>
       </c>
       <c r="C323">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="D323">
-        <v>100.02</v>
+        <v>100.35</v>
       </c>
       <c r="E323">
         <v>73.97</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>11</v>
       </c>
@@ -13949,16 +14648,16 @@
         <v>334</v>
       </c>
       <c r="C324">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D324">
-        <v>97.58</v>
+        <v>97.48</v>
       </c>
       <c r="E324">
         <v>74.13</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>16</v>
       </c>
@@ -13966,16 +14665,16 @@
         <v>335</v>
       </c>
       <c r="C325">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D325">
-        <v>94.27</v>
+        <v>94.38</v>
       </c>
       <c r="E325">
-        <v>74.29</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5">
+        <v>74.290000000000006</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>18</v>
       </c>
@@ -13986,13 +14685,13 @@
         <v>69</v>
       </c>
       <c r="D326">
-        <v>40.37</v>
+        <v>40.369999999999997</v>
       </c>
       <c r="E326">
         <v>74.45</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>20</v>
       </c>
@@ -14009,7 +14708,7 @@
         <v>74.62</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>5</v>
       </c>
@@ -14017,16 +14716,16 @@
         <v>338</v>
       </c>
       <c r="C328">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D328">
-        <v>93.7</v>
+        <v>93.55</v>
       </c>
       <c r="E328">
         <v>74.78</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>7</v>
       </c>
@@ -14034,16 +14733,16 @@
         <v>339</v>
       </c>
       <c r="C329">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D329">
-        <v>96.18</v>
+        <v>96.1</v>
       </c>
       <c r="E329">
         <v>74.94</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>9</v>
       </c>
@@ -14051,16 +14750,16 @@
         <v>340</v>
       </c>
       <c r="C330">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="D330">
-        <v>101.9</v>
+        <v>102.65</v>
       </c>
       <c r="E330">
-        <v>75.1</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5">
+        <v>75.099999999999994</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>11</v>
       </c>
@@ -14068,16 +14767,16 @@
         <v>341</v>
       </c>
       <c r="C331">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="D331">
-        <v>99.9</v>
+        <v>99.47</v>
       </c>
       <c r="E331">
-        <v>75.26</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5">
+        <v>75.260000000000005</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>16</v>
       </c>
@@ -14085,16 +14784,16 @@
         <v>342</v>
       </c>
       <c r="C332">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D332">
-        <v>97.72</v>
+        <v>97.74</v>
       </c>
       <c r="E332">
         <v>75.42</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>18</v>
       </c>
@@ -14102,16 +14801,16 @@
         <v>343</v>
       </c>
       <c r="C333">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D333">
-        <v>41.66</v>
+        <v>41.64</v>
       </c>
       <c r="E333">
         <v>75.58</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>20</v>
       </c>
@@ -14119,16 +14818,16 @@
         <v>344</v>
       </c>
       <c r="C334">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D334">
-        <v>34</v>
+        <v>33.979999999999997</v>
       </c>
       <c r="E334">
         <v>75.75</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>5</v>
       </c>
@@ -14136,16 +14835,16 @@
         <v>345</v>
       </c>
       <c r="C335">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D335">
-        <v>95.58</v>
+        <v>95.51</v>
       </c>
       <c r="E335">
         <v>75.91</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>7</v>
       </c>
@@ -14153,16 +14852,16 @@
         <v>346</v>
       </c>
       <c r="C336">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D336">
         <v>97.82</v>
       </c>
       <c r="E336">
-        <v>76.07</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5">
+        <v>76.069999999999993</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>9</v>
       </c>
@@ -14170,16 +14869,16 @@
         <v>347</v>
       </c>
       <c r="C337">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="D337">
-        <v>103.84</v>
+        <v>104.14</v>
       </c>
       <c r="E337">
         <v>76.23</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>11</v>
       </c>
@@ -14187,16 +14886,16 @@
         <v>348</v>
       </c>
       <c r="C338">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="D338">
-        <v>102.32</v>
+        <v>102.2</v>
       </c>
       <c r="E338">
         <v>76.39</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>16</v>
       </c>
@@ -14204,16 +14903,16 @@
         <v>349</v>
       </c>
       <c r="C339">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D339">
-        <v>99.96</v>
+        <v>99.94</v>
       </c>
       <c r="E339">
         <v>76.55</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>18</v>
       </c>
@@ -14221,16 +14920,16 @@
         <v>350</v>
       </c>
       <c r="C340">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D340">
-        <v>42.54</v>
+        <v>42.58</v>
       </c>
       <c r="E340">
-        <v>76.71</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5">
+        <v>76.709999999999994</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>20</v>
       </c>
@@ -14241,13 +14940,13 @@
         <v>84</v>
       </c>
       <c r="D341">
-        <v>35.02</v>
+        <v>35</v>
       </c>
       <c r="E341">
         <v>76.88</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>5</v>
       </c>
@@ -14255,16 +14954,16 @@
         <v>352</v>
       </c>
       <c r="C342">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="D342">
-        <v>97.26</v>
+        <v>97.46</v>
       </c>
       <c r="E342">
-        <v>77.04</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5">
+        <v>77.040000000000006</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>7</v>
       </c>
@@ -14272,16 +14971,16 @@
         <v>353</v>
       </c>
       <c r="C343">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="D343">
-        <v>99.46</v>
+        <v>99.75</v>
       </c>
       <c r="E343">
         <v>77.2</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>9</v>
       </c>
@@ -14289,16 +14988,16 @@
         <v>354</v>
       </c>
       <c r="C344">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="D344">
-        <v>105.33</v>
+        <v>105.84</v>
       </c>
       <c r="E344">
         <v>77.36</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>11</v>
       </c>
@@ -14306,16 +15005,16 @@
         <v>355</v>
       </c>
       <c r="C345">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D345">
-        <v>104.45</v>
+        <v>104.24</v>
       </c>
       <c r="E345">
         <v>77.52</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>16</v>
       </c>
@@ -14323,16 +15022,16 @@
         <v>356</v>
       </c>
       <c r="C346">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D346">
-        <v>101.83</v>
+        <v>101.79</v>
       </c>
       <c r="E346">
-        <v>77.68</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5">
+        <v>77.680000000000007</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>18</v>
       </c>
@@ -14340,16 +15039,16 @@
         <v>357</v>
       </c>
       <c r="C347">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="D347">
-        <v>47.67</v>
+        <v>47.9</v>
       </c>
       <c r="E347">
         <v>77.84</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>20</v>
       </c>
@@ -14357,16 +15056,16 @@
         <v>358</v>
       </c>
       <c r="C348">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D348">
-        <v>36.64</v>
+        <v>36.659999999999997</v>
       </c>
       <c r="E348">
-        <v>78.01</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5">
+        <v>78.010000000000005</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>5</v>
       </c>
@@ -14374,16 +15073,16 @@
         <v>359</v>
       </c>
       <c r="C349">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D349">
-        <v>100</v>
+        <v>100.26</v>
       </c>
       <c r="E349">
         <v>78.17</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>7</v>
       </c>
@@ -14391,16 +15090,16 @@
         <v>360</v>
       </c>
       <c r="C350">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="D350">
-        <v>101.98</v>
+        <v>102.6</v>
       </c>
       <c r="E350">
         <v>78.33</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>9</v>
       </c>
@@ -14408,16 +15107,16 @@
         <v>361</v>
       </c>
       <c r="C351">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c r="D351">
-        <v>107.6</v>
+        <v>107.13</v>
       </c>
       <c r="E351">
-        <v>78.49</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5">
+        <v>78.489999999999995</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>11</v>
       </c>
@@ -14425,16 +15124,16 @@
         <v>362</v>
       </c>
       <c r="C352">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D352">
-        <v>106.27</v>
+        <v>105.94</v>
       </c>
       <c r="E352">
-        <v>78.65</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5">
+        <v>78.650000000000006</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>16</v>
       </c>
@@ -14442,16 +15141,16 @@
         <v>363</v>
       </c>
       <c r="C353">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D353">
-        <v>102.55</v>
+        <v>102.76</v>
       </c>
       <c r="E353">
         <v>78.81</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>18</v>
       </c>
@@ -14462,13 +15161,13 @@
         <v>97</v>
       </c>
       <c r="D354">
-        <v>48.66</v>
+        <v>48.88</v>
       </c>
       <c r="E354">
         <v>78.97</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>20</v>
       </c>
@@ -14476,16 +15175,16 @@
         <v>365</v>
       </c>
       <c r="C355">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D355">
-        <v>37.49</v>
+        <v>37.450000000000003</v>
       </c>
       <c r="E355">
         <v>79.14</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>7</v>
       </c>
@@ -14493,16 +15192,16 @@
         <v>366</v>
       </c>
       <c r="C356">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="D356">
-        <v>103.98</v>
+        <v>104.09</v>
       </c>
       <c r="E356">
-        <v>79.46</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5">
+        <v>79.459999999999994</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>9</v>
       </c>
@@ -14510,16 +15209,16 @@
         <v>367</v>
       </c>
       <c r="C357">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="D357">
-        <v>109.74</v>
+        <v>109.64</v>
       </c>
       <c r="E357">
         <v>79.62</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>11</v>
       </c>
@@ -14527,16 +15226,16 @@
         <v>368</v>
       </c>
       <c r="C358">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D358">
-        <v>108.45</v>
+        <v>108.23</v>
       </c>
       <c r="E358">
         <v>79.78</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>16</v>
       </c>
@@ -14544,16 +15243,16 @@
         <v>369</v>
       </c>
       <c r="C359">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D359">
-        <v>104.88</v>
+        <v>104.9</v>
       </c>
       <c r="E359">
         <v>79.94</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>18</v>
       </c>
@@ -14564,13 +15263,13 @@
         <v>85</v>
       </c>
       <c r="D360">
-        <v>49.37</v>
+        <v>49.59</v>
       </c>
       <c r="E360">
-        <v>80.1</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5">
+        <v>80.099999999999994</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>20</v>
       </c>
@@ -14578,16 +15277,16 @@
         <v>371</v>
       </c>
       <c r="C361">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D361">
-        <v>38.19</v>
+        <v>38.130000000000003</v>
       </c>
       <c r="E361">
         <v>80.27</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>5</v>
       </c>
@@ -14595,16 +15294,16 @@
         <v>372</v>
       </c>
       <c r="C362">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="D362">
-        <v>102.15</v>
+        <v>101.75</v>
       </c>
       <c r="E362">
-        <v>80.43</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5">
+        <v>80.430000000000007</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>7</v>
       </c>
@@ -14612,16 +15311,16 @@
         <v>373</v>
       </c>
       <c r="C363">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="D363">
-        <v>106.4</v>
+        <v>106.89</v>
       </c>
       <c r="E363">
         <v>80.59</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>9</v>
       </c>
@@ -14629,16 +15328,16 @@
         <v>374</v>
       </c>
       <c r="C364">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="D364">
-        <v>111.57</v>
+        <v>112.06</v>
       </c>
       <c r="E364">
         <v>80.75</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>11</v>
       </c>
@@ -14646,16 +15345,16 @@
         <v>375</v>
       </c>
       <c r="C365">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="D365">
-        <v>111.11</v>
+        <v>110.3</v>
       </c>
       <c r="E365">
         <v>80.91</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>16</v>
       </c>
@@ -14663,16 +15362,16 @@
         <v>376</v>
       </c>
       <c r="C366">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D366">
-        <v>107.14</v>
+        <v>107</v>
       </c>
       <c r="E366">
-        <v>81.07</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5">
+        <v>81.069999999999993</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>18</v>
       </c>
@@ -14683,13 +15382,13 @@
         <v>60</v>
       </c>
       <c r="D367">
-        <v>49.58</v>
+        <v>49.79</v>
       </c>
       <c r="E367">
         <v>81.23</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>20</v>
       </c>
@@ -14697,16 +15396,16 @@
         <v>378</v>
       </c>
       <c r="C368">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D368">
-        <v>38.89</v>
+        <v>38.81</v>
       </c>
       <c r="E368">
-        <v>81.4</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5">
+        <v>81.400000000000006</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>5</v>
       </c>
@@ -14714,16 +15413,16 @@
         <v>379</v>
       </c>
       <c r="C369">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="D369">
-        <v>104.49</v>
+        <v>104.35</v>
       </c>
       <c r="E369">
         <v>81.56</v>
       </c>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>7</v>
       </c>
@@ -14731,16 +15430,16 @@
         <v>380</v>
       </c>
       <c r="C370">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="D370">
-        <v>108.77</v>
+        <v>108.89</v>
       </c>
       <c r="E370">
         <v>81.72</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>9</v>
       </c>
@@ -14748,16 +15447,16 @@
         <v>381</v>
       </c>
       <c r="C371">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D371">
-        <v>113.45</v>
+        <v>114.05</v>
       </c>
       <c r="E371">
         <v>81.88</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>11</v>
       </c>
@@ -14765,16 +15464,16 @@
         <v>382</v>
       </c>
       <c r="C372">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="D372">
-        <v>112.36</v>
+        <v>111.76</v>
       </c>
       <c r="E372">
         <v>82.04</v>
       </c>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>16</v>
       </c>
@@ -14782,13 +15481,540 @@
         <v>383</v>
       </c>
       <c r="C373">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="D373">
-        <v>110.4</v>
+        <v>109.94</v>
       </c>
       <c r="E373">
         <v>82.2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>18</v>
+      </c>
+      <c r="B374" t="s">
+        <v>384</v>
+      </c>
+      <c r="C374">
+        <v>107</v>
+      </c>
+      <c r="D374">
+        <v>50.87</v>
+      </c>
+      <c r="E374">
+        <v>82.36</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>20</v>
+      </c>
+      <c r="B375" t="s">
+        <v>385</v>
+      </c>
+      <c r="C375">
+        <v>67</v>
+      </c>
+      <c r="D375">
+        <v>39.33</v>
+      </c>
+      <c r="E375">
+        <v>82.53</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>5</v>
+      </c>
+      <c r="B376" t="s">
+        <v>386</v>
+      </c>
+      <c r="C376">
+        <v>223</v>
+      </c>
+      <c r="D376">
+        <v>106.72</v>
+      </c>
+      <c r="E376">
+        <v>82.69</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>7</v>
+      </c>
+      <c r="B377" t="s">
+        <v>387</v>
+      </c>
+      <c r="C377">
+        <v>189</v>
+      </c>
+      <c r="D377">
+        <v>110.3</v>
+      </c>
+      <c r="E377">
+        <v>82.85</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>9</v>
+      </c>
+      <c r="B378" t="s">
+        <v>388</v>
+      </c>
+      <c r="C378">
+        <v>178</v>
+      </c>
+      <c r="D378">
+        <v>115.2</v>
+      </c>
+      <c r="E378">
+        <v>83.01</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>11</v>
+      </c>
+      <c r="B379" t="s">
+        <v>389</v>
+      </c>
+      <c r="C379">
+        <v>199</v>
+      </c>
+      <c r="D379">
+        <v>113.32</v>
+      </c>
+      <c r="E379">
+        <v>83.17</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>16</v>
+      </c>
+      <c r="B380" t="s">
+        <v>390</v>
+      </c>
+      <c r="C380">
+        <v>266</v>
+      </c>
+      <c r="D380">
+        <v>112.89</v>
+      </c>
+      <c r="E380">
+        <v>83.33</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>18</v>
+      </c>
+      <c r="B381" t="s">
+        <v>391</v>
+      </c>
+      <c r="C381">
+        <v>75</v>
+      </c>
+      <c r="D381">
+        <v>51.31</v>
+      </c>
+      <c r="E381">
+        <v>83.49</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>20</v>
+      </c>
+      <c r="B382" t="s">
+        <v>392</v>
+      </c>
+      <c r="C382">
+        <v>57</v>
+      </c>
+      <c r="D382">
+        <v>39.65</v>
+      </c>
+      <c r="E382">
+        <v>83.66</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>5</v>
+      </c>
+      <c r="B383" t="s">
+        <v>393</v>
+      </c>
+      <c r="C383">
+        <v>236</v>
+      </c>
+      <c r="D383">
+        <v>109.25</v>
+      </c>
+      <c r="E383">
+        <v>83.82</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>7</v>
+      </c>
+      <c r="B384" t="s">
+        <v>394</v>
+      </c>
+      <c r="C384">
+        <v>284</v>
+      </c>
+      <c r="D384">
+        <v>113.29</v>
+      </c>
+      <c r="E384">
+        <v>83.98</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>9</v>
+      </c>
+      <c r="B385" t="s">
+        <v>395</v>
+      </c>
+      <c r="C385">
+        <v>253</v>
+      </c>
+      <c r="D385">
+        <v>117.61</v>
+      </c>
+      <c r="E385">
+        <v>84.14</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>11</v>
+      </c>
+      <c r="B386" t="s">
+        <v>396</v>
+      </c>
+      <c r="C386">
+        <v>216</v>
+      </c>
+      <c r="D386">
+        <v>115.12</v>
+      </c>
+      <c r="E386">
+        <v>84.3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>16</v>
+      </c>
+      <c r="B387" t="s">
+        <v>397</v>
+      </c>
+      <c r="C387">
+        <v>297</v>
+      </c>
+      <c r="D387">
+        <v>116.3</v>
+      </c>
+      <c r="E387">
+        <v>84.46</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>18</v>
+      </c>
+      <c r="B388" t="s">
+        <v>398</v>
+      </c>
+      <c r="C388">
+        <v>109</v>
+      </c>
+      <c r="D388">
+        <v>52.36</v>
+      </c>
+      <c r="E388">
+        <v>84.62</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>20</v>
+      </c>
+      <c r="B389" t="s">
+        <v>399</v>
+      </c>
+      <c r="C389">
+        <v>66</v>
+      </c>
+      <c r="D389">
+        <v>40.119999999999997</v>
+      </c>
+      <c r="E389">
+        <v>84.79</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>7</v>
+      </c>
+      <c r="B390" t="s">
+        <v>400</v>
+      </c>
+      <c r="C390">
+        <v>238</v>
+      </c>
+      <c r="D390">
+        <v>115.41</v>
+      </c>
+      <c r="E390">
+        <v>85.11</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>9</v>
+      </c>
+      <c r="B391" t="s">
+        <v>401</v>
+      </c>
+      <c r="C391">
+        <v>233</v>
+      </c>
+      <c r="D391">
+        <v>119.6</v>
+      </c>
+      <c r="E391">
+        <v>85.27</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>11</v>
+      </c>
+      <c r="B392" t="s">
+        <v>402</v>
+      </c>
+      <c r="C392">
+        <v>253</v>
+      </c>
+      <c r="D392">
+        <v>117.5</v>
+      </c>
+      <c r="E392">
+        <v>85.43</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>16</v>
+      </c>
+      <c r="B393" t="s">
+        <v>403</v>
+      </c>
+      <c r="C393">
+        <v>236</v>
+      </c>
+      <c r="D393">
+        <v>118.47</v>
+      </c>
+      <c r="E393">
+        <v>85.59</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>18</v>
+      </c>
+      <c r="B394" t="s">
+        <v>404</v>
+      </c>
+      <c r="C394">
+        <v>76</v>
+      </c>
+      <c r="D394">
+        <v>52.79</v>
+      </c>
+      <c r="E394">
+        <v>85.76</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>20</v>
+      </c>
+      <c r="B395" t="s">
+        <v>405</v>
+      </c>
+      <c r="C395">
+        <v>63</v>
+      </c>
+      <c r="D395">
+        <v>40.53</v>
+      </c>
+      <c r="E395">
+        <v>85.92</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>5</v>
+      </c>
+      <c r="B396" t="s">
+        <v>406</v>
+      </c>
+      <c r="C396">
+        <v>208</v>
+      </c>
+      <c r="D396">
+        <v>111.15</v>
+      </c>
+      <c r="E396">
+        <v>86.08</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>7</v>
+      </c>
+      <c r="B397" t="s">
+        <v>407</v>
+      </c>
+      <c r="C397">
+        <v>270</v>
+      </c>
+      <c r="D397">
+        <v>117.98</v>
+      </c>
+      <c r="E397">
+        <v>86.24</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>9</v>
+      </c>
+      <c r="B398" t="s">
+        <v>408</v>
+      </c>
+      <c r="C398">
+        <v>294</v>
+      </c>
+      <c r="D398">
+        <v>122.56</v>
+      </c>
+      <c r="E398">
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>11</v>
+      </c>
+      <c r="B399" t="s">
+        <v>409</v>
+      </c>
+      <c r="C399">
+        <v>253</v>
+      </c>
+      <c r="D399">
+        <v>119.8</v>
+      </c>
+      <c r="E399">
+        <v>86.56</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>16</v>
+      </c>
+      <c r="B400" t="s">
+        <v>410</v>
+      </c>
+      <c r="C400">
+        <v>255</v>
+      </c>
+      <c r="D400">
+        <v>120.91</v>
+      </c>
+      <c r="E400">
+        <v>86.72</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>18</v>
+      </c>
+      <c r="B401" t="s">
+        <v>411</v>
+      </c>
+      <c r="C401">
+        <v>123</v>
+      </c>
+      <c r="D401">
+        <v>54.02</v>
+      </c>
+      <c r="E401">
+        <v>86.89</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>20</v>
+      </c>
+      <c r="B402" t="s">
+        <v>412</v>
+      </c>
+      <c r="C402">
+        <v>103</v>
+      </c>
+      <c r="D402">
+        <v>41.6</v>
+      </c>
+      <c r="E402">
+        <v>87.05</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>5</v>
+      </c>
+      <c r="B403" t="s">
+        <v>413</v>
+      </c>
+      <c r="C403">
+        <v>252</v>
+      </c>
+      <c r="D403">
+        <v>113.81</v>
+      </c>
+      <c r="E403">
+        <v>87.21</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>7</v>
+      </c>
+      <c r="B404" t="s">
+        <v>414</v>
+      </c>
+      <c r="C404">
+        <v>239</v>
+      </c>
+      <c r="D404">
+        <v>119.97</v>
+      </c>
+      <c r="E404">
+        <v>87.37</v>
       </c>
     </row>
   </sheetData>

--- a/rider/total/total.xlsx
+++ b/rider/total/total.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="332">
   <si>
     <t>Weekday</t>
   </si>
@@ -692,6 +692,324 @@
   </si>
   <si>
     <t>05 Jun 2017</t>
+  </si>
+  <si>
+    <t>06 Jun 2017</t>
+  </si>
+  <si>
+    <t>07 Jun 2017</t>
+  </si>
+  <si>
+    <t>08 Jun 2017</t>
+  </si>
+  <si>
+    <t>09 Jun 2017</t>
+  </si>
+  <si>
+    <t>10 Jun 2017</t>
+  </si>
+  <si>
+    <t>11 Jun 2017</t>
+  </si>
+  <si>
+    <t>12 Jun 2017</t>
+  </si>
+  <si>
+    <t>13 Jun 2017</t>
+  </si>
+  <si>
+    <t>14 Jun 2017</t>
+  </si>
+  <si>
+    <t>15 Jun 2017</t>
+  </si>
+  <si>
+    <t>16 Jun 2017</t>
+  </si>
+  <si>
+    <t>17 Jun 2017</t>
+  </si>
+  <si>
+    <t>18 Jun 2017</t>
+  </si>
+  <si>
+    <t>19 Jun 2017</t>
+  </si>
+  <si>
+    <t>20 Jun 2017</t>
+  </si>
+  <si>
+    <t>21 Jun 2017</t>
+  </si>
+  <si>
+    <t>22 Jun 2017</t>
+  </si>
+  <si>
+    <t>23 Jun 2017</t>
+  </si>
+  <si>
+    <t>24 Jun 2017</t>
+  </si>
+  <si>
+    <t>25 Jun 2017</t>
+  </si>
+  <si>
+    <t>26 Jun 2017</t>
+  </si>
+  <si>
+    <t>27 Jun 2017</t>
+  </si>
+  <si>
+    <t>28 Jun 2017</t>
+  </si>
+  <si>
+    <t>29 Jun 2017</t>
+  </si>
+  <si>
+    <t>30 Jun 2017</t>
+  </si>
+  <si>
+    <t>01 Jul 2017</t>
+  </si>
+  <si>
+    <t>02 Jul 2017</t>
+  </si>
+  <si>
+    <t>03 Jul 2017</t>
+  </si>
+  <si>
+    <t>05 Jul 2017</t>
+  </si>
+  <si>
+    <t>06 Jul 2017</t>
+  </si>
+  <si>
+    <t>07 Jul 2017</t>
+  </si>
+  <si>
+    <t>08 Jul 2017</t>
+  </si>
+  <si>
+    <t>09 Jul 2017</t>
+  </si>
+  <si>
+    <t>10 Jul 2017</t>
+  </si>
+  <si>
+    <t>11 Jul 2017</t>
+  </si>
+  <si>
+    <t>12 Jul 2017</t>
+  </si>
+  <si>
+    <t>13 Jul 2017</t>
+  </si>
+  <si>
+    <t>14 Jul 2017</t>
+  </si>
+  <si>
+    <t>15 Jul 2017</t>
+  </si>
+  <si>
+    <t>16 Jul 2017</t>
+  </si>
+  <si>
+    <t>17 Jul 2017</t>
+  </si>
+  <si>
+    <t>18 Jul 2017</t>
+  </si>
+  <si>
+    <t>19 Jul 2017</t>
+  </si>
+  <si>
+    <t>20 Jul 2017</t>
+  </si>
+  <si>
+    <t>21 Jul 2017</t>
+  </si>
+  <si>
+    <t>22 Jul 2017</t>
+  </si>
+  <si>
+    <t>23 Jul 2017</t>
+  </si>
+  <si>
+    <t>24 Jul 2017</t>
+  </si>
+  <si>
+    <t>25 Jul 2017</t>
+  </si>
+  <si>
+    <t>26 Jul 2017</t>
+  </si>
+  <si>
+    <t>27 Jul 2017</t>
+  </si>
+  <si>
+    <t>28 Jul 2017</t>
+  </si>
+  <si>
+    <t>29 Jul 2017</t>
+  </si>
+  <si>
+    <t>30 Jul 2017</t>
+  </si>
+  <si>
+    <t>31 Jul 2017</t>
+  </si>
+  <si>
+    <t>01 Aug 2017</t>
+  </si>
+  <si>
+    <t>02 Aug 2017</t>
+  </si>
+  <si>
+    <t>03 Aug 2017</t>
+  </si>
+  <si>
+    <t>04 Aug 2017</t>
+  </si>
+  <si>
+    <t>05 Aug 2017</t>
+  </si>
+  <si>
+    <t>06 Aug 2017</t>
+  </si>
+  <si>
+    <t>07 Aug 2017</t>
+  </si>
+  <si>
+    <t>08 Aug 2017</t>
+  </si>
+  <si>
+    <t>09 Aug 2017</t>
+  </si>
+  <si>
+    <t>10 Aug 2017</t>
+  </si>
+  <si>
+    <t>11 Aug 2017</t>
+  </si>
+  <si>
+    <t>12 Aug 2017</t>
+  </si>
+  <si>
+    <t>13 Aug 2017</t>
+  </si>
+  <si>
+    <t>14 Aug 2017</t>
+  </si>
+  <si>
+    <t>15 Aug 2017</t>
+  </si>
+  <si>
+    <t>16 Aug 2017</t>
+  </si>
+  <si>
+    <t>17 Aug 2017</t>
+  </si>
+  <si>
+    <t>18 Aug 2017</t>
+  </si>
+  <si>
+    <t>19 Aug 2017</t>
+  </si>
+  <si>
+    <t>20 Aug 2017</t>
+  </si>
+  <si>
+    <t>21 Aug 2017</t>
+  </si>
+  <si>
+    <t>22 Aug 2017</t>
+  </si>
+  <si>
+    <t>23 Aug 2017</t>
+  </si>
+  <si>
+    <t>24 Aug 2017</t>
+  </si>
+  <si>
+    <t>25 Aug 2017</t>
+  </si>
+  <si>
+    <t>26 Aug 2017</t>
+  </si>
+  <si>
+    <t>27 Aug 2017</t>
+  </si>
+  <si>
+    <t>28 Aug 2017</t>
+  </si>
+  <si>
+    <t>29 Aug 2017</t>
+  </si>
+  <si>
+    <t>30 Aug 2017</t>
+  </si>
+  <si>
+    <t>31 Aug 2017</t>
+  </si>
+  <si>
+    <t>01 Sep 2017</t>
+  </si>
+  <si>
+    <t>02 Sep 2017</t>
+  </si>
+  <si>
+    <t>03 Sep 2017</t>
+  </si>
+  <si>
+    <t>05 Sep 2017</t>
+  </si>
+  <si>
+    <t>06 Sep 2017</t>
+  </si>
+  <si>
+    <t>07 Sep 2017</t>
+  </si>
+  <si>
+    <t>08 Sep 2017</t>
+  </si>
+  <si>
+    <t>09 Sep 2017</t>
+  </si>
+  <si>
+    <t>10 Sep 2017</t>
+  </si>
+  <si>
+    <t>11 Sep 2017</t>
+  </si>
+  <si>
+    <t>12 Sep 2017</t>
+  </si>
+  <si>
+    <t>13 Sep 2017</t>
+  </si>
+  <si>
+    <t>14 Sep 2017</t>
+  </si>
+  <si>
+    <t>15 Sep 2017</t>
+  </si>
+  <si>
+    <t>16 Sep 2017</t>
+  </si>
+  <si>
+    <t>17 Sep 2017</t>
+  </si>
+  <si>
+    <t>18 Sep 2017</t>
+  </si>
+  <si>
+    <t>19 Sep 2017</t>
+  </si>
+  <si>
+    <t>20 Sep 2017</t>
+  </si>
+  <si>
+    <t>21 Sep 2017</t>
   </si>
 </sst>
 </file>
@@ -782,9 +1100,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$215</c:f>
+              <c:f>Ridership!$B$2:$B$321</c:f>
               <c:strCache>
-                <c:ptCount val="214"/>
+                <c:ptCount val="320"/>
                 <c:pt idx="0">
                   <c:v>28 Oct 2016</c:v>
                 </c:pt>
@@ -1426,657 +1744,1293 @@
                 </c:pt>
                 <c:pt idx="213">
                   <c:v>05 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>06 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>07 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>08 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>09 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>10 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>11 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>12 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>13 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>14 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>15 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>16 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>17 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>18 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>19 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>20 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>21 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>22 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>23 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>24 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>25 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>26 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>27 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>28 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>29 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>30 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>01 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>02 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>03 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>05 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>06 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>07 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>08 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>09 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>10 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>11 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>12 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>13 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>14 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>15 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>16 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>17 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>18 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>19 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>20 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>21 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>22 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>23 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>24 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>25 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>26 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>27 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>28 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>29 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>30 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>31 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>01 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>02 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>03 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>04 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>05 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>06 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>07 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>08 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>09 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>10 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>11 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>12 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>13 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>14 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>15 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>16 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>17 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>18 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>19 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>20 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>21 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>22 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>23 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>24 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>25 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>26 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>27 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>28 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>29 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>30 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>31 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>01 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>02 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>03 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>05 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>06 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>07 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>08 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>09 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>10 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>11 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>12 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>13 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>14 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>15 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>16 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>17 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>18 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>19 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>20 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>21 Sep 2017</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$C$2:$C$215</c:f>
+              <c:f>Ridership!$C$2:$C$321</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="214"/>
+                <c:ptCount val="320"/>
                 <c:pt idx="0">
-                  <c:v>279</c:v>
+                  <c:v>281</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>129</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>296</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>254</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>240</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>264</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>237</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>290</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>254</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>233</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>241</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>206</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>213</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>171</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>126</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>98</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>261</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>279</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>256</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>263</c:v>
+                  <c:v>253</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>153</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>128</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>224</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>227</c:v>
                 </c:pt>
-                <c:pt idx="38">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>282</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>274</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>299</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>268</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>257</c:v>
-                </c:pt>
                 <c:pt idx="52">
-                  <c:v>204</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>210</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>95</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>44</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>46</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>147</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>148</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>354</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>56</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>100</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>156</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="64">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>266</c:v>
                 </c:pt>
-                <c:pt idx="65">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>304</c:v>
-                </c:pt>
                 <c:pt idx="67">
-                  <c:v>133</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="68">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="76">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>271</c:v>
                 </c:pt>
-                <c:pt idx="70">
-                  <c:v>229</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>243</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>283</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>296</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>253</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>262</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>259</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>238</c:v>
-                </c:pt>
                 <c:pt idx="100">
-                  <c:v>219</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>125</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="103">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="110">
                   <c:v>219</c:v>
                 </c:pt>
-                <c:pt idx="104">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="111">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="113">
                   <c:v>258</c:v>
                 </c:pt>
-                <c:pt idx="106">
-                  <c:v>258</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>253</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>267</c:v>
-                </c:pt>
                 <c:pt idx="114">
-                  <c:v>103</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>92</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>229</c:v>
+                  <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>259</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>218</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>203</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>258</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>97</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>59</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>242</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>181</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>315</c:v>
+                  <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>175</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>260</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="128">
                   <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="129">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="136">
                   <c:v>74</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="137">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="145">
                   <c:v>185</c:v>
                 </c:pt>
-                <c:pt idx="131">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>413</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="146">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="157">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="137">
-                  <c:v>259</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>237</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>229</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>243</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>242</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>70</c:v>
-                </c:pt>
                 <c:pt idx="158">
-                  <c:v>250</c:v>
+                  <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>182</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>175</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>261</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>303</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>140</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>83</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>291</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>270</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>195</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>238</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>300</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>101</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>76</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>256</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="173">
                   <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>264</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>251</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>218</c:v>
+                  <c:v>229</c:v>
                 </c:pt>
                 <c:pt idx="177">
                   <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>91</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="179">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="197">
                   <c:v>221</c:v>
                 </c:pt>
-                <c:pt idx="180">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>247</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>233</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="195">
+                <c:pt idx="198">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="202">
                   <c:v>262</c:v>
                 </c:pt>
-                <c:pt idx="196">
-                  <c:v>263</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>273</c:v>
-                </c:pt>
                 <c:pt idx="203">
-                  <c:v>203</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>237</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>142</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>101</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="207">
                   <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>192</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="209">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="213">
                   <c:v>206</c:v>
                 </c:pt>
-                <c:pt idx="210">
+                <c:pt idx="214">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="312">
                   <c:v>207</c:v>
                 </c:pt>
-                <c:pt idx="211">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>72</c:v>
+                <c:pt idx="313">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2100,9 +3054,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$215</c:f>
+              <c:f>Ridership!$B$2:$B$321</c:f>
               <c:strCache>
-                <c:ptCount val="214"/>
+                <c:ptCount val="320"/>
                 <c:pt idx="0">
                   <c:v>28 Oct 2016</c:v>
                 </c:pt>
@@ -2744,657 +3698,1293 @@
                 </c:pt>
                 <c:pt idx="213">
                   <c:v>05 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>06 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>07 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>08 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>09 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>10 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>11 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>12 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>13 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>14 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>15 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>16 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>17 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>18 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>19 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>20 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>21 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>22 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>23 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>24 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>25 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>26 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>27 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>28 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>29 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>30 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>01 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>02 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>03 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>05 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>06 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>07 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>08 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>09 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>10 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>11 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>12 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>13 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>14 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>15 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>16 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>17 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>18 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>19 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>20 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>21 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>22 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>23 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>24 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>25 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>26 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>27 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>28 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>29 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>30 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>31 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>01 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>02 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>03 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>04 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>05 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>06 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>07 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>08 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>09 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>10 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>11 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>12 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>13 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>14 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>15 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>16 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>17 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>18 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>19 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>20 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>21 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>22 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>23 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>24 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>25 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>26 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>27 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>28 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>29 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>30 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>31 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>01 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>02 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>03 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>05 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>06 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>07 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>08 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>09 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>10 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>11 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>12 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>13 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>14 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>15 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>16 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>17 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>18 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>19 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>20 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>21 Sep 2017</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$D$2:$D$215</c:f>
+              <c:f>Ridership!$D$2:$D$321</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="214"/>
+                <c:ptCount val="320"/>
                 <c:pt idx="0">
-                  <c:v>279</c:v>
+                  <c:v>281</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>129</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>296</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>254</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>240</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>264</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>248.5</c:v>
+                  <c:v>257.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>111.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>234.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>243.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>277.33</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>255.33</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>249.33</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>253.67</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>116.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>268</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>218.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="23">
+                  <c:v>266.25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>222.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>241.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>233.25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>119.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>80.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>262.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>233.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>197.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>248.75</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>237.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>89.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>230.83</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>198.33</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>226.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>125.57</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>99.86</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>267.57</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>228.86</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>197.14</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>228.83</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>228.29</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>132.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>105.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>269.62</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>228.62</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>197.75</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>224.86</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>211.25</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>122.44</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>244.67</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>214.22</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>191.78</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>214.12</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>227.44</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>116.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>229.3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>208.6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>193.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>217.78</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>231.3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>118.27</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>103.33</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>232.55</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>209.82</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>195.73</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>220.1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>236.55</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>117.42</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>101.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>212.17</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>194.17</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>225.09</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>237.33</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>121.92</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>103.64</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>230.75</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>209.38</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>194.92</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>224.67</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>237.23</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>121.14</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>105.92</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>235</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>113.67</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>75.67</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>224.67</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>253.33</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>243.33</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>82.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>266.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>243.25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>225.25</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>85.59999999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>265.4</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>231.8</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>198.6</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>232.8</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>123.83</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>92.67</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>258.5</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>231</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>206.83</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>227.2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>207.5</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>126.57</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>102.14</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>261.86</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>207.57</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>220.57</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>132.38</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>107.75</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>262.62</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>228.12</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>207.12</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>231.43</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>204.88</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>122.56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>238.56</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>213.78</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>200.44</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>221.44</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>115.9</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>224.7</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>229.7</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>117.45</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>105.22</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>228.91</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>209.91</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>210.27</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>222.5</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>234.55</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>115.83</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>213.08</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>209.58</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>229.18</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>234.17</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>120.31</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>105.09</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>227.25</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>212.69</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>210.54</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>228.5</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>235.62</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>119.79</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>107.42</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>229.92</c:v>
-                </c:pt>
                 <c:pt idx="90">
-                  <c:v>212.36</c:v>
+                  <c:v>211.64</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>210.07</c:v>
+                  <c:v>195.29</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>226.31</c:v>
+                  <c:v>222.46</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>237.29</c:v>
+                  <c:v>238.64</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>118.8</c:v>
+                  <c:v>120.2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>102.38</c:v>
+                  <c:v>101.08</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>230.71</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>206.27</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>199.6</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>225.93</c:v>
                 </c:pt>
-                <c:pt idx="97">
-                  <c:v>206.73</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>210.87</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>227.14</c:v>
-                </c:pt>
                 <c:pt idx="100">
-                  <c:v>236.07</c:v>
+                  <c:v>238.2</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>117.31</c:v>
+                  <c:v>118.62</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>104</c:v>
+                  <c:v>102.93</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>225.47</c:v>
+                  <c:v>229.2</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>209.19</c:v>
+                  <c:v>208.5</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>213.81</c:v>
+                  <c:v>203.62</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>229.2</c:v>
+                  <c:v>229.67</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>237.12</c:v>
+                  <c:v>238.69</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>118.88</c:v>
+                  <c:v>120.06</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>103.67</c:v>
+                  <c:v>102.47</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>208.65</c:v>
+                  <c:v>209.12</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>215.65</c:v>
+                  <c:v>208.59</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>230.25</c:v>
+                  <c:v>230.38</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>238.88</c:v>
+                  <c:v>239.82</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>118</c:v>
+                  <c:v>118.83</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>102.94</c:v>
+                  <c:v>101.88</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>225.69</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>211.44</c:v>
+                  <c:v>210.72</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>215.78</c:v>
+                  <c:v>210.56</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>228.65</c:v>
+                  <c:v>229.71</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>239.94</c:v>
+                  <c:v>239.89</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>116.89</c:v>
+                  <c:v>117.84</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>100.35</c:v>
+                  <c:v>99.47</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>226.65</c:v>
+                  <c:v>228.94</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>209.84</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>221</c:v>
+                  <c:v>212.05</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>225.67</c:v>
+                  <c:v>230.17</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>241</c:v>
+                  <c:v>238.79</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>116.15</c:v>
+                  <c:v>117.05</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>98.89</c:v>
+                  <c:v>97.89</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>224.33</c:v>
+                  <c:v>231.06</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>211.05</c:v>
+                  <c:v>212.6</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>220.05</c:v>
+                  <c:v>211.75</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>235.53</c:v>
+                  <c:v>239.89</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>236.95</c:v>
+                  <c:v>237.5</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>116.29</c:v>
+                  <c:v>116.9</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>97.31999999999999</c:v>
+                  <c:v>96.63</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>226.16</c:v>
+                  <c:v>233.47</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>212.29</c:v>
+                  <c:v>212.9</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>219.1</c:v>
+                  <c:v>211.9</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>235.2</c:v>
+                  <c:v>238.1</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>239</c:v>
+                  <c:v>240.71</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>115.05</c:v>
+                  <c:v>115.45</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>95.84999999999999</c:v>
+                  <c:v>95.25</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>220.05</c:v>
+                  <c:v>226.75</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>211.95</c:v>
+                  <c:v>211.64</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>220</c:v>
+                  <c:v>212.32</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>235.57</c:v>
+                  <c:v>239.33</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>238.59</c:v>
+                  <c:v>241.59</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>113.57</c:v>
+                  <c:v>113.83</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>94.67</c:v>
+                  <c:v>94.23999999999999</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>219.67</c:v>
+                  <c:v>225.14</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>212.17</c:v>
+                  <c:v>211.35</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>220.96</c:v>
+                  <c:v>213.22</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>235.32</c:v>
+                  <c:v>239.32</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>236.61</c:v>
+                  <c:v>242.83</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>112.88</c:v>
+                  <c:v>113.04</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>93.55</c:v>
+                  <c:v>93.09</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>221.05</c:v>
+                  <c:v>225.59</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>210.92</c:v>
+                  <c:v>210.29</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>219.04</c:v>
+                  <c:v>212.96</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>236.43</c:v>
+                  <c:v>241.22</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>239.38</c:v>
+                  <c:v>242.92</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>113.96</c:v>
+                  <c:v>114.28</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>93.09</c:v>
+                  <c:v>92.73999999999999</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>224.09</c:v>
+                  <c:v>228.3</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>213.28</c:v>
+                  <c:v>215.96</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>218.08</c:v>
+                  <c:v>212.04</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>236.5</c:v>
+                  <c:v>239.79</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>241.8</c:v>
+                  <c:v>242.28</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>113.46</c:v>
+                  <c:v>114.15</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>92.38</c:v>
+                  <c:v>92.45999999999999</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>225.42</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>215.65</c:v>
+                  <c:v>218.23</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>219.85</c:v>
+                  <c:v>211.81</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>237.08</c:v>
+                  <c:v>236.6</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>240.88</c:v>
+                  <c:v>241.77</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>112.48</c:v>
+                  <c:v>113.15</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>92.31999999999999</c:v>
+                  <c:v>91.95999999999999</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>225.24</c:v>
+                  <c:v>227.68</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>215.19</c:v>
+                  <c:v>220.11</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>222.41</c:v>
+                  <c:v>213.93</c:v>
                 </c:pt>
                 <c:pt idx="182">
                   <c:v>235.19</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>241.11</c:v>
+                  <c:v>241.41</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>111.61</c:v>
+                  <c:v>112.11</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>90.92</c:v>
+                  <c:v>90.65000000000001</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>226.27</c:v>
+                  <c:v>226.12</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>215</c:v>
+                  <c:v>220.96</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>223.57</c:v>
+                  <c:v>213.68</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>235.67</c:v>
+                  <c:v>234.56</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>239.36</c:v>
+                  <c:v>239.61</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>111.24</c:v>
+                  <c:v>111.45</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>91.41</c:v>
+                  <c:v>91.19</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>226.52</c:v>
+                  <c:v>226.96</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>214.76</c:v>
+                  <c:v>219.66</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>224.9</c:v>
+                  <c:v>214.69</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>236.64</c:v>
+                  <c:v>234.89</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>238.28</c:v>
+                  <c:v>238.97</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>112.07</c:v>
+                  <c:v>112.87</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>90.54000000000001</c:v>
+                  <c:v>90.5</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>225.32</c:v>
+                  <c:v>226.04</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>213.77</c:v>
+                  <c:v>218.83</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>226.5</c:v>
+                  <c:v>216.27</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>235.48</c:v>
+                  <c:v>234.86</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>238.23</c:v>
+                  <c:v>238.6</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>113.03</c:v>
+                  <c:v>114.06</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>90.90000000000001</c:v>
+                  <c:v>91.06999999999999</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>213.71</c:v>
+                  <c:v>218.61</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>225.39</c:v>
+                  <c:v>215.03</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>234.5</c:v>
+                  <c:v>234.8</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>237.23</c:v>
+                  <c:v>237.87</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>113.31</c:v>
+                  <c:v>114.25</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>90.09999999999999</c:v>
+                  <c:v>90.3</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>220.03</c:v>
+                  <c:v>225.34</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>219.09</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>215.84</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>234.97</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>238.47</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>114.82</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>90.42</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>228.03</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>220.06</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>217.79</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>235.06</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>114.41</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>89.94</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>227.06</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>218.5</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>219.18</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>234.64</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>238.44</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>116.14</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>90.15000000000001</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>229.34</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>217.83</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>220.8</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>236.5</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>239.4</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>117.56</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>90.56</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>229.67</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>221.28</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>237.37</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>239.94</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>118.24</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>231.21</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>219.03</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>224.97</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>236.56</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>239.35</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>118.26</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>91.25</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>231.74</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>219.38</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>228.05</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>236.57</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>238.21</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>119.95</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>92.22</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>234.47</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>219.63</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>229.33</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>237.66</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>242.03</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>121.53</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>93.45</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>235.86</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>223.92</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>232.62</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>240.1</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>245.6</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>121.83</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>94.59</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>237.63</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>224.5</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>234.66</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>243.53</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>247.83</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>121.12</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>94.59999999999999</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>238.97</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>225.59</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>235.45</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>243.76</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>247.9</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>121.26</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>94.63</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>240.38</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>225.81</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>236.07</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>245.69</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>248.6</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>121.18</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>94.59999999999999</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>241.66</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>225.56</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>235.2</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>245.05</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>248.27</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>120.38</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>93.95</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>226.11</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>234.4</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>244.48</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>248.51</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>119.3</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>240.26</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>225.33</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>234.98</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>243.64</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>248.67</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>93.48999999999999</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>239.02</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>225.35</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>234.17</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>241.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3418,9 +5008,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$215</c:f>
+              <c:f>Ridership!$B$2:$B$321</c:f>
               <c:strCache>
-                <c:ptCount val="214"/>
+                <c:ptCount val="320"/>
                 <c:pt idx="0">
                   <c:v>28 Oct 2016</c:v>
                 </c:pt>
@@ -4062,16 +5652,334 @@
                 </c:pt>
                 <c:pt idx="213">
                   <c:v>05 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>06 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>07 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>08 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>09 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>10 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>11 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>12 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>13 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>14 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>15 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>16 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>17 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>18 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>19 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>20 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>21 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>22 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>23 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>24 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>25 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>26 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>27 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>28 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>29 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>30 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>01 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>02 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>03 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>05 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>06 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>07 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>08 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>09 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>10 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>11 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>12 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>13 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>14 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>15 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>16 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>17 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>18 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>19 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>20 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>21 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>22 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>23 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>24 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>25 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>26 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>27 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>28 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>29 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>30 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>31 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>01 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>02 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>03 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>04 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>05 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>06 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>07 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>08 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>09 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>10 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>11 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>12 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>13 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>14 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>15 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>16 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>17 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>18 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>19 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>20 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>21 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>22 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>23 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>24 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>25 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>26 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>27 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>28 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>29 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>30 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>31 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>01 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>02 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>03 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>05 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>06 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>07 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>08 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>09 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>10 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>11 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>12 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>13 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>14 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>15 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>16 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>17 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>18 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>19 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>20 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>21 Sep 2017</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$E$2:$E$215</c:f>
+              <c:f>Ridership!$E$2:$E$321</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="214"/>
+                <c:ptCount val="320"/>
                 <c:pt idx="0">
                   <c:v>87.84999999999999</c:v>
                 </c:pt>
@@ -4713,6 +6621,324 @@
                 </c:pt>
                 <c:pt idx="213">
                   <c:v>123.37</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>123.53</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>123.7</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>123.86</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>124.02</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>124.18</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>124.34</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>124.5</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>124.66</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>124.83</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>124.99</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>125.15</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>125.31</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>125.47</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>125.63</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>125.79</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>125.96</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>126.12</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>126.28</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>126.44</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>126.6</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>126.76</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>126.92</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>127.09</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>127.25</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>127.41</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>127.57</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>127.73</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>127.89</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>128.22</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>128.38</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>128.54</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>128.7</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>128.86</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>129.02</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>129.18</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>129.35</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>129.51</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>129.67</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>129.83</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>129.99</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>130.15</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>130.31</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>130.48</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>130.64</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>130.8</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>130.96</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>131.12</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>131.28</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>131.44</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>131.61</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>131.77</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>131.93</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>132.09</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>132.25</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>132.41</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>132.57</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>132.74</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>132.9</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>133.06</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>133.22</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>133.38</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>133.54</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>133.7</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>133.87</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>134.03</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>134.19</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>134.35</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>134.51</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>134.67</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>134.84</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>135.16</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>135.32</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>135.48</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>135.64</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>135.8</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>135.97</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>136.13</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>136.29</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>136.45</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>136.61</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>136.77</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>136.93</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>137.1</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>137.26</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>137.42</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>137.58</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>137.74</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>137.9</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>138.23</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>138.39</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>138.55</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>138.71</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>138.87</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>139.03</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>139.19</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>139.36</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>139.52</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>139.68</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>139.84</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>140.16</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>140.32</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>140.49</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>140.65</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>140.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4805,13 +7031,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:row>323</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:row>337</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5119,7 +7345,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E215"/>
+  <dimension ref="A1:E321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5157,10 +7383,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E2">
         <v>87.84999999999999</v>
@@ -5174,10 +7400,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D3">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E3">
         <v>88.02</v>
@@ -5208,10 +7434,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="D5">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="E5">
         <v>88.34</v>
@@ -5225,10 +7451,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D6">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E6">
         <v>88.5</v>
@@ -5242,10 +7468,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D7">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="E7">
         <v>88.66</v>
@@ -5259,10 +7485,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E8">
         <v>88.81999999999999</v>
@@ -5276,10 +7502,10 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="D9">
-        <v>248.5</v>
+        <v>257.5</v>
       </c>
       <c r="E9">
         <v>88.98</v>
@@ -5293,7 +7519,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D10">
         <v>111.5</v>
@@ -5310,10 +7536,10 @@
         <v>21</v>
       </c>
       <c r="C11">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E11">
         <v>89.31</v>
@@ -5327,10 +7553,10 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="D12">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E12">
         <v>89.47</v>
@@ -5344,10 +7570,10 @@
         <v>23</v>
       </c>
       <c r="C13">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="D13">
-        <v>218.5</v>
+        <v>234.5</v>
       </c>
       <c r="E13">
         <v>89.63</v>
@@ -5361,10 +7587,10 @@
         <v>24</v>
       </c>
       <c r="C14">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D14">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="E14">
         <v>89.79000000000001</v>
@@ -5378,10 +7604,10 @@
         <v>25</v>
       </c>
       <c r="C15">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D15">
-        <v>245</v>
+        <v>243.5</v>
       </c>
       <c r="E15">
         <v>89.95</v>
@@ -5395,10 +7621,10 @@
         <v>26</v>
       </c>
       <c r="C16">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D16">
-        <v>113.67</v>
+        <v>113</v>
       </c>
       <c r="E16">
         <v>90.28</v>
@@ -5412,10 +7638,10 @@
         <v>27</v>
       </c>
       <c r="C17">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D17">
-        <v>75.67</v>
+        <v>74</v>
       </c>
       <c r="E17">
         <v>90.44</v>
@@ -5429,10 +7655,10 @@
         <v>28</v>
       </c>
       <c r="C18">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="D18">
-        <v>275</v>
+        <v>277.33</v>
       </c>
       <c r="E18">
         <v>90.59999999999999</v>
@@ -5446,10 +7672,10 @@
         <v>29</v>
       </c>
       <c r="C19">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="D19">
-        <v>224.67</v>
+        <v>227</v>
       </c>
       <c r="E19">
         <v>90.76000000000001</v>
@@ -5463,10 +7689,10 @@
         <v>30</v>
       </c>
       <c r="C20">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="D20">
-        <v>253.33</v>
+        <v>255.33</v>
       </c>
       <c r="E20">
         <v>90.92</v>
@@ -5480,10 +7706,10 @@
         <v>31</v>
       </c>
       <c r="C21">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="D21">
-        <v>248</v>
+        <v>249.33</v>
       </c>
       <c r="E21">
         <v>91.08</v>
@@ -5497,10 +7723,10 @@
         <v>32</v>
       </c>
       <c r="C22">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="D22">
-        <v>243.33</v>
+        <v>253.67</v>
       </c>
       <c r="E22">
         <v>91.23999999999999</v>
@@ -5514,10 +7740,10 @@
         <v>33</v>
       </c>
       <c r="C23">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D23">
-        <v>116</v>
+        <v>116.5</v>
       </c>
       <c r="E23">
         <v>91.41</v>
@@ -5531,10 +7757,10 @@
         <v>34</v>
       </c>
       <c r="C24">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D24">
-        <v>82.5</v>
+        <v>77</v>
       </c>
       <c r="E24">
         <v>91.56999999999999</v>
@@ -5548,10 +7774,10 @@
         <v>35</v>
       </c>
       <c r="C25">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D25">
-        <v>266.5</v>
+        <v>266.25</v>
       </c>
       <c r="E25">
         <v>91.73</v>
@@ -5565,10 +7791,10 @@
         <v>36</v>
       </c>
       <c r="C26">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D26">
-        <v>220</v>
+        <v>222.5</v>
       </c>
       <c r="E26">
         <v>91.89</v>
@@ -5582,10 +7808,10 @@
         <v>37</v>
       </c>
       <c r="C27">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="D27">
-        <v>243.25</v>
+        <v>241.5</v>
       </c>
       <c r="E27">
         <v>92.05</v>
@@ -5599,10 +7825,10 @@
         <v>38</v>
       </c>
       <c r="C28">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D28">
-        <v>225.25</v>
+        <v>233.25</v>
       </c>
       <c r="E28">
         <v>92.37</v>
@@ -5616,10 +7842,10 @@
         <v>39</v>
       </c>
       <c r="C29">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D29">
-        <v>118</v>
+        <v>119.4</v>
       </c>
       <c r="E29">
         <v>92.54000000000001</v>
@@ -5633,10 +7859,10 @@
         <v>40</v>
       </c>
       <c r="C30">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D30">
-        <v>85.59999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="E30">
         <v>92.7</v>
@@ -5650,10 +7876,10 @@
         <v>41</v>
       </c>
       <c r="C31">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D31">
-        <v>265.4</v>
+        <v>262.2</v>
       </c>
       <c r="E31">
         <v>92.86</v>
@@ -5667,10 +7893,10 @@
         <v>42</v>
       </c>
       <c r="C32">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D32">
-        <v>231.8</v>
+        <v>233.4</v>
       </c>
       <c r="E32">
         <v>93.02</v>
@@ -5687,7 +7913,7 @@
         <v>20</v>
       </c>
       <c r="D33">
-        <v>198.6</v>
+        <v>197.2</v>
       </c>
       <c r="E33">
         <v>93.18000000000001</v>
@@ -5701,10 +7927,10 @@
         <v>44</v>
       </c>
       <c r="C34">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D34">
-        <v>250</v>
+        <v>248.75</v>
       </c>
       <c r="E34">
         <v>93.34</v>
@@ -5718,10 +7944,10 @@
         <v>45</v>
       </c>
       <c r="C35">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D35">
-        <v>232.8</v>
+        <v>237.2</v>
       </c>
       <c r="E35">
         <v>93.5</v>
@@ -5735,10 +7961,10 @@
         <v>46</v>
       </c>
       <c r="C36">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D36">
-        <v>123.83</v>
+        <v>123</v>
       </c>
       <c r="E36">
         <v>93.67</v>
@@ -5752,10 +7978,10 @@
         <v>47</v>
       </c>
       <c r="C37">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D37">
-        <v>92.67</v>
+        <v>89.5</v>
       </c>
       <c r="E37">
         <v>93.83</v>
@@ -5769,10 +7995,10 @@
         <v>48</v>
       </c>
       <c r="C38">
-        <v>224</v>
+        <v>273</v>
       </c>
       <c r="D38">
-        <v>258.5</v>
+        <v>264</v>
       </c>
       <c r="E38">
         <v>93.98999999999999</v>
@@ -5786,10 +8012,10 @@
         <v>49</v>
       </c>
       <c r="C39">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D39">
-        <v>231</v>
+        <v>230.83</v>
       </c>
       <c r="E39">
         <v>94.15000000000001</v>
@@ -5803,10 +8029,10 @@
         <v>50</v>
       </c>
       <c r="C40">
-        <v>248</v>
+        <v>204</v>
       </c>
       <c r="D40">
-        <v>206.83</v>
+        <v>198.33</v>
       </c>
       <c r="E40">
         <v>94.31</v>
@@ -5820,10 +8046,10 @@
         <v>51</v>
       </c>
       <c r="C41">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D41">
-        <v>227.2</v>
+        <v>226.4</v>
       </c>
       <c r="E41">
         <v>94.47</v>
@@ -5837,10 +8063,10 @@
         <v>52</v>
       </c>
       <c r="C42">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D42">
-        <v>207.5</v>
+        <v>211</v>
       </c>
       <c r="E42">
         <v>94.63</v>
@@ -5854,10 +8080,10 @@
         <v>53</v>
       </c>
       <c r="C43">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D43">
-        <v>126.57</v>
+        <v>125.57</v>
       </c>
       <c r="E43">
         <v>94.8</v>
@@ -5871,10 +8097,10 @@
         <v>54</v>
       </c>
       <c r="C44">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D44">
-        <v>102.14</v>
+        <v>99.86</v>
       </c>
       <c r="E44">
         <v>94.95999999999999</v>
@@ -5888,10 +8114,10 @@
         <v>55</v>
       </c>
       <c r="C45">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="D45">
-        <v>261.86</v>
+        <v>267.57</v>
       </c>
       <c r="E45">
         <v>95.12</v>
@@ -5905,10 +8131,10 @@
         <v>56</v>
       </c>
       <c r="C46">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="D46">
-        <v>224</v>
+        <v>228.86</v>
       </c>
       <c r="E46">
         <v>95.28</v>
@@ -5922,10 +8148,10 @@
         <v>57</v>
       </c>
       <c r="C47">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="D47">
-        <v>207.57</v>
+        <v>197.14</v>
       </c>
       <c r="E47">
         <v>95.44</v>
@@ -5939,10 +8165,10 @@
         <v>58</v>
       </c>
       <c r="C48">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="D48">
-        <v>235</v>
+        <v>228.83</v>
       </c>
       <c r="E48">
         <v>95.59999999999999</v>
@@ -5956,10 +8182,10 @@
         <v>59</v>
       </c>
       <c r="C49">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="D49">
-        <v>220.57</v>
+        <v>228.29</v>
       </c>
       <c r="E49">
         <v>95.76000000000001</v>
@@ -5973,10 +8199,10 @@
         <v>60</v>
       </c>
       <c r="C50">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="D50">
-        <v>132.38</v>
+        <v>132.5</v>
       </c>
       <c r="E50">
         <v>95.93000000000001</v>
@@ -5990,10 +8216,10 @@
         <v>61</v>
       </c>
       <c r="C51">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D51">
-        <v>107.75</v>
+        <v>105.5</v>
       </c>
       <c r="E51">
         <v>96.09</v>
@@ -6007,10 +8233,10 @@
         <v>62</v>
       </c>
       <c r="C52">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="D52">
-        <v>262.62</v>
+        <v>269.62</v>
       </c>
       <c r="E52">
         <v>96.25</v>
@@ -6024,10 +8250,10 @@
         <v>63</v>
       </c>
       <c r="C53">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="D53">
-        <v>228.12</v>
+        <v>228.62</v>
       </c>
       <c r="E53">
         <v>96.41</v>
@@ -6041,10 +8267,10 @@
         <v>64</v>
       </c>
       <c r="C54">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D54">
-        <v>207.12</v>
+        <v>197.75</v>
       </c>
       <c r="E54">
         <v>96.56999999999999</v>
@@ -6058,10 +8284,10 @@
         <v>65</v>
       </c>
       <c r="C55">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D55">
-        <v>231.43</v>
+        <v>224.86</v>
       </c>
       <c r="E55">
         <v>96.73</v>
@@ -6075,10 +8301,10 @@
         <v>66</v>
       </c>
       <c r="C56">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D56">
-        <v>204.88</v>
+        <v>211.25</v>
       </c>
       <c r="E56">
         <v>96.89</v>
@@ -6092,10 +8318,10 @@
         <v>67</v>
       </c>
       <c r="C57">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D57">
-        <v>122.56</v>
+        <v>122.44</v>
       </c>
       <c r="E57">
         <v>97.06</v>
@@ -6109,10 +8335,10 @@
         <v>68</v>
       </c>
       <c r="C58">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D58">
-        <v>238.56</v>
+        <v>244.67</v>
       </c>
       <c r="E58">
         <v>97.38</v>
@@ -6129,7 +8355,7 @@
         <v>99</v>
       </c>
       <c r="D59">
-        <v>213.78</v>
+        <v>214.22</v>
       </c>
       <c r="E59">
         <v>97.54000000000001</v>
@@ -6143,10 +8369,10 @@
         <v>70</v>
       </c>
       <c r="C60">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D60">
-        <v>200.44</v>
+        <v>191.78</v>
       </c>
       <c r="E60">
         <v>97.7</v>
@@ -6160,10 +8386,10 @@
         <v>71</v>
       </c>
       <c r="C61">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D61">
-        <v>221</v>
+        <v>214.12</v>
       </c>
       <c r="E61">
         <v>97.86</v>
@@ -6177,10 +8403,10 @@
         <v>72</v>
       </c>
       <c r="C62">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D62">
-        <v>221.44</v>
+        <v>227.44</v>
       </c>
       <c r="E62">
         <v>98.03</v>
@@ -6194,10 +8420,10 @@
         <v>73</v>
       </c>
       <c r="C63">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D63">
-        <v>115.9</v>
+        <v>116.5</v>
       </c>
       <c r="E63">
         <v>98.19</v>
@@ -6211,10 +8437,10 @@
         <v>74</v>
       </c>
       <c r="C64">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D64">
-        <v>224.7</v>
+        <v>229.3</v>
       </c>
       <c r="E64">
         <v>98.51000000000001</v>
@@ -6228,10 +8454,10 @@
         <v>75</v>
       </c>
       <c r="C65">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D65">
-        <v>208</v>
+        <v>208.6</v>
       </c>
       <c r="E65">
         <v>98.67</v>
@@ -6245,10 +8471,10 @@
         <v>76</v>
       </c>
       <c r="C66">
-        <v>266</v>
+        <v>209</v>
       </c>
       <c r="D66">
-        <v>207</v>
+        <v>193.5</v>
       </c>
       <c r="E66">
         <v>98.83</v>
@@ -6262,10 +8488,10 @@
         <v>77</v>
       </c>
       <c r="C67">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D67">
-        <v>224</v>
+        <v>217.78</v>
       </c>
       <c r="E67">
         <v>98.98999999999999</v>
@@ -6279,10 +8505,10 @@
         <v>78</v>
       </c>
       <c r="C68">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="D68">
-        <v>229.7</v>
+        <v>231.3</v>
       </c>
       <c r="E68">
         <v>99.16</v>
@@ -6296,10 +8522,10 @@
         <v>79</v>
       </c>
       <c r="C69">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D69">
-        <v>117.45</v>
+        <v>118.27</v>
       </c>
       <c r="E69">
         <v>99.31999999999999</v>
@@ -6313,10 +8539,10 @@
         <v>80</v>
       </c>
       <c r="C70">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D70">
-        <v>105.22</v>
+        <v>103.33</v>
       </c>
       <c r="E70">
         <v>99.48</v>
@@ -6330,10 +8556,10 @@
         <v>81</v>
       </c>
       <c r="C71">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D71">
-        <v>228.91</v>
+        <v>232.55</v>
       </c>
       <c r="E71">
         <v>99.64</v>
@@ -6347,10 +8573,10 @@
         <v>82</v>
       </c>
       <c r="C72">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D72">
-        <v>209.91</v>
+        <v>209.82</v>
       </c>
       <c r="E72">
         <v>99.8</v>
@@ -6364,10 +8590,10 @@
         <v>83</v>
       </c>
       <c r="C73">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="D73">
-        <v>210.27</v>
+        <v>195.73</v>
       </c>
       <c r="E73">
         <v>99.95999999999999</v>
@@ -6381,10 +8607,10 @@
         <v>84</v>
       </c>
       <c r="C74">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="D74">
-        <v>222.5</v>
+        <v>220.1</v>
       </c>
       <c r="E74">
         <v>100.12</v>
@@ -6398,10 +8624,10 @@
         <v>85</v>
       </c>
       <c r="C75">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D75">
-        <v>234.55</v>
+        <v>236.55</v>
       </c>
       <c r="E75">
         <v>100.29</v>
@@ -6415,10 +8641,10 @@
         <v>86</v>
       </c>
       <c r="C76">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D76">
-        <v>115.83</v>
+        <v>117.42</v>
       </c>
       <c r="E76">
         <v>100.45</v>
@@ -6432,10 +8658,10 @@
         <v>87</v>
       </c>
       <c r="C77">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D77">
-        <v>103</v>
+        <v>101.5</v>
       </c>
       <c r="E77">
         <v>100.61</v>
@@ -6449,10 +8675,10 @@
         <v>88</v>
       </c>
       <c r="C78">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D78">
-        <v>213.08</v>
+        <v>212.17</v>
       </c>
       <c r="E78">
         <v>100.93</v>
@@ -6466,10 +8692,10 @@
         <v>89</v>
       </c>
       <c r="C79">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D79">
-        <v>209.58</v>
+        <v>194.17</v>
       </c>
       <c r="E79">
         <v>101.09</v>
@@ -6483,10 +8709,10 @@
         <v>90</v>
       </c>
       <c r="C80">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="D80">
-        <v>229.18</v>
+        <v>225.09</v>
       </c>
       <c r="E80">
         <v>101.25</v>
@@ -6500,10 +8726,10 @@
         <v>91</v>
       </c>
       <c r="C81">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="D81">
-        <v>234.17</v>
+        <v>237.33</v>
       </c>
       <c r="E81">
         <v>101.42</v>
@@ -6517,10 +8743,10 @@
         <v>92</v>
       </c>
       <c r="C82">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D82">
-        <v>120.31</v>
+        <v>121.92</v>
       </c>
       <c r="E82">
         <v>101.58</v>
@@ -6534,10 +8760,10 @@
         <v>93</v>
       </c>
       <c r="C83">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D83">
-        <v>105.09</v>
+        <v>103.64</v>
       </c>
       <c r="E83">
         <v>101.74</v>
@@ -6551,10 +8777,10 @@
         <v>94</v>
       </c>
       <c r="C84">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D84">
-        <v>227.25</v>
+        <v>230.75</v>
       </c>
       <c r="E84">
         <v>101.9</v>
@@ -6568,10 +8794,10 @@
         <v>95</v>
       </c>
       <c r="C85">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="D85">
-        <v>212.69</v>
+        <v>209.38</v>
       </c>
       <c r="E85">
         <v>102.06</v>
@@ -6585,10 +8811,10 @@
         <v>96</v>
       </c>
       <c r="C86">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="D86">
-        <v>210.54</v>
+        <v>194.92</v>
       </c>
       <c r="E86">
         <v>102.22</v>
@@ -6602,10 +8828,10 @@
         <v>97</v>
       </c>
       <c r="C87">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D87">
-        <v>228.5</v>
+        <v>224.67</v>
       </c>
       <c r="E87">
         <v>102.38</v>
@@ -6619,10 +8845,10 @@
         <v>98</v>
       </c>
       <c r="C88">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="D88">
-        <v>235.62</v>
+        <v>237.23</v>
       </c>
       <c r="E88">
         <v>102.55</v>
@@ -6636,10 +8862,10 @@
         <v>99</v>
       </c>
       <c r="C89">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D89">
-        <v>119.79</v>
+        <v>121.14</v>
       </c>
       <c r="E89">
         <v>102.71</v>
@@ -6653,10 +8879,10 @@
         <v>100</v>
       </c>
       <c r="C90">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D90">
-        <v>107.42</v>
+        <v>105.92</v>
       </c>
       <c r="E90">
         <v>102.87</v>
@@ -6670,10 +8896,10 @@
         <v>101</v>
       </c>
       <c r="C91">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="D91">
-        <v>229.92</v>
+        <v>235</v>
       </c>
       <c r="E91">
         <v>103.03</v>
@@ -6687,10 +8913,10 @@
         <v>102</v>
       </c>
       <c r="C92">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="D92">
-        <v>212.36</v>
+        <v>211.64</v>
       </c>
       <c r="E92">
         <v>103.19</v>
@@ -6704,10 +8930,10 @@
         <v>103</v>
       </c>
       <c r="C93">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D93">
-        <v>210.07</v>
+        <v>195.29</v>
       </c>
       <c r="E93">
         <v>103.35</v>
@@ -6721,10 +8947,10 @@
         <v>104</v>
       </c>
       <c r="C94">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D94">
-        <v>226.31</v>
+        <v>222.46</v>
       </c>
       <c r="E94">
         <v>103.51</v>
@@ -6738,10 +8964,10 @@
         <v>105</v>
       </c>
       <c r="C95">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D95">
-        <v>237.29</v>
+        <v>238.64</v>
       </c>
       <c r="E95">
         <v>103.68</v>
@@ -6755,10 +8981,10 @@
         <v>106</v>
       </c>
       <c r="C96">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D96">
-        <v>118.8</v>
+        <v>120.2</v>
       </c>
       <c r="E96">
         <v>103.84</v>
@@ -6772,10 +8998,10 @@
         <v>107</v>
       </c>
       <c r="C97">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D97">
-        <v>102.38</v>
+        <v>101.08</v>
       </c>
       <c r="E97">
         <v>104</v>
@@ -6789,10 +9015,10 @@
         <v>108</v>
       </c>
       <c r="C98">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D98">
-        <v>225.93</v>
+        <v>230.71</v>
       </c>
       <c r="E98">
         <v>104.16</v>
@@ -6806,10 +9032,10 @@
         <v>109</v>
       </c>
       <c r="C99">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D99">
-        <v>206.73</v>
+        <v>206.27</v>
       </c>
       <c r="E99">
         <v>104.32</v>
@@ -6823,10 +9049,10 @@
         <v>110</v>
       </c>
       <c r="C100">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="D100">
-        <v>210.87</v>
+        <v>199.6</v>
       </c>
       <c r="E100">
         <v>104.48</v>
@@ -6840,10 +9066,10 @@
         <v>111</v>
       </c>
       <c r="C101">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="D101">
-        <v>227.14</v>
+        <v>225.93</v>
       </c>
       <c r="E101">
         <v>104.64</v>
@@ -6857,10 +9083,10 @@
         <v>112</v>
       </c>
       <c r="C102">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="D102">
-        <v>236.07</v>
+        <v>238.2</v>
       </c>
       <c r="E102">
         <v>104.81</v>
@@ -6877,7 +9103,7 @@
         <v>95</v>
       </c>
       <c r="D103">
-        <v>117.31</v>
+        <v>118.62</v>
       </c>
       <c r="E103">
         <v>104.97</v>
@@ -6891,10 +9117,10 @@
         <v>114</v>
       </c>
       <c r="C104">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D104">
-        <v>104</v>
+        <v>102.93</v>
       </c>
       <c r="E104">
         <v>105.13</v>
@@ -6908,10 +9134,10 @@
         <v>115</v>
       </c>
       <c r="C105">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D105">
-        <v>225.47</v>
+        <v>229.2</v>
       </c>
       <c r="E105">
         <v>105.29</v>
@@ -6925,10 +9151,10 @@
         <v>116</v>
       </c>
       <c r="C106">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D106">
-        <v>209.19</v>
+        <v>208.5</v>
       </c>
       <c r="E106">
         <v>105.45</v>
@@ -6942,10 +9168,10 @@
         <v>117</v>
       </c>
       <c r="C107">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D107">
-        <v>213.81</v>
+        <v>203.62</v>
       </c>
       <c r="E107">
         <v>105.61</v>
@@ -6959,10 +9185,10 @@
         <v>118</v>
       </c>
       <c r="C108">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="D108">
-        <v>229.2</v>
+        <v>229.67</v>
       </c>
       <c r="E108">
         <v>105.77</v>
@@ -6976,10 +9202,10 @@
         <v>119</v>
       </c>
       <c r="C109">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D109">
-        <v>237.12</v>
+        <v>238.69</v>
       </c>
       <c r="E109">
         <v>105.94</v>
@@ -6993,10 +9219,10 @@
         <v>120</v>
       </c>
       <c r="C110">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D110">
-        <v>118.88</v>
+        <v>120.06</v>
       </c>
       <c r="E110">
         <v>106.1</v>
@@ -7010,10 +9236,10 @@
         <v>121</v>
       </c>
       <c r="C111">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D111">
-        <v>103.67</v>
+        <v>102.47</v>
       </c>
       <c r="E111">
         <v>106.26</v>
@@ -7027,10 +9253,10 @@
         <v>122</v>
       </c>
       <c r="C112">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="D112">
-        <v>208.65</v>
+        <v>209.12</v>
       </c>
       <c r="E112">
         <v>106.58</v>
@@ -7044,10 +9270,10 @@
         <v>123</v>
       </c>
       <c r="C113">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="D113">
-        <v>215.65</v>
+        <v>208.59</v>
       </c>
       <c r="E113">
         <v>106.74</v>
@@ -7061,10 +9287,10 @@
         <v>124</v>
       </c>
       <c r="C114">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D114">
-        <v>230.25</v>
+        <v>230.38</v>
       </c>
       <c r="E114">
         <v>106.9</v>
@@ -7078,10 +9304,10 @@
         <v>125</v>
       </c>
       <c r="C115">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D115">
-        <v>238.88</v>
+        <v>239.82</v>
       </c>
       <c r="E115">
         <v>107.07</v>
@@ -7095,10 +9321,10 @@
         <v>126</v>
       </c>
       <c r="C116">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D116">
-        <v>118</v>
+        <v>118.83</v>
       </c>
       <c r="E116">
         <v>107.23</v>
@@ -7112,10 +9338,10 @@
         <v>127</v>
       </c>
       <c r="C117">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D117">
-        <v>102.94</v>
+        <v>101.88</v>
       </c>
       <c r="E117">
         <v>107.39</v>
@@ -7129,10 +9355,10 @@
         <v>128</v>
       </c>
       <c r="C118">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="D118">
-        <v>225.69</v>
+        <v>230</v>
       </c>
       <c r="E118">
         <v>107.55</v>
@@ -7146,10 +9372,10 @@
         <v>129</v>
       </c>
       <c r="C119">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D119">
-        <v>211.44</v>
+        <v>210.72</v>
       </c>
       <c r="E119">
         <v>107.71</v>
@@ -7163,10 +9389,10 @@
         <v>130</v>
       </c>
       <c r="C120">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="D120">
-        <v>215.78</v>
+        <v>210.56</v>
       </c>
       <c r="E120">
         <v>107.87</v>
@@ -7180,10 +9406,10 @@
         <v>131</v>
       </c>
       <c r="C121">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="D121">
-        <v>228.65</v>
+        <v>229.71</v>
       </c>
       <c r="E121">
         <v>108.03</v>
@@ -7197,10 +9423,10 @@
         <v>132</v>
       </c>
       <c r="C122">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="D122">
-        <v>239.94</v>
+        <v>239.89</v>
       </c>
       <c r="E122">
         <v>108.2</v>
@@ -7214,10 +9440,10 @@
         <v>133</v>
       </c>
       <c r="C123">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D123">
-        <v>116.89</v>
+        <v>117.84</v>
       </c>
       <c r="E123">
         <v>108.36</v>
@@ -7231,10 +9457,10 @@
         <v>134</v>
       </c>
       <c r="C124">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D124">
-        <v>100.35</v>
+        <v>99.47</v>
       </c>
       <c r="E124">
         <v>108.52</v>
@@ -7248,10 +9474,10 @@
         <v>135</v>
       </c>
       <c r="C125">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="D125">
-        <v>226.65</v>
+        <v>228.94</v>
       </c>
       <c r="E125">
         <v>108.68</v>
@@ -7265,10 +9491,10 @@
         <v>136</v>
       </c>
       <c r="C126">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="D126">
-        <v>209.84</v>
+        <v>211</v>
       </c>
       <c r="E126">
         <v>108.84</v>
@@ -7282,10 +9508,10 @@
         <v>137</v>
       </c>
       <c r="C127">
-        <v>315</v>
+        <v>239</v>
       </c>
       <c r="D127">
-        <v>221</v>
+        <v>212.05</v>
       </c>
       <c r="E127">
         <v>109</v>
@@ -7299,10 +9525,10 @@
         <v>138</v>
       </c>
       <c r="C128">
-        <v>175</v>
+        <v>238</v>
       </c>
       <c r="D128">
-        <v>225.67</v>
+        <v>230.17</v>
       </c>
       <c r="E128">
         <v>109.16</v>
@@ -7316,10 +9542,10 @@
         <v>139</v>
       </c>
       <c r="C129">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="D129">
-        <v>241</v>
+        <v>238.79</v>
       </c>
       <c r="E129">
         <v>109.33</v>
@@ -7336,7 +9562,7 @@
         <v>102</v>
       </c>
       <c r="D130">
-        <v>116.15</v>
+        <v>117.05</v>
       </c>
       <c r="E130">
         <v>109.49</v>
@@ -7350,10 +9576,10 @@
         <v>141</v>
       </c>
       <c r="C131">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D131">
-        <v>98.89</v>
+        <v>97.89</v>
       </c>
       <c r="E131">
         <v>109.65</v>
@@ -7367,10 +9593,10 @@
         <v>142</v>
       </c>
       <c r="C132">
-        <v>185</v>
+        <v>267</v>
       </c>
       <c r="D132">
-        <v>224.33</v>
+        <v>231.06</v>
       </c>
       <c r="E132">
         <v>109.81</v>
@@ -7384,10 +9610,10 @@
         <v>143</v>
       </c>
       <c r="C133">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="D133">
-        <v>211.05</v>
+        <v>212.6</v>
       </c>
       <c r="E133">
         <v>109.97</v>
@@ -7401,10 +9627,10 @@
         <v>144</v>
       </c>
       <c r="C134">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D134">
-        <v>220.05</v>
+        <v>211.75</v>
       </c>
       <c r="E134">
         <v>110.13</v>
@@ -7418,10 +9644,10 @@
         <v>145</v>
       </c>
       <c r="C135">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D135">
-        <v>235.53</v>
+        <v>239.89</v>
       </c>
       <c r="E135">
         <v>110.3</v>
@@ -7435,10 +9661,10 @@
         <v>146</v>
       </c>
       <c r="C136">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="D136">
-        <v>236.95</v>
+        <v>237.5</v>
       </c>
       <c r="E136">
         <v>110.46</v>
@@ -7452,10 +9678,10 @@
         <v>147</v>
       </c>
       <c r="C137">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D137">
-        <v>116.29</v>
+        <v>116.9</v>
       </c>
       <c r="E137">
         <v>110.62</v>
@@ -7469,10 +9695,10 @@
         <v>148</v>
       </c>
       <c r="C138">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D138">
-        <v>97.31999999999999</v>
+        <v>96.63</v>
       </c>
       <c r="E138">
         <v>110.78</v>
@@ -7486,10 +9712,10 @@
         <v>149</v>
       </c>
       <c r="C139">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="D139">
-        <v>226.16</v>
+        <v>233.47</v>
       </c>
       <c r="E139">
         <v>110.94</v>
@@ -7503,10 +9729,10 @@
         <v>150</v>
       </c>
       <c r="C140">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="D140">
-        <v>212.29</v>
+        <v>212.9</v>
       </c>
       <c r="E140">
         <v>111.1</v>
@@ -7520,10 +9746,10 @@
         <v>151</v>
       </c>
       <c r="C141">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="D141">
-        <v>219.1</v>
+        <v>211.9</v>
       </c>
       <c r="E141">
         <v>111.26</v>
@@ -7537,10 +9763,10 @@
         <v>152</v>
       </c>
       <c r="C142">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="D142">
-        <v>235.2</v>
+        <v>238.1</v>
       </c>
       <c r="E142">
         <v>111.43</v>
@@ -7554,10 +9780,10 @@
         <v>153</v>
       </c>
       <c r="C143">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="D143">
-        <v>239</v>
+        <v>240.71</v>
       </c>
       <c r="E143">
         <v>111.59</v>
@@ -7571,10 +9797,10 @@
         <v>154</v>
       </c>
       <c r="C144">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D144">
-        <v>115.05</v>
+        <v>115.45</v>
       </c>
       <c r="E144">
         <v>111.75</v>
@@ -7588,10 +9814,10 @@
         <v>155</v>
       </c>
       <c r="C145">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D145">
-        <v>95.84999999999999</v>
+        <v>95.25</v>
       </c>
       <c r="E145">
         <v>111.91</v>
@@ -7605,10 +9831,10 @@
         <v>156</v>
       </c>
       <c r="C146">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D146">
-        <v>220.05</v>
+        <v>226.75</v>
       </c>
       <c r="E146">
         <v>112.07</v>
@@ -7622,10 +9848,10 @@
         <v>157</v>
       </c>
       <c r="C147">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="D147">
-        <v>211.95</v>
+        <v>211.64</v>
       </c>
       <c r="E147">
         <v>112.23</v>
@@ -7639,10 +9865,10 @@
         <v>158</v>
       </c>
       <c r="C148">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="D148">
-        <v>220</v>
+        <v>212.32</v>
       </c>
       <c r="E148">
         <v>112.39</v>
@@ -7656,10 +9882,10 @@
         <v>159</v>
       </c>
       <c r="C149">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="D149">
-        <v>235.57</v>
+        <v>239.33</v>
       </c>
       <c r="E149">
         <v>112.56</v>
@@ -7673,10 +9899,10 @@
         <v>160</v>
       </c>
       <c r="C150">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="D150">
-        <v>238.59</v>
+        <v>241.59</v>
       </c>
       <c r="E150">
         <v>112.72</v>
@@ -7690,10 +9916,10 @@
         <v>161</v>
       </c>
       <c r="C151">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D151">
-        <v>113.57</v>
+        <v>113.83</v>
       </c>
       <c r="E151">
         <v>112.88</v>
@@ -7707,10 +9933,10 @@
         <v>162</v>
       </c>
       <c r="C152">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D152">
-        <v>94.67</v>
+        <v>94.23999999999999</v>
       </c>
       <c r="E152">
         <v>113.04</v>
@@ -7724,10 +9950,10 @@
         <v>163</v>
       </c>
       <c r="C153">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="D153">
-        <v>219.67</v>
+        <v>225.14</v>
       </c>
       <c r="E153">
         <v>113.2</v>
@@ -7741,10 +9967,10 @@
         <v>164</v>
       </c>
       <c r="C154">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D154">
-        <v>212.17</v>
+        <v>211.35</v>
       </c>
       <c r="E154">
         <v>113.36</v>
@@ -7758,10 +9984,10 @@
         <v>165</v>
       </c>
       <c r="C155">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D155">
-        <v>220.96</v>
+        <v>213.22</v>
       </c>
       <c r="E155">
         <v>113.52</v>
@@ -7775,10 +10001,10 @@
         <v>166</v>
       </c>
       <c r="C156">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="D156">
-        <v>235.32</v>
+        <v>239.32</v>
       </c>
       <c r="E156">
         <v>113.69</v>
@@ -7792,10 +10018,10 @@
         <v>167</v>
       </c>
       <c r="C157">
-        <v>193</v>
+        <v>270</v>
       </c>
       <c r="D157">
-        <v>236.61</v>
+        <v>242.83</v>
       </c>
       <c r="E157">
         <v>113.85</v>
@@ -7809,10 +10035,10 @@
         <v>168</v>
       </c>
       <c r="C158">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D158">
-        <v>112.88</v>
+        <v>113.04</v>
       </c>
       <c r="E158">
         <v>114.01</v>
@@ -7826,10 +10052,10 @@
         <v>169</v>
       </c>
       <c r="C159">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D159">
-        <v>93.55</v>
+        <v>93.09</v>
       </c>
       <c r="E159">
         <v>114.17</v>
@@ -7843,10 +10069,10 @@
         <v>170</v>
       </c>
       <c r="C160">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D160">
-        <v>221.05</v>
+        <v>225.59</v>
       </c>
       <c r="E160">
         <v>114.33</v>
@@ -7860,10 +10086,10 @@
         <v>171</v>
       </c>
       <c r="C161">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D161">
-        <v>210.92</v>
+        <v>210.29</v>
       </c>
       <c r="E161">
         <v>114.49</v>
@@ -7877,10 +10103,10 @@
         <v>172</v>
       </c>
       <c r="C162">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="D162">
-        <v>219.04</v>
+        <v>212.96</v>
       </c>
       <c r="E162">
         <v>114.65</v>
@@ -7894,10 +10120,10 @@
         <v>173</v>
       </c>
       <c r="C163">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="D163">
-        <v>236.43</v>
+        <v>241.22</v>
       </c>
       <c r="E163">
         <v>114.82</v>
@@ -7911,10 +10137,10 @@
         <v>174</v>
       </c>
       <c r="C164">
-        <v>303</v>
+        <v>245</v>
       </c>
       <c r="D164">
-        <v>239.38</v>
+        <v>242.92</v>
       </c>
       <c r="E164">
         <v>114.98</v>
@@ -7928,10 +10154,10 @@
         <v>175</v>
       </c>
       <c r="C165">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D165">
-        <v>113.96</v>
+        <v>114.28</v>
       </c>
       <c r="E165">
         <v>115.14</v>
@@ -7945,10 +10171,10 @@
         <v>176</v>
       </c>
       <c r="C166">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D166">
-        <v>93.09</v>
+        <v>92.73999999999999</v>
       </c>
       <c r="E166">
         <v>115.3</v>
@@ -7962,10 +10188,10 @@
         <v>177</v>
       </c>
       <c r="C167">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D167">
-        <v>224.09</v>
+        <v>228.3</v>
       </c>
       <c r="E167">
         <v>115.46</v>
@@ -7979,10 +10205,10 @@
         <v>178</v>
       </c>
       <c r="C168">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="D168">
-        <v>213.28</v>
+        <v>215.96</v>
       </c>
       <c r="E168">
         <v>115.62</v>
@@ -7996,10 +10222,10 @@
         <v>179</v>
       </c>
       <c r="C169">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D169">
-        <v>218.08</v>
+        <v>212.04</v>
       </c>
       <c r="E169">
         <v>115.78</v>
@@ -8013,10 +10239,10 @@
         <v>180</v>
       </c>
       <c r="C170">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="D170">
-        <v>236.5</v>
+        <v>239.79</v>
       </c>
       <c r="E170">
         <v>115.95</v>
@@ -8030,10 +10256,10 @@
         <v>181</v>
       </c>
       <c r="C171">
-        <v>300</v>
+        <v>227</v>
       </c>
       <c r="D171">
-        <v>241.8</v>
+        <v>242.28</v>
       </c>
       <c r="E171">
         <v>116.11</v>
@@ -8047,10 +10273,10 @@
         <v>182</v>
       </c>
       <c r="C172">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D172">
-        <v>113.46</v>
+        <v>114.15</v>
       </c>
       <c r="E172">
         <v>116.27</v>
@@ -8064,10 +10290,10 @@
         <v>183</v>
       </c>
       <c r="C173">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D173">
-        <v>92.38</v>
+        <v>92.45999999999999</v>
       </c>
       <c r="E173">
         <v>116.43</v>
@@ -8081,10 +10307,10 @@
         <v>184</v>
       </c>
       <c r="C174">
-        <v>256</v>
+        <v>197</v>
       </c>
       <c r="D174">
-        <v>225.42</v>
+        <v>227</v>
       </c>
       <c r="E174">
         <v>116.59</v>
@@ -8101,7 +10327,7 @@
         <v>275</v>
       </c>
       <c r="D175">
-        <v>215.65</v>
+        <v>218.23</v>
       </c>
       <c r="E175">
         <v>116.75</v>
@@ -8115,10 +10341,10 @@
         <v>186</v>
       </c>
       <c r="C176">
-        <v>264</v>
+        <v>206</v>
       </c>
       <c r="D176">
-        <v>219.85</v>
+        <v>211.81</v>
       </c>
       <c r="E176">
         <v>116.91</v>
@@ -8132,10 +10358,10 @@
         <v>187</v>
       </c>
       <c r="C177">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="D177">
-        <v>237.08</v>
+        <v>236.6</v>
       </c>
       <c r="E177">
         <v>117.08</v>
@@ -8149,10 +10375,10 @@
         <v>188</v>
       </c>
       <c r="C178">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D178">
-        <v>240.88</v>
+        <v>241.77</v>
       </c>
       <c r="E178">
         <v>117.24</v>
@@ -8169,7 +10395,7 @@
         <v>87</v>
       </c>
       <c r="D179">
-        <v>112.48</v>
+        <v>113.15</v>
       </c>
       <c r="E179">
         <v>117.4</v>
@@ -8183,10 +10409,10 @@
         <v>190</v>
       </c>
       <c r="C180">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D180">
-        <v>92.31999999999999</v>
+        <v>91.95999999999999</v>
       </c>
       <c r="E180">
         <v>117.56</v>
@@ -8200,10 +10426,10 @@
         <v>191</v>
       </c>
       <c r="C181">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="D181">
-        <v>225.24</v>
+        <v>227.68</v>
       </c>
       <c r="E181">
         <v>117.72</v>
@@ -8217,10 +10443,10 @@
         <v>192</v>
       </c>
       <c r="C182">
-        <v>203</v>
+        <v>269</v>
       </c>
       <c r="D182">
-        <v>215.19</v>
+        <v>220.11</v>
       </c>
       <c r="E182">
         <v>117.88</v>
@@ -8234,10 +10460,10 @@
         <v>193</v>
       </c>
       <c r="C183">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="D183">
-        <v>222.41</v>
+        <v>213.93</v>
       </c>
       <c r="E183">
         <v>118.04</v>
@@ -8251,7 +10477,7 @@
         <v>194</v>
       </c>
       <c r="C184">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="D184">
         <v>235.19</v>
@@ -8268,10 +10494,10 @@
         <v>195</v>
       </c>
       <c r="C185">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="D185">
-        <v>241.11</v>
+        <v>241.41</v>
       </c>
       <c r="E185">
         <v>118.37</v>
@@ -8285,10 +10511,10 @@
         <v>196</v>
       </c>
       <c r="C186">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D186">
-        <v>111.61</v>
+        <v>112.11</v>
       </c>
       <c r="E186">
         <v>118.53</v>
@@ -8302,10 +10528,10 @@
         <v>197</v>
       </c>
       <c r="C187">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D187">
-        <v>90.92</v>
+        <v>90.65000000000001</v>
       </c>
       <c r="E187">
         <v>118.69</v>
@@ -8319,10 +10545,10 @@
         <v>198</v>
       </c>
       <c r="C188">
-        <v>252</v>
+        <v>187</v>
       </c>
       <c r="D188">
-        <v>226.27</v>
+        <v>226.12</v>
       </c>
       <c r="E188">
         <v>118.85</v>
@@ -8336,10 +10562,10 @@
         <v>199</v>
       </c>
       <c r="C189">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="D189">
-        <v>215</v>
+        <v>220.96</v>
       </c>
       <c r="E189">
         <v>119.01</v>
@@ -8353,10 +10579,10 @@
         <v>200</v>
       </c>
       <c r="C190">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="D190">
-        <v>223.57</v>
+        <v>213.68</v>
       </c>
       <c r="E190">
         <v>119.17</v>
@@ -8370,10 +10596,10 @@
         <v>201</v>
       </c>
       <c r="C191">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="D191">
-        <v>235.67</v>
+        <v>234.56</v>
       </c>
       <c r="E191">
         <v>119.34</v>
@@ -8387,10 +10613,10 @@
         <v>202</v>
       </c>
       <c r="C192">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D192">
-        <v>239.36</v>
+        <v>239.61</v>
       </c>
       <c r="E192">
         <v>119.5</v>
@@ -8404,10 +10630,10 @@
         <v>203</v>
       </c>
       <c r="C193">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D193">
-        <v>111.24</v>
+        <v>111.45</v>
       </c>
       <c r="E193">
         <v>119.66</v>
@@ -8421,10 +10647,10 @@
         <v>204</v>
       </c>
       <c r="C194">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D194">
-        <v>91.41</v>
+        <v>91.19</v>
       </c>
       <c r="E194">
         <v>119.82</v>
@@ -8438,10 +10664,10 @@
         <v>205</v>
       </c>
       <c r="C195">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="D195">
-        <v>226.52</v>
+        <v>226.96</v>
       </c>
       <c r="E195">
         <v>119.98</v>
@@ -8455,10 +10681,10 @@
         <v>206</v>
       </c>
       <c r="C196">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="D196">
-        <v>214.76</v>
+        <v>219.66</v>
       </c>
       <c r="E196">
         <v>120.14</v>
@@ -8472,10 +10698,10 @@
         <v>207</v>
       </c>
       <c r="C197">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="D197">
-        <v>224.9</v>
+        <v>214.69</v>
       </c>
       <c r="E197">
         <v>120.3</v>
@@ -8489,10 +10715,10 @@
         <v>208</v>
       </c>
       <c r="C198">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="D198">
-        <v>236.64</v>
+        <v>234.89</v>
       </c>
       <c r="E198">
         <v>120.47</v>
@@ -8506,10 +10732,10 @@
         <v>209</v>
       </c>
       <c r="C199">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="D199">
-        <v>238.28</v>
+        <v>238.97</v>
       </c>
       <c r="E199">
         <v>120.63</v>
@@ -8523,10 +10749,10 @@
         <v>210</v>
       </c>
       <c r="C200">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="D200">
-        <v>112.07</v>
+        <v>112.87</v>
       </c>
       <c r="E200">
         <v>120.79</v>
@@ -8540,10 +10766,10 @@
         <v>211</v>
       </c>
       <c r="C201">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D201">
-        <v>90.54000000000001</v>
+        <v>90.5</v>
       </c>
       <c r="E201">
         <v>120.95</v>
@@ -8557,10 +10783,10 @@
         <v>212</v>
       </c>
       <c r="C202">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D202">
-        <v>225.32</v>
+        <v>226.04</v>
       </c>
       <c r="E202">
         <v>121.11</v>
@@ -8574,10 +10800,10 @@
         <v>213</v>
       </c>
       <c r="C203">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D203">
-        <v>213.77</v>
+        <v>218.83</v>
       </c>
       <c r="E203">
         <v>121.27</v>
@@ -8591,10 +10817,10 @@
         <v>214</v>
       </c>
       <c r="C204">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D204">
-        <v>226.5</v>
+        <v>216.27</v>
       </c>
       <c r="E204">
         <v>121.43</v>
@@ -8608,10 +10834,10 @@
         <v>215</v>
       </c>
       <c r="C205">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="D205">
-        <v>235.48</v>
+        <v>234.86</v>
       </c>
       <c r="E205">
         <v>121.6</v>
@@ -8625,10 +10851,10 @@
         <v>216</v>
       </c>
       <c r="C206">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D206">
-        <v>238.23</v>
+        <v>238.6</v>
       </c>
       <c r="E206">
         <v>121.76</v>
@@ -8642,10 +10868,10 @@
         <v>217</v>
       </c>
       <c r="C207">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D207">
-        <v>113.03</v>
+        <v>114.06</v>
       </c>
       <c r="E207">
         <v>121.92</v>
@@ -8659,10 +10885,10 @@
         <v>218</v>
       </c>
       <c r="C208">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D208">
-        <v>90.90000000000001</v>
+        <v>91.06999999999999</v>
       </c>
       <c r="E208">
         <v>122.08</v>
@@ -8679,7 +10905,7 @@
         <v>212</v>
       </c>
       <c r="D209">
-        <v>213.71</v>
+        <v>218.61</v>
       </c>
       <c r="E209">
         <v>122.4</v>
@@ -8693,10 +10919,10 @@
         <v>220</v>
       </c>
       <c r="C210">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="D210">
-        <v>225.39</v>
+        <v>215.03</v>
       </c>
       <c r="E210">
         <v>122.57</v>
@@ -8710,10 +10936,10 @@
         <v>221</v>
       </c>
       <c r="C211">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="D211">
-        <v>234.5</v>
+        <v>234.8</v>
       </c>
       <c r="E211">
         <v>122.73</v>
@@ -8727,10 +10953,10 @@
         <v>222</v>
       </c>
       <c r="C212">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D212">
-        <v>237.23</v>
+        <v>237.87</v>
       </c>
       <c r="E212">
         <v>122.89</v>
@@ -8744,10 +10970,10 @@
         <v>223</v>
       </c>
       <c r="C213">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D213">
-        <v>113.31</v>
+        <v>114.25</v>
       </c>
       <c r="E213">
         <v>123.05</v>
@@ -8761,10 +10987,10 @@
         <v>224</v>
       </c>
       <c r="C214">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D214">
-        <v>90.09999999999999</v>
+        <v>90.3</v>
       </c>
       <c r="E214">
         <v>123.21</v>
@@ -8778,13 +11004,1815 @@
         <v>225</v>
       </c>
       <c r="C215">
-        <v>72</v>
+        <v>206</v>
       </c>
       <c r="D215">
-        <v>220.03</v>
+        <v>225.34</v>
       </c>
       <c r="E215">
         <v>123.37</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" t="s">
+        <v>13</v>
+      </c>
+      <c r="B216" t="s">
+        <v>226</v>
+      </c>
+      <c r="C216">
+        <v>234</v>
+      </c>
+      <c r="D216">
+        <v>219.09</v>
+      </c>
+      <c r="E216">
+        <v>123.53</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" t="s">
+        <v>15</v>
+      </c>
+      <c r="B217" t="s">
+        <v>227</v>
+      </c>
+      <c r="C217">
+        <v>241</v>
+      </c>
+      <c r="D217">
+        <v>215.84</v>
+      </c>
+      <c r="E217">
+        <v>123.7</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" t="s">
+        <v>17</v>
+      </c>
+      <c r="B218" t="s">
+        <v>228</v>
+      </c>
+      <c r="C218">
+        <v>240</v>
+      </c>
+      <c r="D218">
+        <v>234.97</v>
+      </c>
+      <c r="E218">
+        <v>123.86</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" t="s">
+        <v>5</v>
+      </c>
+      <c r="B219" t="s">
+        <v>229</v>
+      </c>
+      <c r="C219">
+        <v>257</v>
+      </c>
+      <c r="D219">
+        <v>238.47</v>
+      </c>
+      <c r="E219">
+        <v>124.02</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
+        <v>7</v>
+      </c>
+      <c r="B220" t="s">
+        <v>230</v>
+      </c>
+      <c r="C220">
+        <v>133</v>
+      </c>
+      <c r="D220">
+        <v>114.82</v>
+      </c>
+      <c r="E220">
+        <v>124.18</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="s">
+        <v>9</v>
+      </c>
+      <c r="B221" t="s">
+        <v>231</v>
+      </c>
+      <c r="C221">
+        <v>94</v>
+      </c>
+      <c r="D221">
+        <v>90.42</v>
+      </c>
+      <c r="E221">
+        <v>124.34</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" t="s">
+        <v>11</v>
+      </c>
+      <c r="B222" t="s">
+        <v>232</v>
+      </c>
+      <c r="C222">
+        <v>306</v>
+      </c>
+      <c r="D222">
+        <v>228.03</v>
+      </c>
+      <c r="E222">
+        <v>124.5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" t="s">
+        <v>13</v>
+      </c>
+      <c r="B223" t="s">
+        <v>233</v>
+      </c>
+      <c r="C223">
+        <v>251</v>
+      </c>
+      <c r="D223">
+        <v>220.06</v>
+      </c>
+      <c r="E223">
+        <v>124.66</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" t="s">
+        <v>15</v>
+      </c>
+      <c r="B224" t="s">
+        <v>234</v>
+      </c>
+      <c r="C224">
+        <v>280</v>
+      </c>
+      <c r="D224">
+        <v>217.79</v>
+      </c>
+      <c r="E224">
+        <v>124.83</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" t="s">
+        <v>17</v>
+      </c>
+      <c r="B225" t="s">
+        <v>235</v>
+      </c>
+      <c r="C225">
+        <v>238</v>
+      </c>
+      <c r="D225">
+        <v>235.06</v>
+      </c>
+      <c r="E225">
+        <v>124.99</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" t="s">
+        <v>5</v>
+      </c>
+      <c r="B226" t="s">
+        <v>236</v>
+      </c>
+      <c r="C226">
+        <v>256</v>
+      </c>
+      <c r="D226">
+        <v>239</v>
+      </c>
+      <c r="E226">
+        <v>125.15</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" t="s">
+        <v>7</v>
+      </c>
+      <c r="B227" t="s">
+        <v>237</v>
+      </c>
+      <c r="C227">
+        <v>101</v>
+      </c>
+      <c r="D227">
+        <v>114.41</v>
+      </c>
+      <c r="E227">
+        <v>125.31</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" t="s">
+        <v>9</v>
+      </c>
+      <c r="B228" t="s">
+        <v>238</v>
+      </c>
+      <c r="C228">
+        <v>75</v>
+      </c>
+      <c r="D228">
+        <v>89.94</v>
+      </c>
+      <c r="E228">
+        <v>125.47</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" t="s">
+        <v>11</v>
+      </c>
+      <c r="B229" t="s">
+        <v>239</v>
+      </c>
+      <c r="C229">
+        <v>198</v>
+      </c>
+      <c r="D229">
+        <v>227.06</v>
+      </c>
+      <c r="E229">
+        <v>125.63</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="s">
+        <v>13</v>
+      </c>
+      <c r="B230" t="s">
+        <v>240</v>
+      </c>
+      <c r="C230">
+        <v>167</v>
+      </c>
+      <c r="D230">
+        <v>218.5</v>
+      </c>
+      <c r="E230">
+        <v>125.79</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" t="s">
+        <v>15</v>
+      </c>
+      <c r="B231" t="s">
+        <v>241</v>
+      </c>
+      <c r="C231">
+        <v>265</v>
+      </c>
+      <c r="D231">
+        <v>219.18</v>
+      </c>
+      <c r="E231">
+        <v>125.96</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" t="s">
+        <v>17</v>
+      </c>
+      <c r="B232" t="s">
+        <v>242</v>
+      </c>
+      <c r="C232">
+        <v>221</v>
+      </c>
+      <c r="D232">
+        <v>234.64</v>
+      </c>
+      <c r="E232">
+        <v>126.12</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" t="s">
+        <v>5</v>
+      </c>
+      <c r="B233" t="s">
+        <v>243</v>
+      </c>
+      <c r="C233">
+        <v>220</v>
+      </c>
+      <c r="D233">
+        <v>238.44</v>
+      </c>
+      <c r="E233">
+        <v>126.28</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" t="s">
+        <v>7</v>
+      </c>
+      <c r="B234" t="s">
+        <v>244</v>
+      </c>
+      <c r="C234">
+        <v>175</v>
+      </c>
+      <c r="D234">
+        <v>116.14</v>
+      </c>
+      <c r="E234">
+        <v>126.44</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" t="s">
+        <v>9</v>
+      </c>
+      <c r="B235" t="s">
+        <v>245</v>
+      </c>
+      <c r="C235">
+        <v>97</v>
+      </c>
+      <c r="D235">
+        <v>90.15000000000001</v>
+      </c>
+      <c r="E235">
+        <v>126.6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
+        <v>11</v>
+      </c>
+      <c r="B236" t="s">
+        <v>246</v>
+      </c>
+      <c r="C236">
+        <v>300</v>
+      </c>
+      <c r="D236">
+        <v>229.34</v>
+      </c>
+      <c r="E236">
+        <v>126.76</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
+        <v>13</v>
+      </c>
+      <c r="B237" t="s">
+        <v>247</v>
+      </c>
+      <c r="C237">
+        <v>195</v>
+      </c>
+      <c r="D237">
+        <v>217.83</v>
+      </c>
+      <c r="E237">
+        <v>126.92</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" t="s">
+        <v>15</v>
+      </c>
+      <c r="B238" t="s">
+        <v>248</v>
+      </c>
+      <c r="C238">
+        <v>276</v>
+      </c>
+      <c r="D238">
+        <v>220.8</v>
+      </c>
+      <c r="E238">
+        <v>127.09</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" t="s">
+        <v>17</v>
+      </c>
+      <c r="B239" t="s">
+        <v>249</v>
+      </c>
+      <c r="C239">
+        <v>298</v>
+      </c>
+      <c r="D239">
+        <v>236.5</v>
+      </c>
+      <c r="E239">
+        <v>127.25</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" t="s">
+        <v>5</v>
+      </c>
+      <c r="B240" t="s">
+        <v>250</v>
+      </c>
+      <c r="C240">
+        <v>272</v>
+      </c>
+      <c r="D240">
+        <v>239.4</v>
+      </c>
+      <c r="E240">
+        <v>127.41</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" t="s">
+        <v>7</v>
+      </c>
+      <c r="B241" t="s">
+        <v>251</v>
+      </c>
+      <c r="C241">
+        <v>167</v>
+      </c>
+      <c r="D241">
+        <v>117.56</v>
+      </c>
+      <c r="E241">
+        <v>127.57</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" t="s">
+        <v>9</v>
+      </c>
+      <c r="B242" t="s">
+        <v>252</v>
+      </c>
+      <c r="C242">
+        <v>104</v>
+      </c>
+      <c r="D242">
+        <v>90.56</v>
+      </c>
+      <c r="E242">
+        <v>127.73</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" t="s">
+        <v>11</v>
+      </c>
+      <c r="B243" t="s">
+        <v>253</v>
+      </c>
+      <c r="C243">
+        <v>240</v>
+      </c>
+      <c r="D243">
+        <v>229.67</v>
+      </c>
+      <c r="E243">
+        <v>127.89</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" t="s">
+        <v>15</v>
+      </c>
+      <c r="B244" t="s">
+        <v>254</v>
+      </c>
+      <c r="C244">
+        <v>238</v>
+      </c>
+      <c r="D244">
+        <v>221.28</v>
+      </c>
+      <c r="E244">
+        <v>128.22</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" t="s">
+        <v>17</v>
+      </c>
+      <c r="B245" t="s">
+        <v>255</v>
+      </c>
+      <c r="C245">
+        <v>267</v>
+      </c>
+      <c r="D245">
+        <v>237.37</v>
+      </c>
+      <c r="E245">
+        <v>128.38</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" t="s">
+        <v>5</v>
+      </c>
+      <c r="B246" t="s">
+        <v>256</v>
+      </c>
+      <c r="C246">
+        <v>259</v>
+      </c>
+      <c r="D246">
+        <v>239.94</v>
+      </c>
+      <c r="E246">
+        <v>128.54</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" t="s">
+        <v>7</v>
+      </c>
+      <c r="B247" t="s">
+        <v>257</v>
+      </c>
+      <c r="C247">
+        <v>143</v>
+      </c>
+      <c r="D247">
+        <v>118.24</v>
+      </c>
+      <c r="E247">
+        <v>128.7</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" t="s">
+        <v>9</v>
+      </c>
+      <c r="B248" t="s">
+        <v>258</v>
+      </c>
+      <c r="C248">
+        <v>106</v>
+      </c>
+      <c r="D248">
+        <v>91</v>
+      </c>
+      <c r="E248">
+        <v>128.86</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" t="s">
+        <v>11</v>
+      </c>
+      <c r="B249" t="s">
+        <v>259</v>
+      </c>
+      <c r="C249">
+        <v>282</v>
+      </c>
+      <c r="D249">
+        <v>231.21</v>
+      </c>
+      <c r="E249">
+        <v>129.02</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" t="s">
+        <v>13</v>
+      </c>
+      <c r="B250" t="s">
+        <v>260</v>
+      </c>
+      <c r="C250">
+        <v>261</v>
+      </c>
+      <c r="D250">
+        <v>219.03</v>
+      </c>
+      <c r="E250">
+        <v>129.18</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" t="s">
+        <v>15</v>
+      </c>
+      <c r="B251" t="s">
+        <v>261</v>
+      </c>
+      <c r="C251">
+        <v>358</v>
+      </c>
+      <c r="D251">
+        <v>224.97</v>
+      </c>
+      <c r="E251">
+        <v>129.35</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" t="s">
+        <v>17</v>
+      </c>
+      <c r="B252" t="s">
+        <v>262</v>
+      </c>
+      <c r="C252">
+        <v>208</v>
+      </c>
+      <c r="D252">
+        <v>236.56</v>
+      </c>
+      <c r="E252">
+        <v>129.51</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" t="s">
+        <v>5</v>
+      </c>
+      <c r="B253" t="s">
+        <v>263</v>
+      </c>
+      <c r="C253">
+        <v>218</v>
+      </c>
+      <c r="D253">
+        <v>239.35</v>
+      </c>
+      <c r="E253">
+        <v>129.67</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" t="s">
+        <v>7</v>
+      </c>
+      <c r="B254" t="s">
+        <v>264</v>
+      </c>
+      <c r="C254">
+        <v>119</v>
+      </c>
+      <c r="D254">
+        <v>118.26</v>
+      </c>
+      <c r="E254">
+        <v>129.83</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" t="s">
+        <v>9</v>
+      </c>
+      <c r="B255" t="s">
+        <v>265</v>
+      </c>
+      <c r="C255">
+        <v>100</v>
+      </c>
+      <c r="D255">
+        <v>91.25</v>
+      </c>
+      <c r="E255">
+        <v>129.99</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" t="s">
+        <v>11</v>
+      </c>
+      <c r="B256" t="s">
+        <v>266</v>
+      </c>
+      <c r="C256">
+        <v>250</v>
+      </c>
+      <c r="D256">
+        <v>231.74</v>
+      </c>
+      <c r="E256">
+        <v>130.15</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" t="s">
+        <v>13</v>
+      </c>
+      <c r="B257" t="s">
+        <v>267</v>
+      </c>
+      <c r="C257">
+        <v>232</v>
+      </c>
+      <c r="D257">
+        <v>219.38</v>
+      </c>
+      <c r="E257">
+        <v>130.31</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" t="s">
+        <v>15</v>
+      </c>
+      <c r="B258" t="s">
+        <v>268</v>
+      </c>
+      <c r="C258">
+        <v>342</v>
+      </c>
+      <c r="D258">
+        <v>228.05</v>
+      </c>
+      <c r="E258">
+        <v>130.48</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" t="s">
+        <v>17</v>
+      </c>
+      <c r="B259" t="s">
+        <v>269</v>
+      </c>
+      <c r="C259">
+        <v>237</v>
+      </c>
+      <c r="D259">
+        <v>236.57</v>
+      </c>
+      <c r="E259">
+        <v>130.64</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" t="s">
+        <v>5</v>
+      </c>
+      <c r="B260" t="s">
+        <v>270</v>
+      </c>
+      <c r="C260">
+        <v>196</v>
+      </c>
+      <c r="D260">
+        <v>238.21</v>
+      </c>
+      <c r="E260">
+        <v>130.8</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" t="s">
+        <v>7</v>
+      </c>
+      <c r="B261" t="s">
+        <v>271</v>
+      </c>
+      <c r="C261">
+        <v>184</v>
+      </c>
+      <c r="D261">
+        <v>119.95</v>
+      </c>
+      <c r="E261">
+        <v>130.96</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" t="s">
+        <v>9</v>
+      </c>
+      <c r="B262" t="s">
+        <v>272</v>
+      </c>
+      <c r="C262">
+        <v>127</v>
+      </c>
+      <c r="D262">
+        <v>92.22</v>
+      </c>
+      <c r="E262">
+        <v>131.12</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" t="s">
+        <v>11</v>
+      </c>
+      <c r="B263" t="s">
+        <v>273</v>
+      </c>
+      <c r="C263">
+        <v>330</v>
+      </c>
+      <c r="D263">
+        <v>234.47</v>
+      </c>
+      <c r="E263">
+        <v>131.28</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" t="s">
+        <v>13</v>
+      </c>
+      <c r="B264" t="s">
+        <v>274</v>
+      </c>
+      <c r="C264">
+        <v>229</v>
+      </c>
+      <c r="D264">
+        <v>219.63</v>
+      </c>
+      <c r="E264">
+        <v>131.44</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" t="s">
+        <v>15</v>
+      </c>
+      <c r="B265" t="s">
+        <v>275</v>
+      </c>
+      <c r="C265">
+        <v>278</v>
+      </c>
+      <c r="D265">
+        <v>229.33</v>
+      </c>
+      <c r="E265">
+        <v>131.61</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" t="s">
+        <v>17</v>
+      </c>
+      <c r="B266" t="s">
+        <v>276</v>
+      </c>
+      <c r="C266">
+        <v>278</v>
+      </c>
+      <c r="D266">
+        <v>237.66</v>
+      </c>
+      <c r="E266">
+        <v>131.77</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" t="s">
+        <v>5</v>
+      </c>
+      <c r="B267" t="s">
+        <v>277</v>
+      </c>
+      <c r="C267">
+        <v>387</v>
+      </c>
+      <c r="D267">
+        <v>242.03</v>
+      </c>
+      <c r="E267">
+        <v>131.93</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" t="s">
+        <v>7</v>
+      </c>
+      <c r="B268" t="s">
+        <v>278</v>
+      </c>
+      <c r="C268">
+        <v>183</v>
+      </c>
+      <c r="D268">
+        <v>121.53</v>
+      </c>
+      <c r="E268">
+        <v>132.09</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" t="s">
+        <v>9</v>
+      </c>
+      <c r="B269" t="s">
+        <v>279</v>
+      </c>
+      <c r="C269">
+        <v>139</v>
+      </c>
+      <c r="D269">
+        <v>93.45</v>
+      </c>
+      <c r="E269">
+        <v>132.25</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" t="s">
+        <v>11</v>
+      </c>
+      <c r="B270" t="s">
+        <v>280</v>
+      </c>
+      <c r="C270">
+        <v>286</v>
+      </c>
+      <c r="D270">
+        <v>235.86</v>
+      </c>
+      <c r="E270">
+        <v>132.41</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" t="s">
+        <v>13</v>
+      </c>
+      <c r="B271" t="s">
+        <v>281</v>
+      </c>
+      <c r="C271">
+        <v>387</v>
+      </c>
+      <c r="D271">
+        <v>223.92</v>
+      </c>
+      <c r="E271">
+        <v>132.57</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" t="s">
+        <v>15</v>
+      </c>
+      <c r="B272" t="s">
+        <v>282</v>
+      </c>
+      <c r="C272">
+        <v>361</v>
+      </c>
+      <c r="D272">
+        <v>232.62</v>
+      </c>
+      <c r="E272">
+        <v>132.74</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" t="s">
+        <v>17</v>
+      </c>
+      <c r="B273" t="s">
+        <v>283</v>
+      </c>
+      <c r="C273">
+        <v>333</v>
+      </c>
+      <c r="D273">
+        <v>240.1</v>
+      </c>
+      <c r="E273">
+        <v>132.9</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" t="s">
+        <v>5</v>
+      </c>
+      <c r="B274" t="s">
+        <v>284</v>
+      </c>
+      <c r="C274">
+        <v>385</v>
+      </c>
+      <c r="D274">
+        <v>245.6</v>
+      </c>
+      <c r="E274">
+        <v>133.06</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" t="s">
+        <v>7</v>
+      </c>
+      <c r="B275" t="s">
+        <v>285</v>
+      </c>
+      <c r="C275">
+        <v>134</v>
+      </c>
+      <c r="D275">
+        <v>121.83</v>
+      </c>
+      <c r="E275">
+        <v>133.22</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" t="s">
+        <v>9</v>
+      </c>
+      <c r="B276" t="s">
+        <v>286</v>
+      </c>
+      <c r="C276">
+        <v>138</v>
+      </c>
+      <c r="D276">
+        <v>94.59</v>
+      </c>
+      <c r="E276">
+        <v>133.38</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" t="s">
+        <v>11</v>
+      </c>
+      <c r="B277" t="s">
+        <v>287</v>
+      </c>
+      <c r="C277">
+        <v>303</v>
+      </c>
+      <c r="D277">
+        <v>237.63</v>
+      </c>
+      <c r="E277">
+        <v>133.54</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" t="s">
+        <v>13</v>
+      </c>
+      <c r="B278" t="s">
+        <v>288</v>
+      </c>
+      <c r="C278">
+        <v>247</v>
+      </c>
+      <c r="D278">
+        <v>224.5</v>
+      </c>
+      <c r="E278">
+        <v>133.7</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" t="s">
+        <v>15</v>
+      </c>
+      <c r="B279" t="s">
+        <v>289</v>
+      </c>
+      <c r="C279">
+        <v>316</v>
+      </c>
+      <c r="D279">
+        <v>234.66</v>
+      </c>
+      <c r="E279">
+        <v>133.87</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" t="s">
+        <v>17</v>
+      </c>
+      <c r="B280" t="s">
+        <v>290</v>
+      </c>
+      <c r="C280">
+        <v>377</v>
+      </c>
+      <c r="D280">
+        <v>243.53</v>
+      </c>
+      <c r="E280">
+        <v>134.03</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" t="s">
+        <v>5</v>
+      </c>
+      <c r="B281" t="s">
+        <v>291</v>
+      </c>
+      <c r="C281">
+        <v>337</v>
+      </c>
+      <c r="D281">
+        <v>247.83</v>
+      </c>
+      <c r="E281">
+        <v>134.19</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" t="s">
+        <v>7</v>
+      </c>
+      <c r="B282" t="s">
+        <v>292</v>
+      </c>
+      <c r="C282">
+        <v>92</v>
+      </c>
+      <c r="D282">
+        <v>121.12</v>
+      </c>
+      <c r="E282">
+        <v>134.35</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" t="s">
+        <v>9</v>
+      </c>
+      <c r="B283" t="s">
+        <v>293</v>
+      </c>
+      <c r="C283">
+        <v>95</v>
+      </c>
+      <c r="D283">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="E283">
+        <v>134.51</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" t="s">
+        <v>11</v>
+      </c>
+      <c r="B284" t="s">
+        <v>294</v>
+      </c>
+      <c r="C284">
+        <v>290</v>
+      </c>
+      <c r="D284">
+        <v>238.97</v>
+      </c>
+      <c r="E284">
+        <v>134.67</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" t="s">
+        <v>13</v>
+      </c>
+      <c r="B285" t="s">
+        <v>295</v>
+      </c>
+      <c r="C285">
+        <v>269</v>
+      </c>
+      <c r="D285">
+        <v>225.59</v>
+      </c>
+      <c r="E285">
+        <v>134.84</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" t="s">
+        <v>15</v>
+      </c>
+      <c r="B286" t="s">
+        <v>296</v>
+      </c>
+      <c r="C286">
+        <v>268</v>
+      </c>
+      <c r="D286">
+        <v>235.45</v>
+      </c>
+      <c r="E286">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" t="s">
+        <v>17</v>
+      </c>
+      <c r="B287" t="s">
+        <v>297</v>
+      </c>
+      <c r="C287">
+        <v>253</v>
+      </c>
+      <c r="D287">
+        <v>243.76</v>
+      </c>
+      <c r="E287">
+        <v>135.16</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" t="s">
+        <v>5</v>
+      </c>
+      <c r="B288" t="s">
+        <v>298</v>
+      </c>
+      <c r="C288">
+        <v>251</v>
+      </c>
+      <c r="D288">
+        <v>247.9</v>
+      </c>
+      <c r="E288">
+        <v>135.32</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" t="s">
+        <v>7</v>
+      </c>
+      <c r="B289" t="s">
+        <v>299</v>
+      </c>
+      <c r="C289">
+        <v>127</v>
+      </c>
+      <c r="D289">
+        <v>121.26</v>
+      </c>
+      <c r="E289">
+        <v>135.48</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" t="s">
+        <v>9</v>
+      </c>
+      <c r="B290" t="s">
+        <v>300</v>
+      </c>
+      <c r="C290">
+        <v>96</v>
+      </c>
+      <c r="D290">
+        <v>94.63</v>
+      </c>
+      <c r="E290">
+        <v>135.64</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" t="s">
+        <v>11</v>
+      </c>
+      <c r="B291" t="s">
+        <v>301</v>
+      </c>
+      <c r="C291">
+        <v>295</v>
+      </c>
+      <c r="D291">
+        <v>240.38</v>
+      </c>
+      <c r="E291">
+        <v>135.8</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" t="s">
+        <v>13</v>
+      </c>
+      <c r="B292" t="s">
+        <v>302</v>
+      </c>
+      <c r="C292">
+        <v>235</v>
+      </c>
+      <c r="D292">
+        <v>225.81</v>
+      </c>
+      <c r="E292">
+        <v>135.97</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" t="s">
+        <v>15</v>
+      </c>
+      <c r="B293" t="s">
+        <v>303</v>
+      </c>
+      <c r="C293">
+        <v>262</v>
+      </c>
+      <c r="D293">
+        <v>236.07</v>
+      </c>
+      <c r="E293">
+        <v>136.13</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" t="s">
+        <v>17</v>
+      </c>
+      <c r="B294" t="s">
+        <v>304</v>
+      </c>
+      <c r="C294">
+        <v>325</v>
+      </c>
+      <c r="D294">
+        <v>245.69</v>
+      </c>
+      <c r="E294">
+        <v>136.29</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" t="s">
+        <v>5</v>
+      </c>
+      <c r="B295" t="s">
+        <v>305</v>
+      </c>
+      <c r="C295">
+        <v>278</v>
+      </c>
+      <c r="D295">
+        <v>248.6</v>
+      </c>
+      <c r="E295">
+        <v>136.45</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" t="s">
+        <v>7</v>
+      </c>
+      <c r="B296" t="s">
+        <v>306</v>
+      </c>
+      <c r="C296">
+        <v>118</v>
+      </c>
+      <c r="D296">
+        <v>121.18</v>
+      </c>
+      <c r="E296">
+        <v>136.61</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" t="s">
+        <v>9</v>
+      </c>
+      <c r="B297" t="s">
+        <v>307</v>
+      </c>
+      <c r="C297">
+        <v>93</v>
+      </c>
+      <c r="D297">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="E297">
+        <v>136.77</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" t="s">
+        <v>11</v>
+      </c>
+      <c r="B298" t="s">
+        <v>308</v>
+      </c>
+      <c r="C298">
+        <v>293</v>
+      </c>
+      <c r="D298">
+        <v>241.66</v>
+      </c>
+      <c r="E298">
+        <v>136.93</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" t="s">
+        <v>13</v>
+      </c>
+      <c r="B299" t="s">
+        <v>309</v>
+      </c>
+      <c r="C299">
+        <v>215</v>
+      </c>
+      <c r="D299">
+        <v>225.56</v>
+      </c>
+      <c r="E299">
+        <v>137.1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" t="s">
+        <v>15</v>
+      </c>
+      <c r="B300" t="s">
+        <v>310</v>
+      </c>
+      <c r="C300">
+        <v>198</v>
+      </c>
+      <c r="D300">
+        <v>235.2</v>
+      </c>
+      <c r="E300">
+        <v>137.26</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" t="s">
+        <v>17</v>
+      </c>
+      <c r="B301" t="s">
+        <v>311</v>
+      </c>
+      <c r="C301">
+        <v>218</v>
+      </c>
+      <c r="D301">
+        <v>245.05</v>
+      </c>
+      <c r="E301">
+        <v>137.42</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" t="s">
+        <v>5</v>
+      </c>
+      <c r="B302" t="s">
+        <v>312</v>
+      </c>
+      <c r="C302">
+        <v>234</v>
+      </c>
+      <c r="D302">
+        <v>248.27</v>
+      </c>
+      <c r="E302">
+        <v>137.58</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" t="s">
+        <v>7</v>
+      </c>
+      <c r="B303" t="s">
+        <v>313</v>
+      </c>
+      <c r="C303">
+        <v>85</v>
+      </c>
+      <c r="D303">
+        <v>120.38</v>
+      </c>
+      <c r="E303">
+        <v>137.74</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" t="s">
+        <v>9</v>
+      </c>
+      <c r="B304" t="s">
+        <v>314</v>
+      </c>
+      <c r="C304">
+        <v>67</v>
+      </c>
+      <c r="D304">
+        <v>93.95</v>
+      </c>
+      <c r="E304">
+        <v>137.9</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" t="s">
+        <v>13</v>
+      </c>
+      <c r="B305" t="s">
+        <v>315</v>
+      </c>
+      <c r="C305">
+        <v>250</v>
+      </c>
+      <c r="D305">
+        <v>226.11</v>
+      </c>
+      <c r="E305">
+        <v>138.23</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" t="s">
+        <v>15</v>
+      </c>
+      <c r="B306" t="s">
+        <v>316</v>
+      </c>
+      <c r="C306">
+        <v>199</v>
+      </c>
+      <c r="D306">
+        <v>234.4</v>
+      </c>
+      <c r="E306">
+        <v>138.39</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" t="s">
+        <v>17</v>
+      </c>
+      <c r="B307" t="s">
+        <v>317</v>
+      </c>
+      <c r="C307">
+        <v>220</v>
+      </c>
+      <c r="D307">
+        <v>244.48</v>
+      </c>
+      <c r="E307">
+        <v>138.55</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" t="s">
+        <v>5</v>
+      </c>
+      <c r="B308" t="s">
+        <v>318</v>
+      </c>
+      <c r="C308">
+        <v>259</v>
+      </c>
+      <c r="D308">
+        <v>248.51</v>
+      </c>
+      <c r="E308">
+        <v>138.71</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" t="s">
+        <v>7</v>
+      </c>
+      <c r="B309" t="s">
+        <v>319</v>
+      </c>
+      <c r="C309">
+        <v>71</v>
+      </c>
+      <c r="D309">
+        <v>119.3</v>
+      </c>
+      <c r="E309">
+        <v>138.87</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" t="s">
+        <v>9</v>
+      </c>
+      <c r="B310" t="s">
+        <v>320</v>
+      </c>
+      <c r="C310">
+        <v>52</v>
+      </c>
+      <c r="D310">
+        <v>93</v>
+      </c>
+      <c r="E310">
+        <v>139.03</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" t="s">
+        <v>11</v>
+      </c>
+      <c r="B311" t="s">
+        <v>321</v>
+      </c>
+      <c r="C311">
+        <v>183</v>
+      </c>
+      <c r="D311">
+        <v>240.26</v>
+      </c>
+      <c r="E311">
+        <v>139.19</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" t="s">
+        <v>13</v>
+      </c>
+      <c r="B312" t="s">
+        <v>322</v>
+      </c>
+      <c r="C312">
+        <v>191</v>
+      </c>
+      <c r="D312">
+        <v>225.33</v>
+      </c>
+      <c r="E312">
+        <v>139.36</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" t="s">
+        <v>15</v>
+      </c>
+      <c r="B313" t="s">
+        <v>323</v>
+      </c>
+      <c r="C313">
+        <v>261</v>
+      </c>
+      <c r="D313">
+        <v>234.98</v>
+      </c>
+      <c r="E313">
+        <v>139.52</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" t="s">
+        <v>17</v>
+      </c>
+      <c r="B314" t="s">
+        <v>324</v>
+      </c>
+      <c r="C314">
+        <v>207</v>
+      </c>
+      <c r="D314">
+        <v>243.64</v>
+      </c>
+      <c r="E314">
+        <v>139.68</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" t="s">
+        <v>5</v>
+      </c>
+      <c r="B315" t="s">
+        <v>325</v>
+      </c>
+      <c r="C315">
+        <v>256</v>
+      </c>
+      <c r="D315">
+        <v>248.67</v>
+      </c>
+      <c r="E315">
+        <v>139.84</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" t="s">
+        <v>7</v>
+      </c>
+      <c r="B316" t="s">
+        <v>326</v>
+      </c>
+      <c r="C316">
+        <v>105</v>
+      </c>
+      <c r="D316">
+        <v>119</v>
+      </c>
+      <c r="E316">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" t="s">
+        <v>9</v>
+      </c>
+      <c r="B317" t="s">
+        <v>327</v>
+      </c>
+      <c r="C317">
+        <v>115</v>
+      </c>
+      <c r="D317">
+        <v>93.48999999999999</v>
+      </c>
+      <c r="E317">
+        <v>140.16</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" t="s">
+        <v>11</v>
+      </c>
+      <c r="B318" t="s">
+        <v>328</v>
+      </c>
+      <c r="C318">
+        <v>187</v>
+      </c>
+      <c r="D318">
+        <v>239.02</v>
+      </c>
+      <c r="E318">
+        <v>140.32</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" t="s">
+        <v>13</v>
+      </c>
+      <c r="B319" t="s">
+        <v>329</v>
+      </c>
+      <c r="C319">
+        <v>226</v>
+      </c>
+      <c r="D319">
+        <v>225.35</v>
+      </c>
+      <c r="E319">
+        <v>140.49</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" t="s">
+        <v>15</v>
+      </c>
+      <c r="B320" t="s">
+        <v>330</v>
+      </c>
+      <c r="C320">
+        <v>197</v>
+      </c>
+      <c r="D320">
+        <v>234.17</v>
+      </c>
+      <c r="E320">
+        <v>140.65</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" t="s">
+        <v>17</v>
+      </c>
+      <c r="B321" t="s">
+        <v>331</v>
+      </c>
+      <c r="C321">
+        <v>132</v>
+      </c>
+      <c r="D321">
+        <v>241.22</v>
+      </c>
+      <c r="E321">
+        <v>140.81</v>
       </c>
     </row>
   </sheetData>
